--- a/artfynd/A 62696-2025 artfynd.xlsx
+++ b/artfynd/A 62696-2025 artfynd.xlsx
@@ -683,7 +683,7 @@
         <v>130887083</v>
       </c>
       <c r="B2" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -822,7 +822,7 @@
         <v>130887118</v>
       </c>
       <c r="B3" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -953,7 +953,7 @@
         <v>130887121</v>
       </c>
       <c r="B4" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -1076,10 +1076,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>130887092</v>
+        <v>130887089</v>
       </c>
       <c r="B5" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1119,10 +1119,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>495933</v>
+        <v>496018</v>
       </c>
       <c r="R5" t="n">
-        <v>7016163</v>
+        <v>7016278</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på en levande gran nära kant mot ungskog.</t>
+          <t>Ringhack, äldre, i riklig mängd längs flera meter på en granstam. Med tydliga spår av sav/kådaflöden. Granen med ringhack står intill en enklare körväg.</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1211,10 +1211,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>130887089</v>
+        <v>130887092</v>
       </c>
       <c r="B6" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1254,10 +1254,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>496018</v>
+        <v>495933</v>
       </c>
       <c r="R6" t="n">
-        <v>7016278</v>
+        <v>7016163</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1294,7 +1294,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, i riklig mängd längs flera meter på en granstam. Med tydliga spår av sav/kådaflöden. Granen med ringhack står intill en enklare körväg.</t>
+          <t>Ringhack, äldre, på en levande gran nära kant mot ungskog.</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1349,7 +1349,7 @@
         <v>130887090</v>
       </c>
       <c r="B7" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
         <v>130887094</v>
       </c>
       <c r="B8" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1619,7 +1619,7 @@
         <v>130887108</v>
       </c>
       <c r="B9" t="n">
-        <v>97874</v>
+        <v>97878</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1723,10 +1723,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>130887126</v>
+        <v>130887100</v>
       </c>
       <c r="B10" t="n">
-        <v>79239</v>
+        <v>57884</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1734,26 +1734,31 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
@@ -1761,10 +1766,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>495942</v>
+        <v>495805</v>
       </c>
       <c r="R10" t="n">
-        <v>7016269</v>
+        <v>7016271</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1799,13 +1804,17 @@
           <t>2026-01-26</t>
         </is>
       </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>Ringhack, äldre, på en levande gran vid kanten mot ungskog. Spår av sav/kådaflöde på granens stam.</t>
+        </is>
+      </c>
       <c r="AD10" t="b">
         <v>0</v>
       </c>
       <c r="AE10" t="b">
         <v>0</v>
       </c>
-      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
       </c>
@@ -1826,12 +1835,12 @@
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr"/>
@@ -1849,10 +1858,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>130887123</v>
+        <v>130887088</v>
       </c>
       <c r="B11" t="n">
-        <v>79239</v>
+        <v>57884</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1860,37 +1869,46 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P11" t="inlineStr">
         <is>
           <t>Palleråsen Södra, Jmt</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>495877</v>
+        <v>495679</v>
       </c>
       <c r="R11" t="n">
-        <v>7016242</v>
+        <v>7016071</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1925,13 +1943,17 @@
           <t>2026-01-26</t>
         </is>
       </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>Ringhack, färska, på en gran intill en mindre väg.</t>
+        </is>
+      </c>
       <c r="AD11" t="b">
         <v>0</v>
       </c>
       <c r="AE11" t="b">
         <v>0</v>
       </c>
-      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
       </c>
@@ -1952,12 +1974,12 @@
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr"/>
@@ -1975,10 +1997,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>130887133</v>
+        <v>130887102</v>
       </c>
       <c r="B12" t="n">
-        <v>79239</v>
+        <v>57884</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1986,26 +2008,31 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>gammalt bo</t>
+        </is>
+      </c>
       <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
@@ -2013,10 +2040,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>496017</v>
+        <v>495951</v>
       </c>
       <c r="R12" t="n">
-        <v>7016363</v>
+        <v>7016339</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -2051,13 +2078,17 @@
           <t>2026-01-26</t>
         </is>
       </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>Gammalt bohål på 2 meters höjd i en stående död gran. Bohålet är 5 cm i diameter längst ut och ca 4 cm i diameter en bit in i ingångshålet. Ev. skapat av tretåig hackspett. Stående död ved som indikerar högt livsmiljövärde för tretåig hackspett finns på/kring fyndplatsen.</t>
+        </is>
+      </c>
       <c r="AD12" t="b">
         <v>0</v>
       </c>
       <c r="AE12" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF12" t="inlineStr"/>
+        <v>1</v>
+      </c>
       <c r="AG12" t="b">
         <v>0</v>
       </c>
@@ -2078,12 +2109,12 @@
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr"/>
@@ -2101,10 +2132,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>130887100</v>
+        <v>130887126</v>
       </c>
       <c r="B13" t="n">
-        <v>57880</v>
+        <v>79243</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -2112,31 +2143,26 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
@@ -2144,10 +2170,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>495805</v>
+        <v>495942</v>
       </c>
       <c r="R13" t="n">
-        <v>7016271</v>
+        <v>7016269</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2182,17 +2208,13 @@
           <t>2026-01-26</t>
         </is>
       </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>Ringhack, äldre, på en levande gran vid kanten mot ungskog. Spår av sav/kådaflöde på granens stam.</t>
-        </is>
-      </c>
       <c r="AD13" t="b">
         <v>0</v>
       </c>
       <c r="AE13" t="b">
         <v>0</v>
       </c>
+      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
       </c>
@@ -2213,12 +2235,12 @@
       </c>
       <c r="AM13" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr"/>
@@ -2236,10 +2258,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>130887088</v>
+        <v>130887123</v>
       </c>
       <c r="B14" t="n">
-        <v>57880</v>
+        <v>79243</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2247,46 +2269,37 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+      <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
           <t>Palleråsen Södra, Jmt</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>495679</v>
+        <v>495877</v>
       </c>
       <c r="R14" t="n">
-        <v>7016071</v>
+        <v>7016242</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2321,17 +2334,13 @@
           <t>2026-01-26</t>
         </is>
       </c>
-      <c r="AC14" t="inlineStr">
-        <is>
-          <t>Ringhack, färska, på en gran intill en mindre väg.</t>
-        </is>
-      </c>
       <c r="AD14" t="b">
         <v>0</v>
       </c>
       <c r="AE14" t="b">
         <v>0</v>
       </c>
+      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
       </c>
@@ -2352,12 +2361,12 @@
       </c>
       <c r="AM14" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr"/>
@@ -2375,10 +2384,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>130887102</v>
+        <v>130887133</v>
       </c>
       <c r="B15" t="n">
-        <v>57880</v>
+        <v>79243</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2386,31 +2395,26 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>gammalt bo</t>
-        </is>
-      </c>
       <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
@@ -2418,10 +2422,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>495951</v>
+        <v>496017</v>
       </c>
       <c r="R15" t="n">
-        <v>7016339</v>
+        <v>7016363</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2456,17 +2460,13 @@
           <t>2026-01-26</t>
         </is>
       </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>Gammalt bohål på 2 meters höjd i en stående död gran. Bohålet är 5 cm i diameter längst ut och ca 4 cm i diameter en bit in i ingångshålet. Ev. skapat av tretåig hackspett. Stående död ved som indikerar högt livsmiljövärde för tretåig hackspett finns på/kring fyndplatsen.</t>
-        </is>
-      </c>
       <c r="AD15" t="b">
         <v>0</v>
       </c>
       <c r="AE15" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
       </c>
@@ -2487,12 +2487,12 @@
       </c>
       <c r="AM15" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr"/>
@@ -2513,7 +2513,7 @@
         <v>130887125</v>
       </c>
       <c r="B16" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2639,7 +2639,7 @@
         <v>130887095</v>
       </c>
       <c r="B17" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2774,7 +2774,7 @@
         <v>130887122</v>
       </c>
       <c r="B18" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2900,7 +2900,7 @@
         <v>130887085</v>
       </c>
       <c r="B19" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -3035,7 +3035,7 @@
         <v>130887104</v>
       </c>
       <c r="B20" t="n">
-        <v>80373</v>
+        <v>80377</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -3174,7 +3174,7 @@
         <v>130887106</v>
       </c>
       <c r="B21" t="n">
-        <v>80373</v>
+        <v>80377</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -3309,7 +3309,7 @@
         <v>130887119</v>
       </c>
       <c r="B22" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -3440,7 +3440,7 @@
         <v>130887116</v>
       </c>
       <c r="B23" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -3571,7 +3571,7 @@
         <v>130887098</v>
       </c>
       <c r="B24" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3703,10 +3703,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>130887120</v>
+        <v>130887107</v>
       </c>
       <c r="B25" t="n">
-        <v>79239</v>
+        <v>57881</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3714,41 +3714,50 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>med apothecier</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P25" t="inlineStr">
         <is>
           <t>Palleråsen Södra, Jmt</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>495991</v>
+        <v>495982</v>
       </c>
       <c r="R25" t="n">
-        <v>7016264</v>
+        <v>7016398</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3785,7 +3794,7 @@
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>Långväxta fertila bålar med apothecier.</t>
+          <t>1 eller möjligen 2 individer som sågs och hördes hacka i stående döda granar och uttryckte lockläte emellanåt. Hyfsat gott om stående död ved på/kring fyndplatsen.</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3794,7 +3803,6 @@
       <c r="AE25" t="b">
         <v>0</v>
       </c>
-      <c r="AF25" t="inlineStr"/>
       <c r="AG25" t="b">
         <v>0</v>
       </c>
@@ -3803,24 +3811,9 @@
           <t>Granskog</t>
         </is>
       </c>
-      <c r="AJ25" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK25" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM25" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
-      <c r="AO25" t="inlineStr">
-        <is>
-          <t>Branch on living tree # Picea abies</t>
+      <c r="AI25" t="inlineStr">
+        <is>
+          <t>Äldre bitvis flerskiktad granskog.</t>
         </is>
       </c>
       <c r="AT25" t="inlineStr"/>
@@ -3838,10 +3831,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>130887107</v>
+        <v>130887120</v>
       </c>
       <c r="B26" t="n">
-        <v>57877</v>
+        <v>79243</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3849,50 +3842,41 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>med apothecier</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
           <t>Palleråsen Södra, Jmt</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>495982</v>
+        <v>495991</v>
       </c>
       <c r="R26" t="n">
-        <v>7016398</v>
+        <v>7016264</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3929,7 +3913,7 @@
       </c>
       <c r="AC26" t="inlineStr">
         <is>
-          <t>1 eller möjligen 2 individer som sågs och hördes hacka i stående döda granar och uttryckte lockläte emellanåt. Hyfsat gott om stående död ved på/kring fyndplatsen.</t>
+          <t>Långväxta fertila bålar med apothecier.</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3938,6 +3922,7 @@
       <c r="AE26" t="b">
         <v>0</v>
       </c>
+      <c r="AF26" t="inlineStr"/>
       <c r="AG26" t="b">
         <v>0</v>
       </c>
@@ -3946,9 +3931,24 @@
           <t>Granskog</t>
         </is>
       </c>
-      <c r="AI26" t="inlineStr">
-        <is>
-          <t>Äldre bitvis flerskiktad granskog.</t>
+      <c r="AJ26" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK26" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM26" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
+      <c r="AO26" t="inlineStr">
+        <is>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT26" t="inlineStr"/>
@@ -3969,7 +3969,7 @@
         <v>130887130</v>
       </c>
       <c r="B27" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         <v>130887128</v>
       </c>
       <c r="B28" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -4231,7 +4231,7 @@
         <v>130887132</v>
       </c>
       <c r="B29" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -4362,7 +4362,7 @@
         <v>130887127</v>
       </c>
       <c r="B30" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -4493,7 +4493,7 @@
         <v>130887096</v>
       </c>
       <c r="B31" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -4628,7 +4628,7 @@
         <v>130887086</v>
       </c>
       <c r="B32" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -4763,7 +4763,7 @@
         <v>130887093</v>
       </c>
       <c r="B33" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -4895,10 +4895,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>130887113</v>
+        <v>130887082</v>
       </c>
       <c r="B34" t="n">
-        <v>79239</v>
+        <v>91808</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4906,26 +4906,30 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
       <c r="N34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
@@ -4933,10 +4937,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>495718</v>
+        <v>495948</v>
       </c>
       <c r="R34" t="n">
-        <v>7015966</v>
+        <v>7016328</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4971,6 +4975,11 @@
           <t>2026-01-26</t>
         </is>
       </c>
+      <c r="AC34" t="inlineStr">
+        <is>
+          <t>Rikligt med fruktkroppar i en upplyft granlåga.</t>
+        </is>
+      </c>
       <c r="AD34" t="b">
         <v>0</v>
       </c>
@@ -4983,7 +4992,7 @@
       </c>
       <c r="AH34" t="inlineStr">
         <is>
-          <t>Barrskog</t>
+          <t>Granskog</t>
         </is>
       </c>
       <c r="AJ34" t="inlineStr">
@@ -4998,12 +5007,12 @@
       </c>
       <c r="AM34" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Liggande död trädstam, utan markontakt</t>
         </is>
       </c>
       <c r="AO34" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Horizontal, dead without ground contact # Picea abies</t>
         </is>
       </c>
       <c r="AT34" t="inlineStr"/>
@@ -5021,10 +5030,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>130887117</v>
+        <v>130887113</v>
       </c>
       <c r="B35" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -5059,10 +5068,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>495769</v>
+        <v>495718</v>
       </c>
       <c r="R35" t="n">
-        <v>7016151</v>
+        <v>7015966</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -5097,11 +5106,6 @@
           <t>2026-01-26</t>
         </is>
       </c>
-      <c r="AC35" t="inlineStr">
-        <is>
-          <t>Växer på en hyfsat grovbarkig gammal gran.</t>
-        </is>
-      </c>
       <c r="AD35" t="b">
         <v>0</v>
       </c>
@@ -5114,7 +5118,7 @@
       </c>
       <c r="AH35" t="inlineStr">
         <is>
-          <t>Granskog</t>
+          <t>Barrskog</t>
         </is>
       </c>
       <c r="AJ35" t="inlineStr">
@@ -5152,10 +5156,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>130887082</v>
+        <v>130887117</v>
       </c>
       <c r="B36" t="n">
-        <v>91804</v>
+        <v>79243</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -5163,30 +5167,26 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="N36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
@@ -5194,10 +5194,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>495948</v>
+        <v>495769</v>
       </c>
       <c r="R36" t="n">
-        <v>7016328</v>
+        <v>7016151</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -5234,7 +5234,7 @@
       </c>
       <c r="AC36" t="inlineStr">
         <is>
-          <t>Rikligt med fruktkroppar i en upplyft granlåga.</t>
+          <t>Växer på en hyfsat grovbarkig gammal gran.</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -5264,12 +5264,12 @@
       </c>
       <c r="AM36" t="inlineStr">
         <is>
-          <t>Liggande död trädstam, utan markontakt</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO36" t="inlineStr">
         <is>
-          <t>Horizontal, dead without ground contact # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT36" t="inlineStr"/>
@@ -5290,7 +5290,7 @@
         <v>130887084</v>
       </c>
       <c r="B37" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>130887099</v>
       </c>
       <c r="B38" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -5564,7 +5564,7 @@
         <v>130887109</v>
       </c>
       <c r="B39" t="n">
-        <v>97874</v>
+        <v>97878</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -5671,7 +5671,7 @@
         <v>130887131</v>
       </c>
       <c r="B40" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -5802,7 +5802,7 @@
         <v>130887115</v>
       </c>
       <c r="B41" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -5928,7 +5928,7 @@
         <v>130887114</v>
       </c>
       <c r="B42" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -6054,7 +6054,7 @@
         <v>130887105</v>
       </c>
       <c r="B43" t="n">
-        <v>80373</v>
+        <v>80377</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -6181,10 +6181,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>130887081</v>
+        <v>130887097</v>
       </c>
       <c r="B44" t="n">
-        <v>91804</v>
+        <v>57884</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -6192,28 +6192,29 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N44" t="inlineStr"/>
@@ -6223,10 +6224,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>495919</v>
+        <v>495856</v>
       </c>
       <c r="R44" t="n">
-        <v>7016205</v>
+        <v>7016255</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -6263,7 +6264,7 @@
       </c>
       <c r="AC44" t="inlineStr">
         <is>
-          <t>I upplyft granlåga.</t>
+          <t>Ringhack, äldre, längs flera meter långt upp på en levande gran nära kant mot ungskog. Tydliga spår av sav/kådaflöde på granens stam.</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -6272,7 +6273,6 @@
       <c r="AE44" t="b">
         <v>0</v>
       </c>
-      <c r="AF44" t="inlineStr"/>
       <c r="AG44" t="b">
         <v>0</v>
       </c>
@@ -6293,12 +6293,12 @@
       </c>
       <c r="AM44" t="inlineStr">
         <is>
-          <t>Liggande död trädstam, utan markontakt</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO44" t="inlineStr">
         <is>
-          <t>Horizontal, dead without ground contact # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT44" t="inlineStr"/>
@@ -6316,10 +6316,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>130887124</v>
+        <v>130887087</v>
       </c>
       <c r="B45" t="n">
-        <v>79239</v>
+        <v>57884</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -6327,26 +6327,31 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
@@ -6354,10 +6359,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>495877</v>
+        <v>495680</v>
       </c>
       <c r="R45" t="n">
-        <v>7016270</v>
+        <v>7016064</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -6394,7 +6399,7 @@
       </c>
       <c r="AC45" t="inlineStr">
         <is>
-          <t>Långväxta bålar på gran.</t>
+          <t>Ringhack, färska, på en högväxt gran intill en mindre väg.</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -6403,7 +6408,6 @@
       <c r="AE45" t="b">
         <v>0</v>
       </c>
-      <c r="AF45" t="inlineStr"/>
       <c r="AG45" t="b">
         <v>0</v>
       </c>
@@ -6424,12 +6428,12 @@
       </c>
       <c r="AM45" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO45" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT45" t="inlineStr"/>
@@ -6447,10 +6451,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>130887129</v>
+        <v>130887091</v>
       </c>
       <c r="B46" t="n">
-        <v>79239</v>
+        <v>57884</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -6458,26 +6462,31 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N46" t="inlineStr"/>
       <c r="P46" t="inlineStr">
         <is>
@@ -6485,10 +6494,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>495878</v>
+        <v>495967</v>
       </c>
       <c r="R46" t="n">
-        <v>7016320</v>
+        <v>7016170</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -6523,13 +6532,17 @@
           <t>2026-01-26</t>
         </is>
       </c>
+      <c r="AC46" t="inlineStr">
+        <is>
+          <t>Ringhack, färska, på en levande gran vid en hyggeskant.</t>
+        </is>
+      </c>
       <c r="AD46" t="b">
         <v>0</v>
       </c>
       <c r="AE46" t="b">
         <v>0</v>
       </c>
-      <c r="AF46" t="inlineStr"/>
       <c r="AG46" t="b">
         <v>0</v>
       </c>
@@ -6550,12 +6563,12 @@
       </c>
       <c r="AM46" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO46" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT46" t="inlineStr"/>
@@ -6573,10 +6586,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>130887087</v>
+        <v>130887081</v>
       </c>
       <c r="B47" t="n">
-        <v>57880</v>
+        <v>91808</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -6584,29 +6597,28 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>färska spår</t>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
         </is>
       </c>
       <c r="N47" t="inlineStr"/>
@@ -6616,10 +6628,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>495680</v>
+        <v>495919</v>
       </c>
       <c r="R47" t="n">
-        <v>7016064</v>
+        <v>7016205</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -6656,7 +6668,7 @@
       </c>
       <c r="AC47" t="inlineStr">
         <is>
-          <t>Ringhack, färska, på en högväxt gran intill en mindre väg.</t>
+          <t>I upplyft granlåga.</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -6665,6 +6677,7 @@
       <c r="AE47" t="b">
         <v>0</v>
       </c>
+      <c r="AF47" t="inlineStr"/>
       <c r="AG47" t="b">
         <v>0</v>
       </c>
@@ -6685,12 +6698,12 @@
       </c>
       <c r="AM47" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Liggande död trädstam, utan markontakt</t>
         </is>
       </c>
       <c r="AO47" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Horizontal, dead without ground contact # Picea abies</t>
         </is>
       </c>
       <c r="AT47" t="inlineStr"/>
@@ -6708,10 +6721,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>130887097</v>
+        <v>130887124</v>
       </c>
       <c r="B48" t="n">
-        <v>57880</v>
+        <v>79243</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -6719,31 +6732,26 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
@@ -6751,10 +6759,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>495856</v>
+        <v>495877</v>
       </c>
       <c r="R48" t="n">
-        <v>7016255</v>
+        <v>7016270</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -6791,7 +6799,7 @@
       </c>
       <c r="AC48" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, längs flera meter långt upp på en levande gran nära kant mot ungskog. Tydliga spår av sav/kådaflöde på granens stam.</t>
+          <t>Långväxta bålar på gran.</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -6800,6 +6808,7 @@
       <c r="AE48" t="b">
         <v>0</v>
       </c>
+      <c r="AF48" t="inlineStr"/>
       <c r="AG48" t="b">
         <v>0</v>
       </c>
@@ -6820,12 +6829,12 @@
       </c>
       <c r="AM48" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO48" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT48" t="inlineStr"/>
@@ -6843,10 +6852,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>130887091</v>
+        <v>130887129</v>
       </c>
       <c r="B49" t="n">
-        <v>57880</v>
+        <v>79243</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -6854,31 +6863,26 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
@@ -6886,10 +6890,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>495967</v>
+        <v>495878</v>
       </c>
       <c r="R49" t="n">
-        <v>7016170</v>
+        <v>7016320</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -6924,17 +6928,13 @@
           <t>2026-01-26</t>
         </is>
       </c>
-      <c r="AC49" t="inlineStr">
-        <is>
-          <t>Ringhack, färska, på en levande gran vid en hyggeskant.</t>
-        </is>
-      </c>
       <c r="AD49" t="b">
         <v>0</v>
       </c>
       <c r="AE49" t="b">
         <v>0</v>
       </c>
+      <c r="AF49" t="inlineStr"/>
       <c r="AG49" t="b">
         <v>0</v>
       </c>
@@ -6955,12 +6955,12 @@
       </c>
       <c r="AM49" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO49" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT49" t="inlineStr"/>
@@ -6981,7 +6981,7 @@
         <v>130887112</v>
       </c>
       <c r="B50" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -7112,7 +7112,7 @@
         <v>130887101</v>
       </c>
       <c r="B51" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>

--- a/artfynd/A 62696-2025 artfynd.xlsx
+++ b/artfynd/A 62696-2025 artfynd.xlsx
@@ -3703,10 +3703,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>130887107</v>
+        <v>130887120</v>
       </c>
       <c r="B25" t="n">
-        <v>57881</v>
+        <v>79243</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3714,50 +3714,41 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>med apothecier</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
           <t>Palleråsen Södra, Jmt</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>495982</v>
+        <v>495991</v>
       </c>
       <c r="R25" t="n">
-        <v>7016398</v>
+        <v>7016264</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3794,7 +3785,7 @@
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>1 eller möjligen 2 individer som sågs och hördes hacka i stående döda granar och uttryckte lockläte emellanåt. Hyfsat gott om stående död ved på/kring fyndplatsen.</t>
+          <t>Långväxta fertila bålar med apothecier.</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3803,6 +3794,7 @@
       <c r="AE25" t="b">
         <v>0</v>
       </c>
+      <c r="AF25" t="inlineStr"/>
       <c r="AG25" t="b">
         <v>0</v>
       </c>
@@ -3811,9 +3803,24 @@
           <t>Granskog</t>
         </is>
       </c>
-      <c r="AI25" t="inlineStr">
-        <is>
-          <t>Äldre bitvis flerskiktad granskog.</t>
+      <c r="AJ25" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK25" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM25" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
+      <c r="AO25" t="inlineStr">
+        <is>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT25" t="inlineStr"/>
@@ -3831,10 +3838,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>130887120</v>
+        <v>130887107</v>
       </c>
       <c r="B26" t="n">
-        <v>79243</v>
+        <v>57881</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3842,41 +3849,50 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>med apothecier</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P26" t="inlineStr">
         <is>
           <t>Palleråsen Södra, Jmt</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>495991</v>
+        <v>495982</v>
       </c>
       <c r="R26" t="n">
-        <v>7016264</v>
+        <v>7016398</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3913,7 +3929,7 @@
       </c>
       <c r="AC26" t="inlineStr">
         <is>
-          <t>Långväxta fertila bålar med apothecier.</t>
+          <t>1 eller möjligen 2 individer som sågs och hördes hacka i stående döda granar och uttryckte lockläte emellanåt. Hyfsat gott om stående död ved på/kring fyndplatsen.</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3922,7 +3938,6 @@
       <c r="AE26" t="b">
         <v>0</v>
       </c>
-      <c r="AF26" t="inlineStr"/>
       <c r="AG26" t="b">
         <v>0</v>
       </c>
@@ -3931,24 +3946,9 @@
           <t>Granskog</t>
         </is>
       </c>
-      <c r="AJ26" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK26" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM26" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
-      <c r="AO26" t="inlineStr">
-        <is>
-          <t>Branch on living tree # Picea abies</t>
+      <c r="AI26" t="inlineStr">
+        <is>
+          <t>Äldre bitvis flerskiktad granskog.</t>
         </is>
       </c>
       <c r="AT26" t="inlineStr"/>
@@ -4228,10 +4228,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>130887132</v>
+        <v>130887096</v>
       </c>
       <c r="B29" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -4239,26 +4239,31 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
@@ -4266,10 +4271,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>496008</v>
+        <v>495870</v>
       </c>
       <c r="R29" t="n">
-        <v>7016340</v>
+        <v>7016247</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -4306,7 +4311,7 @@
       </c>
       <c r="AC29" t="inlineStr">
         <is>
-          <t>Långväxta bålar på gran. Ca 50 cm lång hängande bål.</t>
+          <t>Ringhack, äldre, på en levande gran nära kant mot ungskog.</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -4315,7 +4320,6 @@
       <c r="AE29" t="b">
         <v>0</v>
       </c>
-      <c r="AF29" t="inlineStr"/>
       <c r="AG29" t="b">
         <v>0</v>
       </c>
@@ -4336,12 +4340,12 @@
       </c>
       <c r="AM29" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO29" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT29" t="inlineStr"/>
@@ -4359,10 +4363,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>130887127</v>
+        <v>130887086</v>
       </c>
       <c r="B30" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -4370,26 +4374,31 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
@@ -4397,10 +4406,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>495831</v>
+        <v>495683</v>
       </c>
       <c r="R30" t="n">
-        <v>7016258</v>
+        <v>7016064</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4437,7 +4446,7 @@
       </c>
       <c r="AC30" t="inlineStr">
         <is>
-          <t>På en gren av gran på ca 2 m höjd.</t>
+          <t>Ringhack, färska, på en gran nära en mindre väg.</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4446,7 +4455,6 @@
       <c r="AE30" t="b">
         <v>0</v>
       </c>
-      <c r="AF30" t="inlineStr"/>
       <c r="AG30" t="b">
         <v>0</v>
       </c>
@@ -4467,12 +4475,12 @@
       </c>
       <c r="AM30" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO30" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT30" t="inlineStr"/>
@@ -4490,10 +4498,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>130887096</v>
+        <v>130887132</v>
       </c>
       <c r="B31" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -4501,31 +4509,26 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
@@ -4533,10 +4536,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>495870</v>
+        <v>496008</v>
       </c>
       <c r="R31" t="n">
-        <v>7016247</v>
+        <v>7016340</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4573,7 +4576,7 @@
       </c>
       <c r="AC31" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på en levande gran nära kant mot ungskog.</t>
+          <t>Långväxta bålar på gran. Ca 50 cm lång hängande bål.</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4582,6 +4585,7 @@
       <c r="AE31" t="b">
         <v>0</v>
       </c>
+      <c r="AF31" t="inlineStr"/>
       <c r="AG31" t="b">
         <v>0</v>
       </c>
@@ -4602,12 +4606,12 @@
       </c>
       <c r="AM31" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO31" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT31" t="inlineStr"/>
@@ -4625,10 +4629,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>130887086</v>
+        <v>130887127</v>
       </c>
       <c r="B32" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -4636,31 +4640,26 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
@@ -4668,10 +4667,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>495683</v>
+        <v>495831</v>
       </c>
       <c r="R32" t="n">
-        <v>7016064</v>
+        <v>7016258</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4708,7 +4707,7 @@
       </c>
       <c r="AC32" t="inlineStr">
         <is>
-          <t>Ringhack, färska, på en gran nära en mindre väg.</t>
+          <t>På en gren av gran på ca 2 m höjd.</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4717,6 +4716,7 @@
       <c r="AE32" t="b">
         <v>0</v>
       </c>
+      <c r="AF32" t="inlineStr"/>
       <c r="AG32" t="b">
         <v>0</v>
       </c>
@@ -4737,12 +4737,12 @@
       </c>
       <c r="AM32" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO32" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT32" t="inlineStr"/>

--- a/artfynd/A 62696-2025 artfynd.xlsx
+++ b/artfynd/A 62696-2025 artfynd.xlsx
@@ -1076,7 +1076,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>130887089</v>
+        <v>130887092</v>
       </c>
       <c r="B5" t="n">
         <v>57884</v>
@@ -1119,10 +1119,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>496018</v>
+        <v>495933</v>
       </c>
       <c r="R5" t="n">
-        <v>7016278</v>
+        <v>7016163</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, i riklig mängd längs flera meter på en granstam. Med tydliga spår av sav/kådaflöden. Granen med ringhack står intill en enklare körväg.</t>
+          <t>Ringhack, äldre, på en levande gran nära kant mot ungskog.</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1211,7 +1211,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>130887092</v>
+        <v>130887089</v>
       </c>
       <c r="B6" t="n">
         <v>57884</v>
@@ -1254,10 +1254,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>495933</v>
+        <v>496018</v>
       </c>
       <c r="R6" t="n">
-        <v>7016163</v>
+        <v>7016278</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1294,7 +1294,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på en levande gran nära kant mot ungskog.</t>
+          <t>Ringhack, äldre, i riklig mängd längs flera meter på en granstam. Med tydliga spår av sav/kådaflöden. Granen med ringhack står intill en enklare körväg.</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1481,42 +1481,38 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>130887094</v>
+        <v>130887108</v>
       </c>
       <c r="B8" t="n">
-        <v>57884</v>
+        <v>97878</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>100109</v>
+        <v>221945</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
@@ -1524,10 +1520,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>495901</v>
+        <v>495742</v>
       </c>
       <c r="R8" t="n">
-        <v>7016223</v>
+        <v>7016070</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1562,43 +1558,19 @@
           <t>2026-01-26</t>
         </is>
       </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>Ringhack, färska, på en levande något grövre gammal gran nära kant mot ungskog.</t>
-        </is>
-      </c>
       <c r="AD8" t="b">
         <v>0</v>
       </c>
       <c r="AE8" t="b">
         <v>0</v>
       </c>
+      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="b">
         <v>0</v>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ8" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM8" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO8" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr"/>
@@ -1616,38 +1588,42 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>130887108</v>
+        <v>130887094</v>
       </c>
       <c r="B9" t="n">
-        <v>97878</v>
+        <v>57884</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>221945</v>
+        <v>100109</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
@@ -1655,10 +1631,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>495742</v>
+        <v>495901</v>
       </c>
       <c r="R9" t="n">
-        <v>7016070</v>
+        <v>7016223</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1693,19 +1669,43 @@
           <t>2026-01-26</t>
         </is>
       </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>Ringhack, färska, på en levande något grövre gammal gran nära kant mot ungskog.</t>
+        </is>
+      </c>
       <c r="AD9" t="b">
         <v>0</v>
       </c>
       <c r="AE9" t="b">
         <v>0</v>
       </c>
-      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
       </c>
       <c r="AH9" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ9" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM9" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr"/>
@@ -1723,10 +1723,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>130887100</v>
+        <v>130887126</v>
       </c>
       <c r="B10" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1734,31 +1734,26 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
@@ -1766,10 +1761,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>495805</v>
+        <v>495942</v>
       </c>
       <c r="R10" t="n">
-        <v>7016271</v>
+        <v>7016269</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1804,17 +1799,13 @@
           <t>2026-01-26</t>
         </is>
       </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>Ringhack, äldre, på en levande gran vid kanten mot ungskog. Spår av sav/kådaflöde på granens stam.</t>
-        </is>
-      </c>
       <c r="AD10" t="b">
         <v>0</v>
       </c>
       <c r="AE10" t="b">
         <v>0</v>
       </c>
+      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
       </c>
@@ -1835,12 +1826,12 @@
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr"/>
@@ -1858,10 +1849,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>130887088</v>
+        <v>130887123</v>
       </c>
       <c r="B11" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1869,46 +1860,37 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>Palleråsen Södra, Jmt</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>495679</v>
+        <v>495877</v>
       </c>
       <c r="R11" t="n">
-        <v>7016071</v>
+        <v>7016242</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1943,17 +1925,13 @@
           <t>2026-01-26</t>
         </is>
       </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>Ringhack, färska, på en gran intill en mindre väg.</t>
-        </is>
-      </c>
       <c r="AD11" t="b">
         <v>0</v>
       </c>
       <c r="AE11" t="b">
         <v>0</v>
       </c>
+      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
       </c>
@@ -1974,12 +1952,12 @@
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr"/>
@@ -1997,10 +1975,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>130887102</v>
+        <v>130887133</v>
       </c>
       <c r="B12" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -2008,31 +1986,26 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>gammalt bo</t>
-        </is>
-      </c>
       <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
@@ -2040,10 +2013,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>495951</v>
+        <v>496017</v>
       </c>
       <c r="R12" t="n">
-        <v>7016339</v>
+        <v>7016363</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -2078,17 +2051,13 @@
           <t>2026-01-26</t>
         </is>
       </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>Gammalt bohål på 2 meters höjd i en stående död gran. Bohålet är 5 cm i diameter längst ut och ca 4 cm i diameter en bit in i ingångshålet. Ev. skapat av tretåig hackspett. Stående död ved som indikerar högt livsmiljövärde för tretåig hackspett finns på/kring fyndplatsen.</t>
-        </is>
-      </c>
       <c r="AD12" t="b">
         <v>0</v>
       </c>
       <c r="AE12" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
       </c>
@@ -2109,12 +2078,12 @@
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr"/>
@@ -2132,10 +2101,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>130887126</v>
+        <v>130887100</v>
       </c>
       <c r="B13" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -2143,26 +2112,31 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
@@ -2170,10 +2144,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>495942</v>
+        <v>495805</v>
       </c>
       <c r="R13" t="n">
-        <v>7016269</v>
+        <v>7016271</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2208,13 +2182,17 @@
           <t>2026-01-26</t>
         </is>
       </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>Ringhack, äldre, på en levande gran vid kanten mot ungskog. Spår av sav/kådaflöde på granens stam.</t>
+        </is>
+      </c>
       <c r="AD13" t="b">
         <v>0</v>
       </c>
       <c r="AE13" t="b">
         <v>0</v>
       </c>
-      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
       </c>
@@ -2235,12 +2213,12 @@
       </c>
       <c r="AM13" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr"/>
@@ -2258,10 +2236,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>130887123</v>
+        <v>130887088</v>
       </c>
       <c r="B14" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2269,37 +2247,46 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P14" t="inlineStr">
         <is>
           <t>Palleråsen Södra, Jmt</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>495877</v>
+        <v>495679</v>
       </c>
       <c r="R14" t="n">
-        <v>7016242</v>
+        <v>7016071</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2334,13 +2321,17 @@
           <t>2026-01-26</t>
         </is>
       </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>Ringhack, färska, på en gran intill en mindre väg.</t>
+        </is>
+      </c>
       <c r="AD14" t="b">
         <v>0</v>
       </c>
       <c r="AE14" t="b">
         <v>0</v>
       </c>
-      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
       </c>
@@ -2361,12 +2352,12 @@
       </c>
       <c r="AM14" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr"/>
@@ -2384,10 +2375,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>130887133</v>
+        <v>130887102</v>
       </c>
       <c r="B15" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2395,26 +2386,31 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>gammalt bo</t>
+        </is>
+      </c>
       <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
@@ -2422,10 +2418,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>496017</v>
+        <v>495951</v>
       </c>
       <c r="R15" t="n">
-        <v>7016363</v>
+        <v>7016339</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2460,13 +2456,17 @@
           <t>2026-01-26</t>
         </is>
       </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>Gammalt bohål på 2 meters höjd i en stående död gran. Bohålet är 5 cm i diameter längst ut och ca 4 cm i diameter en bit in i ingångshålet. Ev. skapat av tretåig hackspett. Stående död ved som indikerar högt livsmiljövärde för tretåig hackspett finns på/kring fyndplatsen.</t>
+        </is>
+      </c>
       <c r="AD15" t="b">
         <v>0</v>
       </c>
       <c r="AE15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF15" t="inlineStr"/>
+        <v>1</v>
+      </c>
       <c r="AG15" t="b">
         <v>0</v>
       </c>
@@ -2487,12 +2487,12 @@
       </c>
       <c r="AM15" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr"/>
@@ -4228,10 +4228,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>130887096</v>
+        <v>130887132</v>
       </c>
       <c r="B29" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -4239,31 +4239,26 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
@@ -4271,10 +4266,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>495870</v>
+        <v>496008</v>
       </c>
       <c r="R29" t="n">
-        <v>7016247</v>
+        <v>7016340</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -4311,7 +4306,7 @@
       </c>
       <c r="AC29" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på en levande gran nära kant mot ungskog.</t>
+          <t>Långväxta bålar på gran. Ca 50 cm lång hängande bål.</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -4320,6 +4315,7 @@
       <c r="AE29" t="b">
         <v>0</v>
       </c>
+      <c r="AF29" t="inlineStr"/>
       <c r="AG29" t="b">
         <v>0</v>
       </c>
@@ -4340,12 +4336,12 @@
       </c>
       <c r="AM29" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO29" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT29" t="inlineStr"/>
@@ -4363,10 +4359,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>130887086</v>
+        <v>130887127</v>
       </c>
       <c r="B30" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -4374,31 +4370,26 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
@@ -4406,10 +4397,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>495683</v>
+        <v>495831</v>
       </c>
       <c r="R30" t="n">
-        <v>7016064</v>
+        <v>7016258</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4446,7 +4437,7 @@
       </c>
       <c r="AC30" t="inlineStr">
         <is>
-          <t>Ringhack, färska, på en gran nära en mindre väg.</t>
+          <t>På en gren av gran på ca 2 m höjd.</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4455,6 +4446,7 @@
       <c r="AE30" t="b">
         <v>0</v>
       </c>
+      <c r="AF30" t="inlineStr"/>
       <c r="AG30" t="b">
         <v>0</v>
       </c>
@@ -4475,12 +4467,12 @@
       </c>
       <c r="AM30" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO30" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT30" t="inlineStr"/>
@@ -4498,10 +4490,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>130887132</v>
+        <v>130887096</v>
       </c>
       <c r="B31" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -4509,26 +4501,31 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
@@ -4536,10 +4533,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>496008</v>
+        <v>495870</v>
       </c>
       <c r="R31" t="n">
-        <v>7016340</v>
+        <v>7016247</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4576,7 +4573,7 @@
       </c>
       <c r="AC31" t="inlineStr">
         <is>
-          <t>Långväxta bålar på gran. Ca 50 cm lång hängande bål.</t>
+          <t>Ringhack, äldre, på en levande gran nära kant mot ungskog.</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4585,7 +4582,6 @@
       <c r="AE31" t="b">
         <v>0</v>
       </c>
-      <c r="AF31" t="inlineStr"/>
       <c r="AG31" t="b">
         <v>0</v>
       </c>
@@ -4606,12 +4602,12 @@
       </c>
       <c r="AM31" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO31" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT31" t="inlineStr"/>
@@ -4629,10 +4625,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>130887127</v>
+        <v>130887086</v>
       </c>
       <c r="B32" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -4640,26 +4636,31 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
@@ -4667,10 +4668,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>495831</v>
+        <v>495683</v>
       </c>
       <c r="R32" t="n">
-        <v>7016258</v>
+        <v>7016064</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4707,7 +4708,7 @@
       </c>
       <c r="AC32" t="inlineStr">
         <is>
-          <t>På en gren av gran på ca 2 m höjd.</t>
+          <t>Ringhack, färska, på en gran nära en mindre väg.</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4716,7 +4717,6 @@
       <c r="AE32" t="b">
         <v>0</v>
       </c>
-      <c r="AF32" t="inlineStr"/>
       <c r="AG32" t="b">
         <v>0</v>
       </c>
@@ -4737,12 +4737,12 @@
       </c>
       <c r="AM32" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO32" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT32" t="inlineStr"/>
@@ -4895,10 +4895,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>130887082</v>
+        <v>130887113</v>
       </c>
       <c r="B34" t="n">
-        <v>91808</v>
+        <v>79243</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4906,30 +4906,26 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="N34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
@@ -4937,10 +4933,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>495948</v>
+        <v>495718</v>
       </c>
       <c r="R34" t="n">
-        <v>7016328</v>
+        <v>7015966</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4975,11 +4971,6 @@
           <t>2026-01-26</t>
         </is>
       </c>
-      <c r="AC34" t="inlineStr">
-        <is>
-          <t>Rikligt med fruktkroppar i en upplyft granlåga.</t>
-        </is>
-      </c>
       <c r="AD34" t="b">
         <v>0</v>
       </c>
@@ -4992,7 +4983,7 @@
       </c>
       <c r="AH34" t="inlineStr">
         <is>
-          <t>Granskog</t>
+          <t>Barrskog</t>
         </is>
       </c>
       <c r="AJ34" t="inlineStr">
@@ -5007,12 +4998,12 @@
       </c>
       <c r="AM34" t="inlineStr">
         <is>
-          <t>Liggande död trädstam, utan markontakt</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO34" t="inlineStr">
         <is>
-          <t>Horizontal, dead without ground contact # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT34" t="inlineStr"/>
@@ -5030,7 +5021,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>130887113</v>
+        <v>130887117</v>
       </c>
       <c r="B35" t="n">
         <v>79243</v>
@@ -5068,10 +5059,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>495718</v>
+        <v>495769</v>
       </c>
       <c r="R35" t="n">
-        <v>7015966</v>
+        <v>7016151</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -5106,6 +5097,11 @@
           <t>2026-01-26</t>
         </is>
       </c>
+      <c r="AC35" t="inlineStr">
+        <is>
+          <t>Växer på en hyfsat grovbarkig gammal gran.</t>
+        </is>
+      </c>
       <c r="AD35" t="b">
         <v>0</v>
       </c>
@@ -5118,7 +5114,7 @@
       </c>
       <c r="AH35" t="inlineStr">
         <is>
-          <t>Barrskog</t>
+          <t>Granskog</t>
         </is>
       </c>
       <c r="AJ35" t="inlineStr">
@@ -5156,10 +5152,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>130887117</v>
+        <v>130887082</v>
       </c>
       <c r="B36" t="n">
-        <v>79243</v>
+        <v>91808</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -5167,26 +5163,30 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
       <c r="N36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
@@ -5194,10 +5194,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>495769</v>
+        <v>495948</v>
       </c>
       <c r="R36" t="n">
-        <v>7016151</v>
+        <v>7016328</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -5234,7 +5234,7 @@
       </c>
       <c r="AC36" t="inlineStr">
         <is>
-          <t>Växer på en hyfsat grovbarkig gammal gran.</t>
+          <t>Rikligt med fruktkroppar i en upplyft granlåga.</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -5264,12 +5264,12 @@
       </c>
       <c r="AM36" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Liggande död trädstam, utan markontakt</t>
         </is>
       </c>
       <c r="AO36" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Horizontal, dead without ground contact # Picea abies</t>
         </is>
       </c>
       <c r="AT36" t="inlineStr"/>
@@ -6181,10 +6181,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>130887097</v>
+        <v>130887081</v>
       </c>
       <c r="B44" t="n">
-        <v>57884</v>
+        <v>91808</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -6192,29 +6192,28 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
         </is>
       </c>
       <c r="N44" t="inlineStr"/>
@@ -6224,10 +6223,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>495856</v>
+        <v>495919</v>
       </c>
       <c r="R44" t="n">
-        <v>7016255</v>
+        <v>7016205</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -6264,7 +6263,7 @@
       </c>
       <c r="AC44" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, längs flera meter långt upp på en levande gran nära kant mot ungskog. Tydliga spår av sav/kådaflöde på granens stam.</t>
+          <t>I upplyft granlåga.</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -6273,6 +6272,7 @@
       <c r="AE44" t="b">
         <v>0</v>
       </c>
+      <c r="AF44" t="inlineStr"/>
       <c r="AG44" t="b">
         <v>0</v>
       </c>
@@ -6293,12 +6293,12 @@
       </c>
       <c r="AM44" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Liggande död trädstam, utan markontakt</t>
         </is>
       </c>
       <c r="AO44" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Horizontal, dead without ground contact # Picea abies</t>
         </is>
       </c>
       <c r="AT44" t="inlineStr"/>
@@ -6316,10 +6316,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>130887087</v>
+        <v>130887124</v>
       </c>
       <c r="B45" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -6327,31 +6327,26 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
@@ -6359,10 +6354,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>495680</v>
+        <v>495877</v>
       </c>
       <c r="R45" t="n">
-        <v>7016064</v>
+        <v>7016270</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -6399,7 +6394,7 @@
       </c>
       <c r="AC45" t="inlineStr">
         <is>
-          <t>Ringhack, färska, på en högväxt gran intill en mindre väg.</t>
+          <t>Långväxta bålar på gran.</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -6408,6 +6403,7 @@
       <c r="AE45" t="b">
         <v>0</v>
       </c>
+      <c r="AF45" t="inlineStr"/>
       <c r="AG45" t="b">
         <v>0</v>
       </c>
@@ -6428,12 +6424,12 @@
       </c>
       <c r="AM45" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO45" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT45" t="inlineStr"/>
@@ -6451,10 +6447,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>130887091</v>
+        <v>130887129</v>
       </c>
       <c r="B46" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -6462,31 +6458,26 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N46" t="inlineStr"/>
       <c r="P46" t="inlineStr">
         <is>
@@ -6494,10 +6485,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>495967</v>
+        <v>495878</v>
       </c>
       <c r="R46" t="n">
-        <v>7016170</v>
+        <v>7016320</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -6532,17 +6523,13 @@
           <t>2026-01-26</t>
         </is>
       </c>
-      <c r="AC46" t="inlineStr">
-        <is>
-          <t>Ringhack, färska, på en levande gran vid en hyggeskant.</t>
-        </is>
-      </c>
       <c r="AD46" t="b">
         <v>0</v>
       </c>
       <c r="AE46" t="b">
         <v>0</v>
       </c>
+      <c r="AF46" t="inlineStr"/>
       <c r="AG46" t="b">
         <v>0</v>
       </c>
@@ -6563,12 +6550,12 @@
       </c>
       <c r="AM46" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO46" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT46" t="inlineStr"/>
@@ -6586,10 +6573,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>130887081</v>
+        <v>130887087</v>
       </c>
       <c r="B47" t="n">
-        <v>91808</v>
+        <v>57884</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -6597,28 +6584,29 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N47" t="inlineStr"/>
@@ -6628,10 +6616,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>495919</v>
+        <v>495680</v>
       </c>
       <c r="R47" t="n">
-        <v>7016205</v>
+        <v>7016064</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -6668,7 +6656,7 @@
       </c>
       <c r="AC47" t="inlineStr">
         <is>
-          <t>I upplyft granlåga.</t>
+          <t>Ringhack, färska, på en högväxt gran intill en mindre väg.</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -6677,7 +6665,6 @@
       <c r="AE47" t="b">
         <v>0</v>
       </c>
-      <c r="AF47" t="inlineStr"/>
       <c r="AG47" t="b">
         <v>0</v>
       </c>
@@ -6698,12 +6685,12 @@
       </c>
       <c r="AM47" t="inlineStr">
         <is>
-          <t>Liggande död trädstam, utan markontakt</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO47" t="inlineStr">
         <is>
-          <t>Horizontal, dead without ground contact # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT47" t="inlineStr"/>
@@ -6721,10 +6708,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>130887124</v>
+        <v>130887097</v>
       </c>
       <c r="B48" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -6732,26 +6719,31 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
@@ -6759,10 +6751,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>495877</v>
+        <v>495856</v>
       </c>
       <c r="R48" t="n">
-        <v>7016270</v>
+        <v>7016255</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -6799,7 +6791,7 @@
       </c>
       <c r="AC48" t="inlineStr">
         <is>
-          <t>Långväxta bålar på gran.</t>
+          <t>Ringhack, äldre, längs flera meter långt upp på en levande gran nära kant mot ungskog. Tydliga spår av sav/kådaflöde på granens stam.</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -6808,7 +6800,6 @@
       <c r="AE48" t="b">
         <v>0</v>
       </c>
-      <c r="AF48" t="inlineStr"/>
       <c r="AG48" t="b">
         <v>0</v>
       </c>
@@ -6829,12 +6820,12 @@
       </c>
       <c r="AM48" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO48" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT48" t="inlineStr"/>
@@ -6852,10 +6843,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>130887129</v>
+        <v>130887091</v>
       </c>
       <c r="B49" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -6863,26 +6854,31 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
@@ -6890,10 +6886,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>495878</v>
+        <v>495967</v>
       </c>
       <c r="R49" t="n">
-        <v>7016320</v>
+        <v>7016170</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -6928,13 +6924,17 @@
           <t>2026-01-26</t>
         </is>
       </c>
+      <c r="AC49" t="inlineStr">
+        <is>
+          <t>Ringhack, färska, på en levande gran vid en hyggeskant.</t>
+        </is>
+      </c>
       <c r="AD49" t="b">
         <v>0</v>
       </c>
       <c r="AE49" t="b">
         <v>0</v>
       </c>
-      <c r="AF49" t="inlineStr"/>
       <c r="AG49" t="b">
         <v>0</v>
       </c>
@@ -6955,12 +6955,12 @@
       </c>
       <c r="AM49" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO49" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT49" t="inlineStr"/>

--- a/artfynd/A 62696-2025 artfynd.xlsx
+++ b/artfynd/A 62696-2025 artfynd.xlsx
@@ -819,10 +819,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>130887118</v>
+        <v>130887092</v>
       </c>
       <c r="B3" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -830,26 +830,31 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -857,10 +862,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>495992</v>
+        <v>495933</v>
       </c>
       <c r="R3" t="n">
-        <v>7016301</v>
+        <v>7016163</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -897,7 +902,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>På gran intill andra hänglavar.</t>
+          <t>Ringhack, äldre, på en levande gran nära kant mot ungskog.</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -906,7 +911,6 @@
       <c r="AE3" t="b">
         <v>0</v>
       </c>
-      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
       </c>
@@ -927,12 +931,12 @@
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
@@ -950,10 +954,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>130887121</v>
+        <v>130887089</v>
       </c>
       <c r="B4" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -961,26 +965,31 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
@@ -988,10 +997,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>495911</v>
+        <v>496018</v>
       </c>
       <c r="R4" t="n">
-        <v>7016227</v>
+        <v>7016278</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1026,13 +1035,17 @@
           <t>2026-01-26</t>
         </is>
       </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>Ringhack, äldre, i riklig mängd längs flera meter på en granstam. Med tydliga spår av sav/kådaflöden. Granen med ringhack står intill en enklare körväg.</t>
+        </is>
+      </c>
       <c r="AD4" t="b">
         <v>0</v>
       </c>
       <c r="AE4" t="b">
         <v>0</v>
       </c>
-      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
@@ -1053,12 +1066,12 @@
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
@@ -1076,7 +1089,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>130887092</v>
+        <v>130887090</v>
       </c>
       <c r="B5" t="n">
         <v>57884</v>
@@ -1109,7 +1122,7 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>gammalt bo</t>
         </is>
       </c>
       <c r="N5" t="inlineStr"/>
@@ -1119,10 +1132,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>495933</v>
+        <v>495983</v>
       </c>
       <c r="R5" t="n">
-        <v>7016163</v>
+        <v>7016212</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1159,7 +1172,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på en levande gran nära kant mot ungskog.</t>
+          <t>Välsnidat bohål på ca 1,75 meters höjd i en döende gran. Bohålets diameter är 4,5 cm.</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1211,10 +1224,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>130887089</v>
+        <v>130887118</v>
       </c>
       <c r="B6" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1222,31 +1235,26 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
@@ -1254,10 +1262,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>496018</v>
+        <v>495992</v>
       </c>
       <c r="R6" t="n">
-        <v>7016278</v>
+        <v>7016301</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1294,7 +1302,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, i riklig mängd längs flera meter på en granstam. Med tydliga spår av sav/kådaflöden. Granen med ringhack står intill en enklare körväg.</t>
+          <t>På gran intill andra hänglavar.</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1303,6 +1311,7 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
+      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
@@ -1323,12 +1332,12 @@
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
@@ -1346,10 +1355,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>130887090</v>
+        <v>130887121</v>
       </c>
       <c r="B7" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1357,31 +1366,26 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>gammalt bo</t>
-        </is>
-      </c>
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
@@ -1389,10 +1393,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>495983</v>
+        <v>495911</v>
       </c>
       <c r="R7" t="n">
-        <v>7016212</v>
+        <v>7016227</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1427,17 +1431,13 @@
           <t>2026-01-26</t>
         </is>
       </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>Välsnidat bohål på ca 1,75 meters höjd i en döende gran. Bohålets diameter är 4,5 cm.</t>
-        </is>
-      </c>
       <c r="AD7" t="b">
         <v>0</v>
       </c>
       <c r="AE7" t="b">
         <v>0</v>
       </c>
+      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
       </c>
@@ -1458,12 +1458,12 @@
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr"/>

--- a/artfynd/A 62696-2025 artfynd.xlsx
+++ b/artfynd/A 62696-2025 artfynd.xlsx
@@ -819,10 +819,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>130887092</v>
+        <v>130887121</v>
       </c>
       <c r="B3" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -830,31 +830,26 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -862,10 +857,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>495933</v>
+        <v>495911</v>
       </c>
       <c r="R3" t="n">
-        <v>7016163</v>
+        <v>7016227</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -900,17 +895,13 @@
           <t>2026-01-26</t>
         </is>
       </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>Ringhack, äldre, på en levande gran nära kant mot ungskog.</t>
-        </is>
-      </c>
       <c r="AD3" t="b">
         <v>0</v>
       </c>
       <c r="AE3" t="b">
         <v>0</v>
       </c>
+      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
       </c>
@@ -931,12 +922,12 @@
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
@@ -954,10 +945,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>130887089</v>
+        <v>130887118</v>
       </c>
       <c r="B4" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -965,31 +956,26 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
@@ -997,10 +983,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>496018</v>
+        <v>495992</v>
       </c>
       <c r="R4" t="n">
-        <v>7016278</v>
+        <v>7016301</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1037,7 +1023,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, i riklig mängd längs flera meter på en granstam. Med tydliga spår av sav/kådaflöden. Granen med ringhack står intill en enklare körväg.</t>
+          <t>På gran intill andra hänglavar.</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1046,6 +1032,7 @@
       <c r="AE4" t="b">
         <v>0</v>
       </c>
+      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
@@ -1066,12 +1053,12 @@
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
@@ -1089,7 +1076,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>130887090</v>
+        <v>130887092</v>
       </c>
       <c r="B5" t="n">
         <v>57884</v>
@@ -1122,7 +1109,7 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>gammalt bo</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N5" t="inlineStr"/>
@@ -1132,10 +1119,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>495983</v>
+        <v>495933</v>
       </c>
       <c r="R5" t="n">
-        <v>7016212</v>
+        <v>7016163</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1172,7 +1159,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>Välsnidat bohål på ca 1,75 meters höjd i en döende gran. Bohålets diameter är 4,5 cm.</t>
+          <t>Ringhack, äldre, på en levande gran nära kant mot ungskog.</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1224,10 +1211,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>130887118</v>
+        <v>130887089</v>
       </c>
       <c r="B6" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1235,26 +1222,31 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
@@ -1262,10 +1254,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>495992</v>
+        <v>496018</v>
       </c>
       <c r="R6" t="n">
-        <v>7016301</v>
+        <v>7016278</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1302,7 +1294,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>På gran intill andra hänglavar.</t>
+          <t>Ringhack, äldre, i riklig mängd längs flera meter på en granstam. Med tydliga spår av sav/kådaflöden. Granen med ringhack står intill en enklare körväg.</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1311,7 +1303,6 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
-      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
@@ -1332,12 +1323,12 @@
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
@@ -1355,10 +1346,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>130887121</v>
+        <v>130887090</v>
       </c>
       <c r="B7" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1366,26 +1357,31 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>gammalt bo</t>
+        </is>
+      </c>
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
@@ -1393,10 +1389,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>495911</v>
+        <v>495983</v>
       </c>
       <c r="R7" t="n">
-        <v>7016227</v>
+        <v>7016212</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1431,13 +1427,17 @@
           <t>2026-01-26</t>
         </is>
       </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>Välsnidat bohål på ca 1,75 meters höjd i en döende gran. Bohålets diameter är 4,5 cm.</t>
+        </is>
+      </c>
       <c r="AD7" t="b">
         <v>0</v>
       </c>
       <c r="AE7" t="b">
         <v>0</v>
       </c>
-      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
       </c>
@@ -1458,12 +1458,12 @@
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr"/>
@@ -1975,10 +1975,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>130887133</v>
+        <v>130887100</v>
       </c>
       <c r="B12" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1986,26 +1986,31 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
@@ -2013,10 +2018,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>496017</v>
+        <v>495805</v>
       </c>
       <c r="R12" t="n">
-        <v>7016363</v>
+        <v>7016271</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -2051,13 +2056,17 @@
           <t>2026-01-26</t>
         </is>
       </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>Ringhack, äldre, på en levande gran vid kanten mot ungskog. Spår av sav/kådaflöde på granens stam.</t>
+        </is>
+      </c>
       <c r="AD12" t="b">
         <v>0</v>
       </c>
       <c r="AE12" t="b">
         <v>0</v>
       </c>
-      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
       </c>
@@ -2078,12 +2087,12 @@
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr"/>
@@ -2101,7 +2110,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>130887100</v>
+        <v>130887088</v>
       </c>
       <c r="B13" t="n">
         <v>57884</v>
@@ -2134,20 +2143,24 @@
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr"/>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P13" t="inlineStr">
         <is>
           <t>Palleråsen Södra, Jmt</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>495805</v>
+        <v>495679</v>
       </c>
       <c r="R13" t="n">
-        <v>7016271</v>
+        <v>7016071</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2184,7 +2197,7 @@
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på en levande gran vid kanten mot ungskog. Spår av sav/kådaflöde på granens stam.</t>
+          <t>Ringhack, färska, på en gran intill en mindre väg.</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2236,7 +2249,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>130887088</v>
+        <v>130887102</v>
       </c>
       <c r="B14" t="n">
         <v>57884</v>
@@ -2269,24 +2282,20 @@
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+          <t>gammalt bo</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
           <t>Palleråsen Södra, Jmt</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>495679</v>
+        <v>495951</v>
       </c>
       <c r="R14" t="n">
-        <v>7016071</v>
+        <v>7016339</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2323,14 +2332,14 @@
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>Ringhack, färska, på en gran intill en mindre väg.</t>
+          <t>Gammalt bohål på 2 meters höjd i en stående död gran. Bohålet är 5 cm i diameter längst ut och ca 4 cm i diameter en bit in i ingångshålet. Ev. skapat av tretåig hackspett. Stående död ved som indikerar högt livsmiljövärde för tretåig hackspett finns på/kring fyndplatsen.</t>
         </is>
       </c>
       <c r="AD14" t="b">
         <v>0</v>
       </c>
       <c r="AE14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG14" t="b">
         <v>0</v>
@@ -2375,10 +2384,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>130887102</v>
+        <v>130887133</v>
       </c>
       <c r="B15" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2386,31 +2395,26 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>gammalt bo</t>
-        </is>
-      </c>
       <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
@@ -2418,10 +2422,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>495951</v>
+        <v>496017</v>
       </c>
       <c r="R15" t="n">
-        <v>7016339</v>
+        <v>7016363</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2456,17 +2460,13 @@
           <t>2026-01-26</t>
         </is>
       </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>Gammalt bohål på 2 meters höjd i en stående död gran. Bohålet är 5 cm i diameter längst ut och ca 4 cm i diameter en bit in i ingångshålet. Ev. skapat av tretåig hackspett. Stående död ved som indikerar högt livsmiljövärde för tretåig hackspett finns på/kring fyndplatsen.</t>
-        </is>
-      </c>
       <c r="AD15" t="b">
         <v>0</v>
       </c>
       <c r="AE15" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
       </c>
@@ -2487,12 +2487,12 @@
       </c>
       <c r="AM15" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr"/>
@@ -2771,10 +2771,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>130887122</v>
+        <v>130887085</v>
       </c>
       <c r="B18" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2782,26 +2782,31 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
@@ -2809,10 +2814,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>495898</v>
+        <v>495713</v>
       </c>
       <c r="R18" t="n">
-        <v>7016234</v>
+        <v>7015939</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2847,13 +2852,17 @@
           <t>2026-01-26</t>
         </is>
       </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>Ringhack, äldre, längs flera meter på en gran med spår efter påtagligt sav/kådaflöde.</t>
+        </is>
+      </c>
       <c r="AD18" t="b">
         <v>0</v>
       </c>
       <c r="AE18" t="b">
         <v>0</v>
       </c>
-      <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="b">
         <v>0</v>
       </c>
@@ -2874,12 +2883,12 @@
       </c>
       <c r="AM18" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT18" t="inlineStr"/>
@@ -2897,10 +2906,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>130887085</v>
+        <v>130887122</v>
       </c>
       <c r="B19" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2908,31 +2917,26 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
@@ -2940,10 +2944,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>495713</v>
+        <v>495898</v>
       </c>
       <c r="R19" t="n">
-        <v>7015939</v>
+        <v>7016234</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2978,17 +2982,13 @@
           <t>2026-01-26</t>
         </is>
       </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>Ringhack, äldre, längs flera meter på en gran med spår efter påtagligt sav/kådaflöde.</t>
-        </is>
-      </c>
       <c r="AD19" t="b">
         <v>0</v>
       </c>
       <c r="AE19" t="b">
         <v>0</v>
       </c>
+      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
       </c>
@@ -3009,12 +3009,12 @@
       </c>
       <c r="AM19" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO19" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT19" t="inlineStr"/>
@@ -3171,39 +3171,40 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>130887106</v>
+        <v>130887098</v>
       </c>
       <c r="B21" t="n">
-        <v>80377</v>
+        <v>57884</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6462</v>
+        <v>100109</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>med apothecier</t>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N21" t="inlineStr"/>
@@ -3213,10 +3214,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>495981</v>
+        <v>495849</v>
       </c>
       <c r="R21" t="n">
-        <v>7016252</v>
+        <v>7016251</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3253,7 +3254,7 @@
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>Enstaka bålar på en sälg.</t>
+          <t>Ringhack, äldre, längs några meter på en levande gran nära kant mot ungskog.</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3262,7 +3263,6 @@
       <c r="AE21" t="b">
         <v>0</v>
       </c>
-      <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="b">
         <v>0</v>
       </c>
@@ -3273,22 +3273,22 @@
       </c>
       <c r="AJ21" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK21" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM21" t="inlineStr">
         <is>
-          <t>Bark på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO21" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Salix caprea</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT21" t="inlineStr"/>
@@ -3306,37 +3306,41 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>130887119</v>
+        <v>130887106</v>
       </c>
       <c r="B22" t="n">
-        <v>79243</v>
+        <v>80377</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6425</v>
+        <v>6462</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>med apothecier</t>
+        </is>
+      </c>
       <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
@@ -3344,10 +3348,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>495992</v>
+        <v>495981</v>
       </c>
       <c r="R22" t="n">
-        <v>7016329</v>
+        <v>7016252</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3384,7 +3388,7 @@
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>Långväxta bålar på flera granar. Längsta bålen ca 80 cm.</t>
+          <t>Enstaka bålar på en sälg.</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3404,22 +3408,22 @@
       </c>
       <c r="AJ22" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK22" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AM22" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO22" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Bark on living woody plant # Salix caprea</t>
         </is>
       </c>
       <c r="AT22" t="inlineStr"/>
@@ -3437,7 +3441,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>130887116</v>
+        <v>130887119</v>
       </c>
       <c r="B23" t="n">
         <v>79243</v>
@@ -3475,10 +3479,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>495725</v>
+        <v>495992</v>
       </c>
       <c r="R23" t="n">
-        <v>7016183</v>
+        <v>7016329</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3515,7 +3519,7 @@
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>Långväxta bålar på gran.</t>
+          <t>Långväxta bålar på flera granar. Längsta bålen ca 80 cm.</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3568,10 +3572,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>130887098</v>
+        <v>130887116</v>
       </c>
       <c r="B24" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3579,31 +3583,26 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
@@ -3611,10 +3610,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>495849</v>
+        <v>495725</v>
       </c>
       <c r="R24" t="n">
-        <v>7016251</v>
+        <v>7016183</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3651,7 +3650,7 @@
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, längs några meter på en levande gran nära kant mot ungskog.</t>
+          <t>Långväxta bålar på gran.</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3660,6 +3659,7 @@
       <c r="AE24" t="b">
         <v>0</v>
       </c>
+      <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="b">
         <v>0</v>
       </c>
@@ -3680,12 +3680,12 @@
       </c>
       <c r="AM24" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO24" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT24" t="inlineStr"/>
@@ -4228,10 +4228,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>130887132</v>
+        <v>130887096</v>
       </c>
       <c r="B29" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -4239,26 +4239,31 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
@@ -4266,10 +4271,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>496008</v>
+        <v>495870</v>
       </c>
       <c r="R29" t="n">
-        <v>7016340</v>
+        <v>7016247</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -4306,7 +4311,7 @@
       </c>
       <c r="AC29" t="inlineStr">
         <is>
-          <t>Långväxta bålar på gran. Ca 50 cm lång hängande bål.</t>
+          <t>Ringhack, äldre, på en levande gran nära kant mot ungskog.</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -4315,7 +4320,6 @@
       <c r="AE29" t="b">
         <v>0</v>
       </c>
-      <c r="AF29" t="inlineStr"/>
       <c r="AG29" t="b">
         <v>0</v>
       </c>
@@ -4336,12 +4340,12 @@
       </c>
       <c r="AM29" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO29" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT29" t="inlineStr"/>
@@ -4359,7 +4363,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>130887127</v>
+        <v>130887132</v>
       </c>
       <c r="B30" t="n">
         <v>79243</v>
@@ -4397,10 +4401,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>495831</v>
+        <v>496008</v>
       </c>
       <c r="R30" t="n">
-        <v>7016258</v>
+        <v>7016340</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4437,7 +4441,7 @@
       </c>
       <c r="AC30" t="inlineStr">
         <is>
-          <t>På en gren av gran på ca 2 m höjd.</t>
+          <t>Långväxta bålar på gran. Ca 50 cm lång hängande bål.</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4490,10 +4494,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>130887096</v>
+        <v>130887127</v>
       </c>
       <c r="B31" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -4501,31 +4505,26 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
@@ -4533,10 +4532,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>495870</v>
+        <v>495831</v>
       </c>
       <c r="R31" t="n">
-        <v>7016247</v>
+        <v>7016258</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4573,7 +4572,7 @@
       </c>
       <c r="AC31" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på en levande gran nära kant mot ungskog.</t>
+          <t>På en gren av gran på ca 2 m höjd.</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4582,6 +4581,7 @@
       <c r="AE31" t="b">
         <v>0</v>
       </c>
+      <c r="AF31" t="inlineStr"/>
       <c r="AG31" t="b">
         <v>0</v>
       </c>
@@ -4602,12 +4602,12 @@
       </c>
       <c r="AM31" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO31" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT31" t="inlineStr"/>
@@ -4895,10 +4895,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>130887113</v>
+        <v>130887082</v>
       </c>
       <c r="B34" t="n">
-        <v>79243</v>
+        <v>91808</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4906,26 +4906,30 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
       <c r="N34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
@@ -4933,10 +4937,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>495718</v>
+        <v>495948</v>
       </c>
       <c r="R34" t="n">
-        <v>7015966</v>
+        <v>7016328</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4971,6 +4975,11 @@
           <t>2026-01-26</t>
         </is>
       </c>
+      <c r="AC34" t="inlineStr">
+        <is>
+          <t>Rikligt med fruktkroppar i en upplyft granlåga.</t>
+        </is>
+      </c>
       <c r="AD34" t="b">
         <v>0</v>
       </c>
@@ -4983,7 +4992,7 @@
       </c>
       <c r="AH34" t="inlineStr">
         <is>
-          <t>Barrskog</t>
+          <t>Granskog</t>
         </is>
       </c>
       <c r="AJ34" t="inlineStr">
@@ -4998,12 +5007,12 @@
       </c>
       <c r="AM34" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Liggande död trädstam, utan markontakt</t>
         </is>
       </c>
       <c r="AO34" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Horizontal, dead without ground contact # Picea abies</t>
         </is>
       </c>
       <c r="AT34" t="inlineStr"/>
@@ -5152,10 +5161,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>130887082</v>
+        <v>130887113</v>
       </c>
       <c r="B36" t="n">
-        <v>91808</v>
+        <v>79243</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -5163,30 +5172,26 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="N36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
@@ -5194,10 +5199,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>495948</v>
+        <v>495718</v>
       </c>
       <c r="R36" t="n">
-        <v>7016328</v>
+        <v>7015966</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -5232,11 +5237,6 @@
           <t>2026-01-26</t>
         </is>
       </c>
-      <c r="AC36" t="inlineStr">
-        <is>
-          <t>Rikligt med fruktkroppar i en upplyft granlåga.</t>
-        </is>
-      </c>
       <c r="AD36" t="b">
         <v>0</v>
       </c>
@@ -5249,7 +5249,7 @@
       </c>
       <c r="AH36" t="inlineStr">
         <is>
-          <t>Granskog</t>
+          <t>Barrskog</t>
         </is>
       </c>
       <c r="AJ36" t="inlineStr">
@@ -5264,12 +5264,12 @@
       </c>
       <c r="AM36" t="inlineStr">
         <is>
-          <t>Liggande död trädstam, utan markontakt</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO36" t="inlineStr">
         <is>
-          <t>Horizontal, dead without ground contact # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT36" t="inlineStr"/>
@@ -5925,37 +5925,41 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>130887114</v>
+        <v>130887105</v>
       </c>
       <c r="B42" t="n">
-        <v>79243</v>
+        <v>80377</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>6425</v>
+        <v>6462</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>med apothecier</t>
+        </is>
+      </c>
       <c r="N42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
@@ -5963,10 +5967,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>495689</v>
+        <v>495736</v>
       </c>
       <c r="R42" t="n">
-        <v>7015994</v>
+        <v>7016168</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -6018,22 +6022,22 @@
       </c>
       <c r="AJ42" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK42" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AM42" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO42" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Bark on living woody plant # Salix caprea</t>
         </is>
       </c>
       <c r="AT42" t="inlineStr"/>
@@ -6051,41 +6055,37 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>130887105</v>
+        <v>130887114</v>
       </c>
       <c r="B43" t="n">
-        <v>80377</v>
+        <v>79243</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>6462</v>
+        <v>6425</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>med apothecier</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="N43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
@@ -6093,10 +6093,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>495736</v>
+        <v>495689</v>
       </c>
       <c r="R43" t="n">
-        <v>7016168</v>
+        <v>7015994</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -6148,22 +6148,22 @@
       </c>
       <c r="AJ43" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK43" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM43" t="inlineStr">
         <is>
-          <t>Bark på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO43" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Salix caprea</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT43" t="inlineStr"/>
@@ -6181,10 +6181,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>130887081</v>
+        <v>130887129</v>
       </c>
       <c r="B44" t="n">
-        <v>91808</v>
+        <v>79243</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -6192,30 +6192,26 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="N44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
@@ -6223,10 +6219,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>495919</v>
+        <v>495878</v>
       </c>
       <c r="R44" t="n">
-        <v>7016205</v>
+        <v>7016320</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -6261,11 +6257,6 @@
           <t>2026-01-26</t>
         </is>
       </c>
-      <c r="AC44" t="inlineStr">
-        <is>
-          <t>I upplyft granlåga.</t>
-        </is>
-      </c>
       <c r="AD44" t="b">
         <v>0</v>
       </c>
@@ -6293,12 +6284,12 @@
       </c>
       <c r="AM44" t="inlineStr">
         <is>
-          <t>Liggande död trädstam, utan markontakt</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO44" t="inlineStr">
         <is>
-          <t>Horizontal, dead without ground contact # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT44" t="inlineStr"/>
@@ -6316,10 +6307,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>130887124</v>
+        <v>130887087</v>
       </c>
       <c r="B45" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -6327,26 +6318,31 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
@@ -6354,10 +6350,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>495877</v>
+        <v>495680</v>
       </c>
       <c r="R45" t="n">
-        <v>7016270</v>
+        <v>7016064</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -6394,7 +6390,7 @@
       </c>
       <c r="AC45" t="inlineStr">
         <is>
-          <t>Långväxta bålar på gran.</t>
+          <t>Ringhack, färska, på en högväxt gran intill en mindre väg.</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -6403,7 +6399,6 @@
       <c r="AE45" t="b">
         <v>0</v>
       </c>
-      <c r="AF45" t="inlineStr"/>
       <c r="AG45" t="b">
         <v>0</v>
       </c>
@@ -6424,12 +6419,12 @@
       </c>
       <c r="AM45" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO45" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT45" t="inlineStr"/>
@@ -6447,10 +6442,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>130887129</v>
+        <v>130887097</v>
       </c>
       <c r="B46" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -6458,26 +6453,31 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N46" t="inlineStr"/>
       <c r="P46" t="inlineStr">
         <is>
@@ -6485,10 +6485,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>495878</v>
+        <v>495856</v>
       </c>
       <c r="R46" t="n">
-        <v>7016320</v>
+        <v>7016255</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -6523,13 +6523,17 @@
           <t>2026-01-26</t>
         </is>
       </c>
+      <c r="AC46" t="inlineStr">
+        <is>
+          <t>Ringhack, äldre, längs flera meter långt upp på en levande gran nära kant mot ungskog. Tydliga spår av sav/kådaflöde på granens stam.</t>
+        </is>
+      </c>
       <c r="AD46" t="b">
         <v>0</v>
       </c>
       <c r="AE46" t="b">
         <v>0</v>
       </c>
-      <c r="AF46" t="inlineStr"/>
       <c r="AG46" t="b">
         <v>0</v>
       </c>
@@ -6550,12 +6554,12 @@
       </c>
       <c r="AM46" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO46" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT46" t="inlineStr"/>
@@ -6573,10 +6577,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>130887087</v>
+        <v>130887124</v>
       </c>
       <c r="B47" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -6584,31 +6588,26 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
@@ -6616,10 +6615,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>495680</v>
+        <v>495877</v>
       </c>
       <c r="R47" t="n">
-        <v>7016064</v>
+        <v>7016270</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -6656,7 +6655,7 @@
       </c>
       <c r="AC47" t="inlineStr">
         <is>
-          <t>Ringhack, färska, på en högväxt gran intill en mindre väg.</t>
+          <t>Långväxta bålar på gran.</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -6665,6 +6664,7 @@
       <c r="AE47" t="b">
         <v>0</v>
       </c>
+      <c r="AF47" t="inlineStr"/>
       <c r="AG47" t="b">
         <v>0</v>
       </c>
@@ -6685,12 +6685,12 @@
       </c>
       <c r="AM47" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO47" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT47" t="inlineStr"/>
@@ -6708,10 +6708,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>130887097</v>
+        <v>130887081</v>
       </c>
       <c r="B48" t="n">
-        <v>57884</v>
+        <v>91808</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -6719,29 +6719,28 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
         </is>
       </c>
       <c r="N48" t="inlineStr"/>
@@ -6751,10 +6750,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>495856</v>
+        <v>495919</v>
       </c>
       <c r="R48" t="n">
-        <v>7016255</v>
+        <v>7016205</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -6791,7 +6790,7 @@
       </c>
       <c r="AC48" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, längs flera meter långt upp på en levande gran nära kant mot ungskog. Tydliga spår av sav/kådaflöde på granens stam.</t>
+          <t>I upplyft granlåga.</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -6800,6 +6799,7 @@
       <c r="AE48" t="b">
         <v>0</v>
       </c>
+      <c r="AF48" t="inlineStr"/>
       <c r="AG48" t="b">
         <v>0</v>
       </c>
@@ -6820,12 +6820,12 @@
       </c>
       <c r="AM48" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Liggande död trädstam, utan markontakt</t>
         </is>
       </c>
       <c r="AO48" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Horizontal, dead without ground contact # Picea abies</t>
         </is>
       </c>
       <c r="AT48" t="inlineStr"/>

--- a/artfynd/A 62696-2025 artfynd.xlsx
+++ b/artfynd/A 62696-2025 artfynd.xlsx
@@ -819,10 +819,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>130887121</v>
+        <v>130887092</v>
       </c>
       <c r="B3" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -830,26 +830,31 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -857,10 +862,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>495911</v>
+        <v>495933</v>
       </c>
       <c r="R3" t="n">
-        <v>7016227</v>
+        <v>7016163</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -895,13 +900,17 @@
           <t>2026-01-26</t>
         </is>
       </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>Ringhack, äldre, på en levande gran nära kant mot ungskog.</t>
+        </is>
+      </c>
       <c r="AD3" t="b">
         <v>0</v>
       </c>
       <c r="AE3" t="b">
         <v>0</v>
       </c>
-      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
       </c>
@@ -922,12 +931,12 @@
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
@@ -945,10 +954,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>130887118</v>
+        <v>130887089</v>
       </c>
       <c r="B4" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -956,26 +965,31 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
@@ -983,10 +997,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>495992</v>
+        <v>496018</v>
       </c>
       <c r="R4" t="n">
-        <v>7016301</v>
+        <v>7016278</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1023,7 +1037,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>På gran intill andra hänglavar.</t>
+          <t>Ringhack, äldre, i riklig mängd längs flera meter på en granstam. Med tydliga spår av sav/kådaflöden. Granen med ringhack står intill en enklare körväg.</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1032,7 +1046,6 @@
       <c r="AE4" t="b">
         <v>0</v>
       </c>
-      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
@@ -1053,12 +1066,12 @@
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
@@ -1076,7 +1089,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>130887092</v>
+        <v>130887090</v>
       </c>
       <c r="B5" t="n">
         <v>57884</v>
@@ -1109,7 +1122,7 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>gammalt bo</t>
         </is>
       </c>
       <c r="N5" t="inlineStr"/>
@@ -1119,10 +1132,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>495933</v>
+        <v>495983</v>
       </c>
       <c r="R5" t="n">
-        <v>7016163</v>
+        <v>7016212</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1159,7 +1172,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på en levande gran nära kant mot ungskog.</t>
+          <t>Välsnidat bohål på ca 1,75 meters höjd i en döende gran. Bohålets diameter är 4,5 cm.</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1211,10 +1224,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>130887089</v>
+        <v>130887118</v>
       </c>
       <c r="B6" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1222,31 +1235,26 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
@@ -1254,10 +1262,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>496018</v>
+        <v>495992</v>
       </c>
       <c r="R6" t="n">
-        <v>7016278</v>
+        <v>7016301</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1294,7 +1302,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, i riklig mängd längs flera meter på en granstam. Med tydliga spår av sav/kådaflöden. Granen med ringhack står intill en enklare körväg.</t>
+          <t>På gran intill andra hänglavar.</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1303,6 +1311,7 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
+      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
@@ -1323,12 +1332,12 @@
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
@@ -1346,10 +1355,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>130887090</v>
+        <v>130887121</v>
       </c>
       <c r="B7" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1357,31 +1366,26 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>gammalt bo</t>
-        </is>
-      </c>
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
@@ -1389,10 +1393,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>495983</v>
+        <v>495911</v>
       </c>
       <c r="R7" t="n">
-        <v>7016212</v>
+        <v>7016227</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1427,17 +1431,13 @@
           <t>2026-01-26</t>
         </is>
       </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>Välsnidat bohål på ca 1,75 meters höjd i en döende gran. Bohålets diameter är 4,5 cm.</t>
-        </is>
-      </c>
       <c r="AD7" t="b">
         <v>0</v>
       </c>
       <c r="AE7" t="b">
         <v>0</v>
       </c>
+      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
       </c>
@@ -1458,12 +1458,12 @@
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr"/>
@@ -1481,38 +1481,42 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>130887108</v>
+        <v>130887094</v>
       </c>
       <c r="B8" t="n">
-        <v>97878</v>
+        <v>57884</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>221945</v>
+        <v>100109</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
@@ -1520,10 +1524,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>495742</v>
+        <v>495901</v>
       </c>
       <c r="R8" t="n">
-        <v>7016070</v>
+        <v>7016223</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1558,19 +1562,43 @@
           <t>2026-01-26</t>
         </is>
       </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>Ringhack, färska, på en levande något grövre gammal gran nära kant mot ungskog.</t>
+        </is>
+      </c>
       <c r="AD8" t="b">
         <v>0</v>
       </c>
       <c r="AE8" t="b">
         <v>0</v>
       </c>
-      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="b">
         <v>0</v>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM8" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr"/>
@@ -1588,42 +1616,38 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>130887094</v>
+        <v>130887108</v>
       </c>
       <c r="B9" t="n">
-        <v>57884</v>
+        <v>97878</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>100109</v>
+        <v>221945</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
@@ -1631,10 +1655,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>495901</v>
+        <v>495742</v>
       </c>
       <c r="R9" t="n">
-        <v>7016223</v>
+        <v>7016070</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1669,43 +1693,19 @@
           <t>2026-01-26</t>
         </is>
       </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>Ringhack, färska, på en levande något grövre gammal gran nära kant mot ungskog.</t>
-        </is>
-      </c>
       <c r="AD9" t="b">
         <v>0</v>
       </c>
       <c r="AE9" t="b">
         <v>0</v>
       </c>
+      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
       </c>
       <c r="AH9" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ9" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK9" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM9" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO9" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr"/>
@@ -1723,10 +1723,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>130887126</v>
+        <v>130887100</v>
       </c>
       <c r="B10" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1734,26 +1734,31 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
@@ -1761,10 +1766,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>495942</v>
+        <v>495805</v>
       </c>
       <c r="R10" t="n">
-        <v>7016269</v>
+        <v>7016271</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1799,13 +1804,17 @@
           <t>2026-01-26</t>
         </is>
       </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>Ringhack, äldre, på en levande gran vid kanten mot ungskog. Spår av sav/kådaflöde på granens stam.</t>
+        </is>
+      </c>
       <c r="AD10" t="b">
         <v>0</v>
       </c>
       <c r="AE10" t="b">
         <v>0</v>
       </c>
-      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
       </c>
@@ -1826,12 +1835,12 @@
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr"/>
@@ -1849,10 +1858,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>130887123</v>
+        <v>130887088</v>
       </c>
       <c r="B11" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1860,37 +1869,46 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P11" t="inlineStr">
         <is>
           <t>Palleråsen Södra, Jmt</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>495877</v>
+        <v>495679</v>
       </c>
       <c r="R11" t="n">
-        <v>7016242</v>
+        <v>7016071</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1925,13 +1943,17 @@
           <t>2026-01-26</t>
         </is>
       </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>Ringhack, färska, på en gran intill en mindre väg.</t>
+        </is>
+      </c>
       <c r="AD11" t="b">
         <v>0</v>
       </c>
       <c r="AE11" t="b">
         <v>0</v>
       </c>
-      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
       </c>
@@ -1952,12 +1974,12 @@
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr"/>
@@ -1975,7 +1997,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>130887100</v>
+        <v>130887102</v>
       </c>
       <c r="B12" t="n">
         <v>57884</v>
@@ -2008,7 +2030,7 @@
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>gammalt bo</t>
         </is>
       </c>
       <c r="N12" t="inlineStr"/>
@@ -2018,10 +2040,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>495805</v>
+        <v>495951</v>
       </c>
       <c r="R12" t="n">
-        <v>7016271</v>
+        <v>7016339</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -2058,14 +2080,14 @@
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på en levande gran vid kanten mot ungskog. Spår av sav/kådaflöde på granens stam.</t>
+          <t>Gammalt bohål på 2 meters höjd i en stående död gran. Bohålet är 5 cm i diameter längst ut och ca 4 cm i diameter en bit in i ingångshålet. Ev. skapat av tretåig hackspett. Stående död ved som indikerar högt livsmiljövärde för tretåig hackspett finns på/kring fyndplatsen.</t>
         </is>
       </c>
       <c r="AD12" t="b">
         <v>0</v>
       </c>
       <c r="AE12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG12" t="b">
         <v>0</v>
@@ -2110,10 +2132,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>130887088</v>
+        <v>130887126</v>
       </c>
       <c r="B13" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -2121,46 +2143,37 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+      <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
           <t>Palleråsen Södra, Jmt</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>495679</v>
+        <v>495942</v>
       </c>
       <c r="R13" t="n">
-        <v>7016071</v>
+        <v>7016269</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2195,17 +2208,13 @@
           <t>2026-01-26</t>
         </is>
       </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>Ringhack, färska, på en gran intill en mindre väg.</t>
-        </is>
-      </c>
       <c r="AD13" t="b">
         <v>0</v>
       </c>
       <c r="AE13" t="b">
         <v>0</v>
       </c>
+      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
       </c>
@@ -2226,12 +2235,12 @@
       </c>
       <c r="AM13" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr"/>
@@ -2249,10 +2258,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>130887102</v>
+        <v>130887123</v>
       </c>
       <c r="B14" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2260,31 +2269,26 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>gammalt bo</t>
-        </is>
-      </c>
       <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
@@ -2292,10 +2296,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>495951</v>
+        <v>495877</v>
       </c>
       <c r="R14" t="n">
-        <v>7016339</v>
+        <v>7016242</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2330,17 +2334,13 @@
           <t>2026-01-26</t>
         </is>
       </c>
-      <c r="AC14" t="inlineStr">
-        <is>
-          <t>Gammalt bohål på 2 meters höjd i en stående död gran. Bohålet är 5 cm i diameter längst ut och ca 4 cm i diameter en bit in i ingångshålet. Ev. skapat av tretåig hackspett. Stående död ved som indikerar högt livsmiljövärde för tretåig hackspett finns på/kring fyndplatsen.</t>
-        </is>
-      </c>
       <c r="AD14" t="b">
         <v>0</v>
       </c>
       <c r="AE14" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
       </c>
@@ -2361,12 +2361,12 @@
       </c>
       <c r="AM14" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr"/>
@@ -2510,10 +2510,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>130887125</v>
+        <v>130887095</v>
       </c>
       <c r="B16" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2521,26 +2521,31 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
@@ -2548,10 +2553,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>495945</v>
+        <v>495890</v>
       </c>
       <c r="R16" t="n">
-        <v>7016232</v>
+        <v>7016236</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2586,13 +2591,17 @@
           <t>2026-01-26</t>
         </is>
       </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>Ringhack, äldre, enstaka högt upp på stammen av en levande gran nära kant mot ungskog.</t>
+        </is>
+      </c>
       <c r="AD16" t="b">
         <v>0</v>
       </c>
       <c r="AE16" t="b">
         <v>0</v>
       </c>
-      <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="b">
         <v>0</v>
       </c>
@@ -2613,12 +2622,12 @@
       </c>
       <c r="AM16" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr"/>
@@ -2636,10 +2645,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>130887095</v>
+        <v>130887125</v>
       </c>
       <c r="B17" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2647,31 +2656,26 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
@@ -2679,10 +2683,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>495890</v>
+        <v>495945</v>
       </c>
       <c r="R17" t="n">
-        <v>7016236</v>
+        <v>7016232</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2717,17 +2721,13 @@
           <t>2026-01-26</t>
         </is>
       </c>
-      <c r="AC17" t="inlineStr">
-        <is>
-          <t>Ringhack, äldre, enstaka högt upp på stammen av en levande gran nära kant mot ungskog.</t>
-        </is>
-      </c>
       <c r="AD17" t="b">
         <v>0</v>
       </c>
       <c r="AE17" t="b">
         <v>0</v>
       </c>
+      <c r="AF17" t="inlineStr"/>
       <c r="AG17" t="b">
         <v>0</v>
       </c>
@@ -2748,12 +2748,12 @@
       </c>
       <c r="AM17" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT17" t="inlineStr"/>
@@ -3032,43 +3032,40 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>130887104</v>
+        <v>130887098</v>
       </c>
       <c r="B20" t="n">
-        <v>80377</v>
+        <v>57884</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6462</v>
+        <v>100109</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>dm²</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>med apothecier</t>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N20" t="inlineStr"/>
@@ -3078,10 +3075,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>495828</v>
+        <v>495849</v>
       </c>
       <c r="R20" t="n">
-        <v>7015949</v>
+        <v>7016251</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -3118,7 +3115,7 @@
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>Bålar av stuplav som täcker ca 3 dm2 sälg.</t>
+          <t>Ringhack, äldre, längs några meter på en levande gran nära kant mot ungskog.</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -3127,33 +3124,32 @@
       <c r="AE20" t="b">
         <v>0</v>
       </c>
-      <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="b">
         <v>0</v>
       </c>
       <c r="AH20" t="inlineStr">
         <is>
-          <t>Barrskog</t>
+          <t>Granskog</t>
         </is>
       </c>
       <c r="AJ20" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK20" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM20" t="inlineStr">
         <is>
-          <t>Bark på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO20" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Salix caprea</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT20" t="inlineStr"/>
@@ -3171,40 +3167,43 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>130887098</v>
+        <v>130887104</v>
       </c>
       <c r="B21" t="n">
-        <v>57884</v>
+        <v>80377</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>100109</v>
+        <v>6462</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>dm²</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>med apothecier</t>
         </is>
       </c>
       <c r="N21" t="inlineStr"/>
@@ -3214,10 +3213,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>495849</v>
+        <v>495828</v>
       </c>
       <c r="R21" t="n">
-        <v>7016251</v>
+        <v>7015949</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3254,7 +3253,7 @@
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, längs några meter på en levande gran nära kant mot ungskog.</t>
+          <t>Bålar av stuplav som täcker ca 3 dm2 sälg.</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3263,32 +3262,33 @@
       <c r="AE21" t="b">
         <v>0</v>
       </c>
+      <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="b">
         <v>0</v>
       </c>
       <c r="AH21" t="inlineStr">
         <is>
-          <t>Granskog</t>
+          <t>Barrskog</t>
         </is>
       </c>
       <c r="AJ21" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK21" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AM21" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO21" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Bark on living woody plant # Salix caprea</t>
         </is>
       </c>
       <c r="AT21" t="inlineStr"/>
@@ -3703,10 +3703,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>130887120</v>
+        <v>130887107</v>
       </c>
       <c r="B25" t="n">
-        <v>79243</v>
+        <v>57881</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3714,41 +3714,50 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>med apothecier</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P25" t="inlineStr">
         <is>
           <t>Palleråsen Södra, Jmt</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>495991</v>
+        <v>495982</v>
       </c>
       <c r="R25" t="n">
-        <v>7016264</v>
+        <v>7016398</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3785,7 +3794,7 @@
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>Långväxta fertila bålar med apothecier.</t>
+          <t>1 eller möjligen 2 individer som sågs och hördes hacka i stående döda granar och uttryckte lockläte emellanåt. Hyfsat gott om stående död ved på/kring fyndplatsen.</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3794,7 +3803,6 @@
       <c r="AE25" t="b">
         <v>0</v>
       </c>
-      <c r="AF25" t="inlineStr"/>
       <c r="AG25" t="b">
         <v>0</v>
       </c>
@@ -3803,24 +3811,9 @@
           <t>Granskog</t>
         </is>
       </c>
-      <c r="AJ25" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK25" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM25" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
-      <c r="AO25" t="inlineStr">
-        <is>
-          <t>Branch on living tree # Picea abies</t>
+      <c r="AI25" t="inlineStr">
+        <is>
+          <t>Äldre bitvis flerskiktad granskog.</t>
         </is>
       </c>
       <c r="AT25" t="inlineStr"/>
@@ -3838,10 +3831,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>130887107</v>
+        <v>130887120</v>
       </c>
       <c r="B26" t="n">
-        <v>57881</v>
+        <v>79243</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3849,50 +3842,41 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>med apothecier</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
           <t>Palleråsen Södra, Jmt</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>495982</v>
+        <v>495991</v>
       </c>
       <c r="R26" t="n">
-        <v>7016398</v>
+        <v>7016264</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3929,7 +3913,7 @@
       </c>
       <c r="AC26" t="inlineStr">
         <is>
-          <t>1 eller möjligen 2 individer som sågs och hördes hacka i stående döda granar och uttryckte lockläte emellanåt. Hyfsat gott om stående död ved på/kring fyndplatsen.</t>
+          <t>Långväxta fertila bålar med apothecier.</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3938,6 +3922,7 @@
       <c r="AE26" t="b">
         <v>0</v>
       </c>
+      <c r="AF26" t="inlineStr"/>
       <c r="AG26" t="b">
         <v>0</v>
       </c>
@@ -3946,9 +3931,24 @@
           <t>Granskog</t>
         </is>
       </c>
-      <c r="AI26" t="inlineStr">
-        <is>
-          <t>Äldre bitvis flerskiktad granskog.</t>
+      <c r="AJ26" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK26" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM26" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
+      <c r="AO26" t="inlineStr">
+        <is>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT26" t="inlineStr"/>
@@ -4363,10 +4363,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>130887132</v>
+        <v>130887086</v>
       </c>
       <c r="B30" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -4374,26 +4374,31 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
@@ -4401,10 +4406,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>496008</v>
+        <v>495683</v>
       </c>
       <c r="R30" t="n">
-        <v>7016340</v>
+        <v>7016064</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4441,7 +4446,7 @@
       </c>
       <c r="AC30" t="inlineStr">
         <is>
-          <t>Långväxta bålar på gran. Ca 50 cm lång hängande bål.</t>
+          <t>Ringhack, färska, på en gran nära en mindre väg.</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4450,7 +4455,6 @@
       <c r="AE30" t="b">
         <v>0</v>
       </c>
-      <c r="AF30" t="inlineStr"/>
       <c r="AG30" t="b">
         <v>0</v>
       </c>
@@ -4471,12 +4475,12 @@
       </c>
       <c r="AM30" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO30" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT30" t="inlineStr"/>
@@ -4494,7 +4498,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>130887127</v>
+        <v>130887132</v>
       </c>
       <c r="B31" t="n">
         <v>79243</v>
@@ -4532,10 +4536,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>495831</v>
+        <v>496008</v>
       </c>
       <c r="R31" t="n">
-        <v>7016258</v>
+        <v>7016340</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4572,7 +4576,7 @@
       </c>
       <c r="AC31" t="inlineStr">
         <is>
-          <t>På en gren av gran på ca 2 m höjd.</t>
+          <t>Långväxta bålar på gran. Ca 50 cm lång hängande bål.</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4625,10 +4629,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>130887086</v>
+        <v>130887127</v>
       </c>
       <c r="B32" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -4636,31 +4640,26 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
@@ -4668,10 +4667,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>495683</v>
+        <v>495831</v>
       </c>
       <c r="R32" t="n">
-        <v>7016064</v>
+        <v>7016258</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4708,7 +4707,7 @@
       </c>
       <c r="AC32" t="inlineStr">
         <is>
-          <t>Ringhack, färska, på en gran nära en mindre väg.</t>
+          <t>På en gren av gran på ca 2 m höjd.</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4717,6 +4716,7 @@
       <c r="AE32" t="b">
         <v>0</v>
       </c>
+      <c r="AF32" t="inlineStr"/>
       <c r="AG32" t="b">
         <v>0</v>
       </c>
@@ -4737,12 +4737,12 @@
       </c>
       <c r="AM32" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO32" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT32" t="inlineStr"/>
@@ -5030,7 +5030,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>130887117</v>
+        <v>130887113</v>
       </c>
       <c r="B35" t="n">
         <v>79243</v>
@@ -5068,10 +5068,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>495769</v>
+        <v>495718</v>
       </c>
       <c r="R35" t="n">
-        <v>7016151</v>
+        <v>7015966</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -5106,11 +5106,6 @@
           <t>2026-01-26</t>
         </is>
       </c>
-      <c r="AC35" t="inlineStr">
-        <is>
-          <t>Växer på en hyfsat grovbarkig gammal gran.</t>
-        </is>
-      </c>
       <c r="AD35" t="b">
         <v>0</v>
       </c>
@@ -5123,7 +5118,7 @@
       </c>
       <c r="AH35" t="inlineStr">
         <is>
-          <t>Granskog</t>
+          <t>Barrskog</t>
         </is>
       </c>
       <c r="AJ35" t="inlineStr">
@@ -5161,7 +5156,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>130887113</v>
+        <v>130887117</v>
       </c>
       <c r="B36" t="n">
         <v>79243</v>
@@ -5199,10 +5194,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>495718</v>
+        <v>495769</v>
       </c>
       <c r="R36" t="n">
-        <v>7015966</v>
+        <v>7016151</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -5237,6 +5232,11 @@
           <t>2026-01-26</t>
         </is>
       </c>
+      <c r="AC36" t="inlineStr">
+        <is>
+          <t>Växer på en hyfsat grovbarkig gammal gran.</t>
+        </is>
+      </c>
       <c r="AD36" t="b">
         <v>0</v>
       </c>
@@ -5249,7 +5249,7 @@
       </c>
       <c r="AH36" t="inlineStr">
         <is>
-          <t>Barrskog</t>
+          <t>Granskog</t>
         </is>
       </c>
       <c r="AJ36" t="inlineStr">
@@ -5925,41 +5925,37 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>130887105</v>
+        <v>130887114</v>
       </c>
       <c r="B42" t="n">
-        <v>80377</v>
+        <v>79243</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>6462</v>
+        <v>6425</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>med apothecier</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="N42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
@@ -5967,10 +5963,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>495736</v>
+        <v>495689</v>
       </c>
       <c r="R42" t="n">
-        <v>7016168</v>
+        <v>7015994</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -6022,22 +6018,22 @@
       </c>
       <c r="AJ42" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK42" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM42" t="inlineStr">
         <is>
-          <t>Bark på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO42" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Salix caprea</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT42" t="inlineStr"/>
@@ -6055,37 +6051,41 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>130887114</v>
+        <v>130887105</v>
       </c>
       <c r="B43" t="n">
-        <v>79243</v>
+        <v>80377</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>6425</v>
+        <v>6462</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>med apothecier</t>
+        </is>
+      </c>
       <c r="N43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
@@ -6093,10 +6093,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>495689</v>
+        <v>495736</v>
       </c>
       <c r="R43" t="n">
-        <v>7015994</v>
+        <v>7016168</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -6148,22 +6148,22 @@
       </c>
       <c r="AJ43" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK43" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AM43" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO43" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Bark on living woody plant # Salix caprea</t>
         </is>
       </c>
       <c r="AT43" t="inlineStr"/>
@@ -6181,10 +6181,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>130887129</v>
+        <v>130887081</v>
       </c>
       <c r="B44" t="n">
-        <v>79243</v>
+        <v>91808</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -6192,26 +6192,30 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
       <c r="N44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
@@ -6219,10 +6223,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>495878</v>
+        <v>495919</v>
       </c>
       <c r="R44" t="n">
-        <v>7016320</v>
+        <v>7016205</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -6257,6 +6261,11 @@
           <t>2026-01-26</t>
         </is>
       </c>
+      <c r="AC44" t="inlineStr">
+        <is>
+          <t>I upplyft granlåga.</t>
+        </is>
+      </c>
       <c r="AD44" t="b">
         <v>0</v>
       </c>
@@ -6284,12 +6293,12 @@
       </c>
       <c r="AM44" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Liggande död trädstam, utan markontakt</t>
         </is>
       </c>
       <c r="AO44" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Horizontal, dead without ground contact # Picea abies</t>
         </is>
       </c>
       <c r="AT44" t="inlineStr"/>
@@ -6577,10 +6586,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>130887124</v>
+        <v>130887091</v>
       </c>
       <c r="B47" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -6588,26 +6597,31 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
@@ -6615,10 +6629,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>495877</v>
+        <v>495967</v>
       </c>
       <c r="R47" t="n">
-        <v>7016270</v>
+        <v>7016170</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -6655,7 +6669,7 @@
       </c>
       <c r="AC47" t="inlineStr">
         <is>
-          <t>Långväxta bålar på gran.</t>
+          <t>Ringhack, färska, på en levande gran vid en hyggeskant.</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -6664,7 +6678,6 @@
       <c r="AE47" t="b">
         <v>0</v>
       </c>
-      <c r="AF47" t="inlineStr"/>
       <c r="AG47" t="b">
         <v>0</v>
       </c>
@@ -6685,12 +6698,12 @@
       </c>
       <c r="AM47" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO47" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT47" t="inlineStr"/>
@@ -6708,10 +6721,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>130887081</v>
+        <v>130887124</v>
       </c>
       <c r="B48" t="n">
-        <v>91808</v>
+        <v>79243</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -6719,30 +6732,26 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="N48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
@@ -6750,10 +6759,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>495919</v>
+        <v>495877</v>
       </c>
       <c r="R48" t="n">
-        <v>7016205</v>
+        <v>7016270</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -6790,7 +6799,7 @@
       </c>
       <c r="AC48" t="inlineStr">
         <is>
-          <t>I upplyft granlåga.</t>
+          <t>Långväxta bålar på gran.</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -6820,12 +6829,12 @@
       </c>
       <c r="AM48" t="inlineStr">
         <is>
-          <t>Liggande död trädstam, utan markontakt</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO48" t="inlineStr">
         <is>
-          <t>Horizontal, dead without ground contact # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT48" t="inlineStr"/>
@@ -6843,10 +6852,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>130887091</v>
+        <v>130887129</v>
       </c>
       <c r="B49" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -6854,31 +6863,26 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
@@ -6886,10 +6890,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>495967</v>
+        <v>495878</v>
       </c>
       <c r="R49" t="n">
-        <v>7016170</v>
+        <v>7016320</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -6924,17 +6928,13 @@
           <t>2026-01-26</t>
         </is>
       </c>
-      <c r="AC49" t="inlineStr">
-        <is>
-          <t>Ringhack, färska, på en levande gran vid en hyggeskant.</t>
-        </is>
-      </c>
       <c r="AD49" t="b">
         <v>0</v>
       </c>
       <c r="AE49" t="b">
         <v>0</v>
       </c>
+      <c r="AF49" t="inlineStr"/>
       <c r="AG49" t="b">
         <v>0</v>
       </c>
@@ -6955,12 +6955,12 @@
       </c>
       <c r="AM49" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO49" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT49" t="inlineStr"/>
@@ -6978,10 +6978,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>130887112</v>
+        <v>130887101</v>
       </c>
       <c r="B50" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -6989,37 +6989,46 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P50" t="inlineStr">
         <is>
           <t>Palleråsen Södra, Jmt</t>
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>495735</v>
+        <v>495852</v>
       </c>
       <c r="R50" t="n">
-        <v>7016071</v>
+        <v>7016315</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -7056,7 +7065,7 @@
       </c>
       <c r="AC50" t="inlineStr">
         <is>
-          <t>Enstaka bålar på gran.</t>
+          <t>Ringhack, färska, längs ca 3 meter på en levande gran vid en lucka i skogen. En volym av stående död ved av gran som indikerar mycket högt livsmiljövärde för tretåig hackspett på fyndplatsen.</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -7065,7 +7074,6 @@
       <c r="AE50" t="b">
         <v>0</v>
       </c>
-      <c r="AF50" t="inlineStr"/>
       <c r="AG50" t="b">
         <v>0</v>
       </c>
@@ -7074,6 +7082,11 @@
           <t>Granskog</t>
         </is>
       </c>
+      <c r="AI50" t="inlineStr">
+        <is>
+          <t>Äldre bitvis flerskiktad granskog med inslag av tall, björk, sälg och gråal.</t>
+        </is>
+      </c>
       <c r="AJ50" t="inlineStr">
         <is>
           <t>gran</t>
@@ -7086,12 +7099,12 @@
       </c>
       <c r="AM50" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO50" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT50" t="inlineStr"/>
@@ -7109,10 +7122,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>130887101</v>
+        <v>130887112</v>
       </c>
       <c r="B51" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -7120,46 +7133,37 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+      <c r="N51" t="inlineStr"/>
       <c r="P51" t="inlineStr">
         <is>
           <t>Palleråsen Södra, Jmt</t>
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>495852</v>
+        <v>495735</v>
       </c>
       <c r="R51" t="n">
-        <v>7016315</v>
+        <v>7016071</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -7196,7 +7200,7 @@
       </c>
       <c r="AC51" t="inlineStr">
         <is>
-          <t>Ringhack, färska, längs ca 3 meter på en levande gran vid en lucka i skogen. En volym av stående död ved av gran som indikerar mycket högt livsmiljövärde för tretåig hackspett på fyndplatsen.</t>
+          <t>Enstaka bålar på gran.</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -7205,6 +7209,7 @@
       <c r="AE51" t="b">
         <v>0</v>
       </c>
+      <c r="AF51" t="inlineStr"/>
       <c r="AG51" t="b">
         <v>0</v>
       </c>
@@ -7213,11 +7218,6 @@
           <t>Granskog</t>
         </is>
       </c>
-      <c r="AI51" t="inlineStr">
-        <is>
-          <t>Äldre bitvis flerskiktad granskog med inslag av tall, björk, sälg och gråal.</t>
-        </is>
-      </c>
       <c r="AJ51" t="inlineStr">
         <is>
           <t>gran</t>
@@ -7230,12 +7230,12 @@
       </c>
       <c r="AM51" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO51" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT51" t="inlineStr"/>

--- a/artfynd/A 62696-2025 artfynd.xlsx
+++ b/artfynd/A 62696-2025 artfynd.xlsx
@@ -819,10 +819,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>130887092</v>
+        <v>130887118</v>
       </c>
       <c r="B3" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -830,31 +830,26 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -862,10 +857,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>495933</v>
+        <v>495992</v>
       </c>
       <c r="R3" t="n">
-        <v>7016163</v>
+        <v>7016301</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -902,7 +897,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på en levande gran nära kant mot ungskog.</t>
+          <t>På gran intill andra hänglavar.</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -911,6 +906,7 @@
       <c r="AE3" t="b">
         <v>0</v>
       </c>
+      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
       </c>
@@ -931,12 +927,12 @@
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
@@ -954,10 +950,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>130887089</v>
+        <v>130887121</v>
       </c>
       <c r="B4" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -965,31 +961,26 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
@@ -997,10 +988,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>496018</v>
+        <v>495911</v>
       </c>
       <c r="R4" t="n">
-        <v>7016278</v>
+        <v>7016227</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1035,17 +1026,13 @@
           <t>2026-01-26</t>
         </is>
       </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>Ringhack, äldre, i riklig mängd längs flera meter på en granstam. Med tydliga spår av sav/kådaflöden. Granen med ringhack står intill en enklare körväg.</t>
-        </is>
-      </c>
       <c r="AD4" t="b">
         <v>0</v>
       </c>
       <c r="AE4" t="b">
         <v>0</v>
       </c>
+      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
@@ -1066,12 +1053,12 @@
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
@@ -1089,7 +1076,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>130887090</v>
+        <v>130887092</v>
       </c>
       <c r="B5" t="n">
         <v>57884</v>
@@ -1122,7 +1109,7 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>gammalt bo</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N5" t="inlineStr"/>
@@ -1132,10 +1119,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>495983</v>
+        <v>495933</v>
       </c>
       <c r="R5" t="n">
-        <v>7016212</v>
+        <v>7016163</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1172,7 +1159,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>Välsnidat bohål på ca 1,75 meters höjd i en döende gran. Bohålets diameter är 4,5 cm.</t>
+          <t>Ringhack, äldre, på en levande gran nära kant mot ungskog.</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1224,10 +1211,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>130887118</v>
+        <v>130887089</v>
       </c>
       <c r="B6" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1235,26 +1222,31 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
@@ -1262,10 +1254,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>495992</v>
+        <v>496018</v>
       </c>
       <c r="R6" t="n">
-        <v>7016301</v>
+        <v>7016278</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1302,7 +1294,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>På gran intill andra hänglavar.</t>
+          <t>Ringhack, äldre, i riklig mängd längs flera meter på en granstam. Med tydliga spår av sav/kådaflöden. Granen med ringhack står intill en enklare körväg.</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1311,7 +1303,6 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
-      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
@@ -1332,12 +1323,12 @@
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
@@ -1355,10 +1346,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>130887121</v>
+        <v>130887090</v>
       </c>
       <c r="B7" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1366,26 +1357,31 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>gammalt bo</t>
+        </is>
+      </c>
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
@@ -1393,10 +1389,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>495911</v>
+        <v>495983</v>
       </c>
       <c r="R7" t="n">
-        <v>7016227</v>
+        <v>7016212</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1431,13 +1427,17 @@
           <t>2026-01-26</t>
         </is>
       </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>Välsnidat bohål på ca 1,75 meters höjd i en döende gran. Bohålets diameter är 4,5 cm.</t>
+        </is>
+      </c>
       <c r="AD7" t="b">
         <v>0</v>
       </c>
       <c r="AE7" t="b">
         <v>0</v>
       </c>
-      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
       </c>
@@ -1458,12 +1458,12 @@
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr"/>
@@ -1481,42 +1481,38 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>130887094</v>
+        <v>130887108</v>
       </c>
       <c r="B8" t="n">
-        <v>57884</v>
+        <v>97878</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>100109</v>
+        <v>221945</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
@@ -1524,10 +1520,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>495901</v>
+        <v>495742</v>
       </c>
       <c r="R8" t="n">
-        <v>7016223</v>
+        <v>7016070</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1562,43 +1558,19 @@
           <t>2026-01-26</t>
         </is>
       </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>Ringhack, färska, på en levande något grövre gammal gran nära kant mot ungskog.</t>
-        </is>
-      </c>
       <c r="AD8" t="b">
         <v>0</v>
       </c>
       <c r="AE8" t="b">
         <v>0</v>
       </c>
+      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="b">
         <v>0</v>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ8" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM8" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO8" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr"/>
@@ -1616,38 +1588,42 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>130887108</v>
+        <v>130887094</v>
       </c>
       <c r="B9" t="n">
-        <v>97878</v>
+        <v>57884</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>221945</v>
+        <v>100109</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
@@ -1655,10 +1631,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>495742</v>
+        <v>495901</v>
       </c>
       <c r="R9" t="n">
-        <v>7016070</v>
+        <v>7016223</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1693,19 +1669,43 @@
           <t>2026-01-26</t>
         </is>
       </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>Ringhack, färska, på en levande något grövre gammal gran nära kant mot ungskog.</t>
+        </is>
+      </c>
       <c r="AD9" t="b">
         <v>0</v>
       </c>
       <c r="AE9" t="b">
         <v>0</v>
       </c>
-      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
       </c>
       <c r="AH9" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ9" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM9" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr"/>
@@ -1723,10 +1723,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>130887100</v>
+        <v>130887126</v>
       </c>
       <c r="B10" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1734,31 +1734,26 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
@@ -1766,10 +1761,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>495805</v>
+        <v>495942</v>
       </c>
       <c r="R10" t="n">
-        <v>7016271</v>
+        <v>7016269</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1804,17 +1799,13 @@
           <t>2026-01-26</t>
         </is>
       </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>Ringhack, äldre, på en levande gran vid kanten mot ungskog. Spår av sav/kådaflöde på granens stam.</t>
-        </is>
-      </c>
       <c r="AD10" t="b">
         <v>0</v>
       </c>
       <c r="AE10" t="b">
         <v>0</v>
       </c>
+      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
       </c>
@@ -1835,12 +1826,12 @@
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr"/>
@@ -1858,10 +1849,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>130887088</v>
+        <v>130887123</v>
       </c>
       <c r="B11" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1869,46 +1860,37 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>Palleråsen Södra, Jmt</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>495679</v>
+        <v>495877</v>
       </c>
       <c r="R11" t="n">
-        <v>7016071</v>
+        <v>7016242</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1943,17 +1925,13 @@
           <t>2026-01-26</t>
         </is>
       </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>Ringhack, färska, på en gran intill en mindre väg.</t>
-        </is>
-      </c>
       <c r="AD11" t="b">
         <v>0</v>
       </c>
       <c r="AE11" t="b">
         <v>0</v>
       </c>
+      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
       </c>
@@ -1974,12 +1952,12 @@
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr"/>
@@ -1997,10 +1975,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>130887102</v>
+        <v>130887133</v>
       </c>
       <c r="B12" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -2008,31 +1986,26 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>gammalt bo</t>
-        </is>
-      </c>
       <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
@@ -2040,10 +2013,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>495951</v>
+        <v>496017</v>
       </c>
       <c r="R12" t="n">
-        <v>7016339</v>
+        <v>7016363</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -2078,17 +2051,13 @@
           <t>2026-01-26</t>
         </is>
       </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>Gammalt bohål på 2 meters höjd i en stående död gran. Bohålet är 5 cm i diameter längst ut och ca 4 cm i diameter en bit in i ingångshålet. Ev. skapat av tretåig hackspett. Stående död ved som indikerar högt livsmiljövärde för tretåig hackspett finns på/kring fyndplatsen.</t>
-        </is>
-      </c>
       <c r="AD12" t="b">
         <v>0</v>
       </c>
       <c r="AE12" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
       </c>
@@ -2109,12 +2078,12 @@
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr"/>
@@ -2132,10 +2101,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>130887126</v>
+        <v>130887100</v>
       </c>
       <c r="B13" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -2143,26 +2112,31 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
@@ -2170,10 +2144,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>495942</v>
+        <v>495805</v>
       </c>
       <c r="R13" t="n">
-        <v>7016269</v>
+        <v>7016271</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2208,13 +2182,17 @@
           <t>2026-01-26</t>
         </is>
       </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>Ringhack, äldre, på en levande gran vid kanten mot ungskog. Spår av sav/kådaflöde på granens stam.</t>
+        </is>
+      </c>
       <c r="AD13" t="b">
         <v>0</v>
       </c>
       <c r="AE13" t="b">
         <v>0</v>
       </c>
-      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
       </c>
@@ -2235,12 +2213,12 @@
       </c>
       <c r="AM13" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr"/>
@@ -2258,10 +2236,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>130887123</v>
+        <v>130887088</v>
       </c>
       <c r="B14" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2269,37 +2247,46 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P14" t="inlineStr">
         <is>
           <t>Palleråsen Södra, Jmt</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>495877</v>
+        <v>495679</v>
       </c>
       <c r="R14" t="n">
-        <v>7016242</v>
+        <v>7016071</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2334,13 +2321,17 @@
           <t>2026-01-26</t>
         </is>
       </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>Ringhack, färska, på en gran intill en mindre väg.</t>
+        </is>
+      </c>
       <c r="AD14" t="b">
         <v>0</v>
       </c>
       <c r="AE14" t="b">
         <v>0</v>
       </c>
-      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
       </c>
@@ -2361,12 +2352,12 @@
       </c>
       <c r="AM14" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr"/>
@@ -2384,10 +2375,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>130887133</v>
+        <v>130887102</v>
       </c>
       <c r="B15" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2395,26 +2386,31 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>gammalt bo</t>
+        </is>
+      </c>
       <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
@@ -2422,10 +2418,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>496017</v>
+        <v>495951</v>
       </c>
       <c r="R15" t="n">
-        <v>7016363</v>
+        <v>7016339</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2460,13 +2456,17 @@
           <t>2026-01-26</t>
         </is>
       </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>Gammalt bohål på 2 meters höjd i en stående död gran. Bohålet är 5 cm i diameter längst ut och ca 4 cm i diameter en bit in i ingångshålet. Ev. skapat av tretåig hackspett. Stående död ved som indikerar högt livsmiljövärde för tretåig hackspett finns på/kring fyndplatsen.</t>
+        </is>
+      </c>
       <c r="AD15" t="b">
         <v>0</v>
       </c>
       <c r="AE15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF15" t="inlineStr"/>
+        <v>1</v>
+      </c>
       <c r="AG15" t="b">
         <v>0</v>
       </c>
@@ -2487,12 +2487,12 @@
       </c>
       <c r="AM15" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr"/>
@@ -2510,10 +2510,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>130887095</v>
+        <v>130887125</v>
       </c>
       <c r="B16" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2521,31 +2521,26 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
@@ -2553,10 +2548,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>495890</v>
+        <v>495945</v>
       </c>
       <c r="R16" t="n">
-        <v>7016236</v>
+        <v>7016232</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2591,17 +2586,13 @@
           <t>2026-01-26</t>
         </is>
       </c>
-      <c r="AC16" t="inlineStr">
-        <is>
-          <t>Ringhack, äldre, enstaka högt upp på stammen av en levande gran nära kant mot ungskog.</t>
-        </is>
-      </c>
       <c r="AD16" t="b">
         <v>0</v>
       </c>
       <c r="AE16" t="b">
         <v>0</v>
       </c>
+      <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="b">
         <v>0</v>
       </c>
@@ -2622,12 +2613,12 @@
       </c>
       <c r="AM16" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr"/>
@@ -2645,10 +2636,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>130887125</v>
+        <v>130887095</v>
       </c>
       <c r="B17" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2656,26 +2647,31 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
@@ -2683,10 +2679,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>495945</v>
+        <v>495890</v>
       </c>
       <c r="R17" t="n">
-        <v>7016232</v>
+        <v>7016236</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2721,13 +2717,17 @@
           <t>2026-01-26</t>
         </is>
       </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>Ringhack, äldre, enstaka högt upp på stammen av en levande gran nära kant mot ungskog.</t>
+        </is>
+      </c>
       <c r="AD17" t="b">
         <v>0</v>
       </c>
       <c r="AE17" t="b">
         <v>0</v>
       </c>
-      <c r="AF17" t="inlineStr"/>
       <c r="AG17" t="b">
         <v>0</v>
       </c>
@@ -2748,12 +2748,12 @@
       </c>
       <c r="AM17" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT17" t="inlineStr"/>
@@ -2771,10 +2771,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>130887085</v>
+        <v>130887122</v>
       </c>
       <c r="B18" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2782,31 +2782,26 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
@@ -2814,10 +2809,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>495713</v>
+        <v>495898</v>
       </c>
       <c r="R18" t="n">
-        <v>7015939</v>
+        <v>7016234</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2852,17 +2847,13 @@
           <t>2026-01-26</t>
         </is>
       </c>
-      <c r="AC18" t="inlineStr">
-        <is>
-          <t>Ringhack, äldre, längs flera meter på en gran med spår efter påtagligt sav/kådaflöde.</t>
-        </is>
-      </c>
       <c r="AD18" t="b">
         <v>0</v>
       </c>
       <c r="AE18" t="b">
         <v>0</v>
       </c>
+      <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="b">
         <v>0</v>
       </c>
@@ -2883,12 +2874,12 @@
       </c>
       <c r="AM18" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT18" t="inlineStr"/>
@@ -2906,10 +2897,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>130887122</v>
+        <v>130887085</v>
       </c>
       <c r="B19" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2917,26 +2908,31 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
@@ -2944,10 +2940,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>495898</v>
+        <v>495713</v>
       </c>
       <c r="R19" t="n">
-        <v>7016234</v>
+        <v>7015939</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2982,13 +2978,17 @@
           <t>2026-01-26</t>
         </is>
       </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>Ringhack, äldre, längs flera meter på en gran med spår efter påtagligt sav/kådaflöde.</t>
+        </is>
+      </c>
       <c r="AD19" t="b">
         <v>0</v>
       </c>
       <c r="AE19" t="b">
         <v>0</v>
       </c>
-      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
       </c>
@@ -3009,12 +3009,12 @@
       </c>
       <c r="AM19" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO19" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT19" t="inlineStr"/>
@@ -3032,40 +3032,43 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>130887098</v>
+        <v>130887104</v>
       </c>
       <c r="B20" t="n">
-        <v>57884</v>
+        <v>80377</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>100109</v>
+        <v>6462</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>dm²</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>med apothecier</t>
         </is>
       </c>
       <c r="N20" t="inlineStr"/>
@@ -3075,10 +3078,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>495849</v>
+        <v>495828</v>
       </c>
       <c r="R20" t="n">
-        <v>7016251</v>
+        <v>7015949</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -3115,7 +3118,7 @@
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, längs några meter på en levande gran nära kant mot ungskog.</t>
+          <t>Bålar av stuplav som täcker ca 3 dm2 sälg.</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -3124,32 +3127,33 @@
       <c r="AE20" t="b">
         <v>0</v>
       </c>
+      <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="b">
         <v>0</v>
       </c>
       <c r="AH20" t="inlineStr">
         <is>
-          <t>Granskog</t>
+          <t>Barrskog</t>
         </is>
       </c>
       <c r="AJ20" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK20" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AM20" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO20" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Bark on living woody plant # Salix caprea</t>
         </is>
       </c>
       <c r="AT20" t="inlineStr"/>
@@ -3167,7 +3171,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>130887104</v>
+        <v>130887106</v>
       </c>
       <c r="B21" t="n">
         <v>80377</v>
@@ -3196,11 +3200,7 @@
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>dm²</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
           <t>med apothecier</t>
@@ -3213,10 +3213,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>495828</v>
+        <v>495981</v>
       </c>
       <c r="R21" t="n">
-        <v>7015949</v>
+        <v>7016252</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3253,7 +3253,7 @@
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>Bålar av stuplav som täcker ca 3 dm2 sälg.</t>
+          <t>Enstaka bålar på en sälg.</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3268,7 +3268,7 @@
       </c>
       <c r="AH21" t="inlineStr">
         <is>
-          <t>Barrskog</t>
+          <t>Granskog</t>
         </is>
       </c>
       <c r="AJ21" t="inlineStr">
@@ -3306,41 +3306,37 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>130887106</v>
+        <v>130887119</v>
       </c>
       <c r="B22" t="n">
-        <v>80377</v>
+        <v>79243</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6462</v>
+        <v>6425</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>med apothecier</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
@@ -3348,10 +3344,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>495981</v>
+        <v>495992</v>
       </c>
       <c r="R22" t="n">
-        <v>7016252</v>
+        <v>7016329</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3388,7 +3384,7 @@
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>Enstaka bålar på en sälg.</t>
+          <t>Långväxta bålar på flera granar. Längsta bålen ca 80 cm.</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3408,22 +3404,22 @@
       </c>
       <c r="AJ22" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK22" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM22" t="inlineStr">
         <is>
-          <t>Bark på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO22" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Salix caprea</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT22" t="inlineStr"/>
@@ -3441,7 +3437,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>130887119</v>
+        <v>130887116</v>
       </c>
       <c r="B23" t="n">
         <v>79243</v>
@@ -3479,10 +3475,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>495992</v>
+        <v>495725</v>
       </c>
       <c r="R23" t="n">
-        <v>7016329</v>
+        <v>7016183</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3519,7 +3515,7 @@
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>Långväxta bålar på flera granar. Längsta bålen ca 80 cm.</t>
+          <t>Långväxta bålar på gran.</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3572,10 +3568,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>130887116</v>
+        <v>130887098</v>
       </c>
       <c r="B24" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3583,26 +3579,31 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
@@ -3610,10 +3611,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>495725</v>
+        <v>495849</v>
       </c>
       <c r="R24" t="n">
-        <v>7016183</v>
+        <v>7016251</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3650,7 +3651,7 @@
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>Långväxta bålar på gran.</t>
+          <t>Ringhack, äldre, längs några meter på en levande gran nära kant mot ungskog.</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3659,7 +3660,6 @@
       <c r="AE24" t="b">
         <v>0</v>
       </c>
-      <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="b">
         <v>0</v>
       </c>
@@ -3680,12 +3680,12 @@
       </c>
       <c r="AM24" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO24" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT24" t="inlineStr"/>
@@ -4228,10 +4228,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>130887096</v>
+        <v>130887127</v>
       </c>
       <c r="B29" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -4239,31 +4239,26 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
@@ -4271,10 +4266,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>495870</v>
+        <v>495831</v>
       </c>
       <c r="R29" t="n">
-        <v>7016247</v>
+        <v>7016258</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -4311,7 +4306,7 @@
       </c>
       <c r="AC29" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på en levande gran nära kant mot ungskog.</t>
+          <t>På en gren av gran på ca 2 m höjd.</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -4320,6 +4315,7 @@
       <c r="AE29" t="b">
         <v>0</v>
       </c>
+      <c r="AF29" t="inlineStr"/>
       <c r="AG29" t="b">
         <v>0</v>
       </c>
@@ -4340,12 +4336,12 @@
       </c>
       <c r="AM29" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO29" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT29" t="inlineStr"/>
@@ -4363,7 +4359,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>130887086</v>
+        <v>130887096</v>
       </c>
       <c r="B30" t="n">
         <v>57884</v>
@@ -4396,7 +4392,7 @@
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N30" t="inlineStr"/>
@@ -4406,10 +4402,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>495683</v>
+        <v>495870</v>
       </c>
       <c r="R30" t="n">
-        <v>7016064</v>
+        <v>7016247</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4446,7 +4442,7 @@
       </c>
       <c r="AC30" t="inlineStr">
         <is>
-          <t>Ringhack, färska, på en gran nära en mindre väg.</t>
+          <t>Ringhack, äldre, på en levande gran nära kant mot ungskog.</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4498,10 +4494,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>130887132</v>
+        <v>130887086</v>
       </c>
       <c r="B31" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -4509,26 +4505,31 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
@@ -4536,10 +4537,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>496008</v>
+        <v>495683</v>
       </c>
       <c r="R31" t="n">
-        <v>7016340</v>
+        <v>7016064</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4576,7 +4577,7 @@
       </c>
       <c r="AC31" t="inlineStr">
         <is>
-          <t>Långväxta bålar på gran. Ca 50 cm lång hängande bål.</t>
+          <t>Ringhack, färska, på en gran nära en mindre väg.</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4585,7 +4586,6 @@
       <c r="AE31" t="b">
         <v>0</v>
       </c>
-      <c r="AF31" t="inlineStr"/>
       <c r="AG31" t="b">
         <v>0</v>
       </c>
@@ -4606,12 +4606,12 @@
       </c>
       <c r="AM31" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO31" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT31" t="inlineStr"/>
@@ -4629,7 +4629,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>130887127</v>
+        <v>130887132</v>
       </c>
       <c r="B32" t="n">
         <v>79243</v>
@@ -4667,10 +4667,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>495831</v>
+        <v>496008</v>
       </c>
       <c r="R32" t="n">
-        <v>7016258</v>
+        <v>7016340</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4707,7 +4707,7 @@
       </c>
       <c r="AC32" t="inlineStr">
         <is>
-          <t>På en gren av gran på ca 2 m höjd.</t>
+          <t>Långväxta bålar på gran. Ca 50 cm lång hängande bål.</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -6181,10 +6181,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>130887081</v>
+        <v>130887087</v>
       </c>
       <c r="B44" t="n">
-        <v>91808</v>
+        <v>57884</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -6192,28 +6192,29 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N44" t="inlineStr"/>
@@ -6223,10 +6224,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>495919</v>
+        <v>495680</v>
       </c>
       <c r="R44" t="n">
-        <v>7016205</v>
+        <v>7016064</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -6263,7 +6264,7 @@
       </c>
       <c r="AC44" t="inlineStr">
         <is>
-          <t>I upplyft granlåga.</t>
+          <t>Ringhack, färska, på en högväxt gran intill en mindre väg.</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -6272,7 +6273,6 @@
       <c r="AE44" t="b">
         <v>0</v>
       </c>
-      <c r="AF44" t="inlineStr"/>
       <c r="AG44" t="b">
         <v>0</v>
       </c>
@@ -6293,12 +6293,12 @@
       </c>
       <c r="AM44" t="inlineStr">
         <is>
-          <t>Liggande död trädstam, utan markontakt</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO44" t="inlineStr">
         <is>
-          <t>Horizontal, dead without ground contact # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT44" t="inlineStr"/>
@@ -6316,7 +6316,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>130887087</v>
+        <v>130887097</v>
       </c>
       <c r="B45" t="n">
         <v>57884</v>
@@ -6349,7 +6349,7 @@
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N45" t="inlineStr"/>
@@ -6359,10 +6359,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>495680</v>
+        <v>495856</v>
       </c>
       <c r="R45" t="n">
-        <v>7016064</v>
+        <v>7016255</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -6399,7 +6399,7 @@
       </c>
       <c r="AC45" t="inlineStr">
         <is>
-          <t>Ringhack, färska, på en högväxt gran intill en mindre väg.</t>
+          <t>Ringhack, äldre, längs flera meter långt upp på en levande gran nära kant mot ungskog. Tydliga spår av sav/kådaflöde på granens stam.</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -6451,7 +6451,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>130887097</v>
+        <v>130887091</v>
       </c>
       <c r="B46" t="n">
         <v>57884</v>
@@ -6484,7 +6484,7 @@
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N46" t="inlineStr"/>
@@ -6494,10 +6494,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>495856</v>
+        <v>495967</v>
       </c>
       <c r="R46" t="n">
-        <v>7016255</v>
+        <v>7016170</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -6534,7 +6534,7 @@
       </c>
       <c r="AC46" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, längs flera meter långt upp på en levande gran nära kant mot ungskog. Tydliga spår av sav/kådaflöde på granens stam.</t>
+          <t>Ringhack, färska, på en levande gran vid en hyggeskant.</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -6586,10 +6586,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>130887091</v>
+        <v>130887124</v>
       </c>
       <c r="B47" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -6597,31 +6597,26 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
@@ -6629,10 +6624,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>495967</v>
+        <v>495877</v>
       </c>
       <c r="R47" t="n">
-        <v>7016170</v>
+        <v>7016270</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -6669,7 +6664,7 @@
       </c>
       <c r="AC47" t="inlineStr">
         <is>
-          <t>Ringhack, färska, på en levande gran vid en hyggeskant.</t>
+          <t>Långväxta bålar på gran.</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -6678,6 +6673,7 @@
       <c r="AE47" t="b">
         <v>0</v>
       </c>
+      <c r="AF47" t="inlineStr"/>
       <c r="AG47" t="b">
         <v>0</v>
       </c>
@@ -6698,12 +6694,12 @@
       </c>
       <c r="AM47" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO47" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT47" t="inlineStr"/>
@@ -6721,7 +6717,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>130887124</v>
+        <v>130887129</v>
       </c>
       <c r="B48" t="n">
         <v>79243</v>
@@ -6759,10 +6755,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>495877</v>
+        <v>495878</v>
       </c>
       <c r="R48" t="n">
-        <v>7016270</v>
+        <v>7016320</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -6795,11 +6791,6 @@
       <c r="AA48" t="inlineStr">
         <is>
           <t>2026-01-26</t>
-        </is>
-      </c>
-      <c r="AC48" t="inlineStr">
-        <is>
-          <t>Långväxta bålar på gran.</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -6852,10 +6843,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>130887129</v>
+        <v>130887081</v>
       </c>
       <c r="B49" t="n">
-        <v>79243</v>
+        <v>91808</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -6863,26 +6854,30 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
       <c r="N49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
@@ -6890,10 +6885,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>495878</v>
+        <v>495919</v>
       </c>
       <c r="R49" t="n">
-        <v>7016320</v>
+        <v>7016205</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -6928,6 +6923,11 @@
           <t>2026-01-26</t>
         </is>
       </c>
+      <c r="AC49" t="inlineStr">
+        <is>
+          <t>I upplyft granlåga.</t>
+        </is>
+      </c>
       <c r="AD49" t="b">
         <v>0</v>
       </c>
@@ -6955,12 +6955,12 @@
       </c>
       <c r="AM49" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Liggande död trädstam, utan markontakt</t>
         </is>
       </c>
       <c r="AO49" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Horizontal, dead without ground contact # Picea abies</t>
         </is>
       </c>
       <c r="AT49" t="inlineStr"/>
@@ -6978,10 +6978,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>130887101</v>
+        <v>130887112</v>
       </c>
       <c r="B50" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -6989,46 +6989,37 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+      <c r="N50" t="inlineStr"/>
       <c r="P50" t="inlineStr">
         <is>
           <t>Palleråsen Södra, Jmt</t>
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>495852</v>
+        <v>495735</v>
       </c>
       <c r="R50" t="n">
-        <v>7016315</v>
+        <v>7016071</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -7065,7 +7056,7 @@
       </c>
       <c r="AC50" t="inlineStr">
         <is>
-          <t>Ringhack, färska, längs ca 3 meter på en levande gran vid en lucka i skogen. En volym av stående död ved av gran som indikerar mycket högt livsmiljövärde för tretåig hackspett på fyndplatsen.</t>
+          <t>Enstaka bålar på gran.</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -7074,6 +7065,7 @@
       <c r="AE50" t="b">
         <v>0</v>
       </c>
+      <c r="AF50" t="inlineStr"/>
       <c r="AG50" t="b">
         <v>0</v>
       </c>
@@ -7082,11 +7074,6 @@
           <t>Granskog</t>
         </is>
       </c>
-      <c r="AI50" t="inlineStr">
-        <is>
-          <t>Äldre bitvis flerskiktad granskog med inslag av tall, björk, sälg och gråal.</t>
-        </is>
-      </c>
       <c r="AJ50" t="inlineStr">
         <is>
           <t>gran</t>
@@ -7099,12 +7086,12 @@
       </c>
       <c r="AM50" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO50" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT50" t="inlineStr"/>
@@ -7122,10 +7109,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>130887112</v>
+        <v>130887101</v>
       </c>
       <c r="B51" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -7133,37 +7120,46 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P51" t="inlineStr">
         <is>
           <t>Palleråsen Södra, Jmt</t>
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>495735</v>
+        <v>495852</v>
       </c>
       <c r="R51" t="n">
-        <v>7016071</v>
+        <v>7016315</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -7200,7 +7196,7 @@
       </c>
       <c r="AC51" t="inlineStr">
         <is>
-          <t>Enstaka bålar på gran.</t>
+          <t>Ringhack, färska, längs ca 3 meter på en levande gran vid en lucka i skogen. En volym av stående död ved av gran som indikerar mycket högt livsmiljövärde för tretåig hackspett på fyndplatsen.</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -7209,7 +7205,6 @@
       <c r="AE51" t="b">
         <v>0</v>
       </c>
-      <c r="AF51" t="inlineStr"/>
       <c r="AG51" t="b">
         <v>0</v>
       </c>
@@ -7218,6 +7213,11 @@
           <t>Granskog</t>
         </is>
       </c>
+      <c r="AI51" t="inlineStr">
+        <is>
+          <t>Äldre bitvis flerskiktad granskog med inslag av tall, björk, sälg och gråal.</t>
+        </is>
+      </c>
       <c r="AJ51" t="inlineStr">
         <is>
           <t>gran</t>
@@ -7230,12 +7230,12 @@
       </c>
       <c r="AM51" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO51" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT51" t="inlineStr"/>

--- a/artfynd/A 62696-2025 artfynd.xlsx
+++ b/artfynd/A 62696-2025 artfynd.xlsx
@@ -1481,38 +1481,42 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>130887108</v>
+        <v>130887094</v>
       </c>
       <c r="B8" t="n">
-        <v>97878</v>
+        <v>57884</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>221945</v>
+        <v>100109</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
@@ -1520,10 +1524,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>495742</v>
+        <v>495901</v>
       </c>
       <c r="R8" t="n">
-        <v>7016070</v>
+        <v>7016223</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1558,19 +1562,43 @@
           <t>2026-01-26</t>
         </is>
       </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>Ringhack, färska, på en levande något grövre gammal gran nära kant mot ungskog.</t>
+        </is>
+      </c>
       <c r="AD8" t="b">
         <v>0</v>
       </c>
       <c r="AE8" t="b">
         <v>0</v>
       </c>
-      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="b">
         <v>0</v>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM8" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr"/>
@@ -1588,42 +1616,38 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>130887094</v>
+        <v>130887108</v>
       </c>
       <c r="B9" t="n">
-        <v>57884</v>
+        <v>97878</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>100109</v>
+        <v>221945</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
@@ -1631,10 +1655,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>495901</v>
+        <v>495742</v>
       </c>
       <c r="R9" t="n">
-        <v>7016223</v>
+        <v>7016070</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1669,43 +1693,19 @@
           <t>2026-01-26</t>
         </is>
       </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>Ringhack, färska, på en levande något grövre gammal gran nära kant mot ungskog.</t>
-        </is>
-      </c>
       <c r="AD9" t="b">
         <v>0</v>
       </c>
       <c r="AE9" t="b">
         <v>0</v>
       </c>
+      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
       </c>
       <c r="AH9" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ9" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK9" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM9" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO9" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr"/>
@@ -1723,10 +1723,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>130887126</v>
+        <v>130887100</v>
       </c>
       <c r="B10" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1734,26 +1734,31 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
@@ -1761,10 +1766,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>495942</v>
+        <v>495805</v>
       </c>
       <c r="R10" t="n">
-        <v>7016269</v>
+        <v>7016271</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1799,13 +1804,17 @@
           <t>2026-01-26</t>
         </is>
       </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>Ringhack, äldre, på en levande gran vid kanten mot ungskog. Spår av sav/kådaflöde på granens stam.</t>
+        </is>
+      </c>
       <c r="AD10" t="b">
         <v>0</v>
       </c>
       <c r="AE10" t="b">
         <v>0</v>
       </c>
-      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
       </c>
@@ -1826,12 +1835,12 @@
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr"/>
@@ -1849,10 +1858,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>130887123</v>
+        <v>130887088</v>
       </c>
       <c r="B11" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1860,37 +1869,46 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P11" t="inlineStr">
         <is>
           <t>Palleråsen Södra, Jmt</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>495877</v>
+        <v>495679</v>
       </c>
       <c r="R11" t="n">
-        <v>7016242</v>
+        <v>7016071</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1925,13 +1943,17 @@
           <t>2026-01-26</t>
         </is>
       </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>Ringhack, färska, på en gran intill en mindre väg.</t>
+        </is>
+      </c>
       <c r="AD11" t="b">
         <v>0</v>
       </c>
       <c r="AE11" t="b">
         <v>0</v>
       </c>
-      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
       </c>
@@ -1952,12 +1974,12 @@
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr"/>
@@ -1975,10 +1997,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>130887133</v>
+        <v>130887102</v>
       </c>
       <c r="B12" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1986,26 +2008,31 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>gammalt bo</t>
+        </is>
+      </c>
       <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
@@ -2013,10 +2040,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>496017</v>
+        <v>495951</v>
       </c>
       <c r="R12" t="n">
-        <v>7016363</v>
+        <v>7016339</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -2051,13 +2078,17 @@
           <t>2026-01-26</t>
         </is>
       </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>Gammalt bohål på 2 meters höjd i en stående död gran. Bohålet är 5 cm i diameter längst ut och ca 4 cm i diameter en bit in i ingångshålet. Ev. skapat av tretåig hackspett. Stående död ved som indikerar högt livsmiljövärde för tretåig hackspett finns på/kring fyndplatsen.</t>
+        </is>
+      </c>
       <c r="AD12" t="b">
         <v>0</v>
       </c>
       <c r="AE12" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF12" t="inlineStr"/>
+        <v>1</v>
+      </c>
       <c r="AG12" t="b">
         <v>0</v>
       </c>
@@ -2078,12 +2109,12 @@
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr"/>
@@ -2101,10 +2132,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>130887100</v>
+        <v>130887123</v>
       </c>
       <c r="B13" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -2112,31 +2143,26 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
@@ -2144,10 +2170,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>495805</v>
+        <v>495877</v>
       </c>
       <c r="R13" t="n">
-        <v>7016271</v>
+        <v>7016242</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2182,17 +2208,13 @@
           <t>2026-01-26</t>
         </is>
       </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>Ringhack, äldre, på en levande gran vid kanten mot ungskog. Spår av sav/kådaflöde på granens stam.</t>
-        </is>
-      </c>
       <c r="AD13" t="b">
         <v>0</v>
       </c>
       <c r="AE13" t="b">
         <v>0</v>
       </c>
+      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
       </c>
@@ -2213,12 +2235,12 @@
       </c>
       <c r="AM13" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr"/>
@@ -2236,10 +2258,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>130887088</v>
+        <v>130887126</v>
       </c>
       <c r="B14" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2247,46 +2269,37 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+      <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
           <t>Palleråsen Södra, Jmt</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>495679</v>
+        <v>495942</v>
       </c>
       <c r="R14" t="n">
-        <v>7016071</v>
+        <v>7016269</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2321,17 +2334,13 @@
           <t>2026-01-26</t>
         </is>
       </c>
-      <c r="AC14" t="inlineStr">
-        <is>
-          <t>Ringhack, färska, på en gran intill en mindre väg.</t>
-        </is>
-      </c>
       <c r="AD14" t="b">
         <v>0</v>
       </c>
       <c r="AE14" t="b">
         <v>0</v>
       </c>
+      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
       </c>
@@ -2352,12 +2361,12 @@
       </c>
       <c r="AM14" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr"/>
@@ -2375,10 +2384,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>130887102</v>
+        <v>130887133</v>
       </c>
       <c r="B15" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2386,31 +2395,26 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>gammalt bo</t>
-        </is>
-      </c>
       <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
@@ -2418,10 +2422,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>495951</v>
+        <v>496017</v>
       </c>
       <c r="R15" t="n">
-        <v>7016339</v>
+        <v>7016363</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2456,17 +2460,13 @@
           <t>2026-01-26</t>
         </is>
       </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>Gammalt bohål på 2 meters höjd i en stående död gran. Bohålet är 5 cm i diameter längst ut och ca 4 cm i diameter en bit in i ingångshålet. Ev. skapat av tretåig hackspett. Stående död ved som indikerar högt livsmiljövärde för tretåig hackspett finns på/kring fyndplatsen.</t>
-        </is>
-      </c>
       <c r="AD15" t="b">
         <v>0</v>
       </c>
       <c r="AE15" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
       </c>
@@ -2487,12 +2487,12 @@
       </c>
       <c r="AM15" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr"/>
@@ -2510,10 +2510,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>130887125</v>
+        <v>130887095</v>
       </c>
       <c r="B16" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2521,26 +2521,31 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
@@ -2548,10 +2553,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>495945</v>
+        <v>495890</v>
       </c>
       <c r="R16" t="n">
-        <v>7016232</v>
+        <v>7016236</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2586,13 +2591,17 @@
           <t>2026-01-26</t>
         </is>
       </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>Ringhack, äldre, enstaka högt upp på stammen av en levande gran nära kant mot ungskog.</t>
+        </is>
+      </c>
       <c r="AD16" t="b">
         <v>0</v>
       </c>
       <c r="AE16" t="b">
         <v>0</v>
       </c>
-      <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="b">
         <v>0</v>
       </c>
@@ -2613,12 +2622,12 @@
       </c>
       <c r="AM16" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr"/>
@@ -2636,10 +2645,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>130887095</v>
+        <v>130887125</v>
       </c>
       <c r="B17" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2647,31 +2656,26 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
@@ -2679,10 +2683,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>495890</v>
+        <v>495945</v>
       </c>
       <c r="R17" t="n">
-        <v>7016236</v>
+        <v>7016232</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2717,17 +2721,13 @@
           <t>2026-01-26</t>
         </is>
       </c>
-      <c r="AC17" t="inlineStr">
-        <is>
-          <t>Ringhack, äldre, enstaka högt upp på stammen av en levande gran nära kant mot ungskog.</t>
-        </is>
-      </c>
       <c r="AD17" t="b">
         <v>0</v>
       </c>
       <c r="AE17" t="b">
         <v>0</v>
       </c>
+      <c r="AF17" t="inlineStr"/>
       <c r="AG17" t="b">
         <v>0</v>
       </c>
@@ -2748,12 +2748,12 @@
       </c>
       <c r="AM17" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT17" t="inlineStr"/>
@@ -3171,41 +3171,37 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>130887106</v>
+        <v>130887116</v>
       </c>
       <c r="B21" t="n">
-        <v>80377</v>
+        <v>79243</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6462</v>
+        <v>6425</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>med apothecier</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
@@ -3213,10 +3209,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>495981</v>
+        <v>495725</v>
       </c>
       <c r="R21" t="n">
-        <v>7016252</v>
+        <v>7016183</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3253,7 +3249,7 @@
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>Enstaka bålar på en sälg.</t>
+          <t>Långväxta bålar på gran.</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3273,22 +3269,22 @@
       </c>
       <c r="AJ21" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK21" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM21" t="inlineStr">
         <is>
-          <t>Bark på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO21" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Salix caprea</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT21" t="inlineStr"/>
@@ -3437,37 +3433,41 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>130887116</v>
+        <v>130887106</v>
       </c>
       <c r="B23" t="n">
-        <v>79243</v>
+        <v>80377</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6425</v>
+        <v>6462</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>med apothecier</t>
+        </is>
+      </c>
       <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
@@ -3475,10 +3475,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>495725</v>
+        <v>495981</v>
       </c>
       <c r="R23" t="n">
-        <v>7016183</v>
+        <v>7016252</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3515,7 +3515,7 @@
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>Långväxta bålar på gran.</t>
+          <t>Enstaka bålar på en sälg.</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3535,22 +3535,22 @@
       </c>
       <c r="AJ23" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK23" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AM23" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO23" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Bark on living woody plant # Salix caprea</t>
         </is>
       </c>
       <c r="AT23" t="inlineStr"/>
@@ -3703,10 +3703,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>130887107</v>
+        <v>130887120</v>
       </c>
       <c r="B25" t="n">
-        <v>57881</v>
+        <v>79243</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3714,50 +3714,41 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>med apothecier</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
           <t>Palleråsen Södra, Jmt</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>495982</v>
+        <v>495991</v>
       </c>
       <c r="R25" t="n">
-        <v>7016398</v>
+        <v>7016264</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3794,7 +3785,7 @@
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>1 eller möjligen 2 individer som sågs och hördes hacka i stående döda granar och uttryckte lockläte emellanåt. Hyfsat gott om stående död ved på/kring fyndplatsen.</t>
+          <t>Långväxta fertila bålar med apothecier.</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3803,6 +3794,7 @@
       <c r="AE25" t="b">
         <v>0</v>
       </c>
+      <c r="AF25" t="inlineStr"/>
       <c r="AG25" t="b">
         <v>0</v>
       </c>
@@ -3811,9 +3803,24 @@
           <t>Granskog</t>
         </is>
       </c>
-      <c r="AI25" t="inlineStr">
-        <is>
-          <t>Äldre bitvis flerskiktad granskog.</t>
+      <c r="AJ25" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK25" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM25" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
+      <c r="AO25" t="inlineStr">
+        <is>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT25" t="inlineStr"/>
@@ -3831,10 +3838,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>130887120</v>
+        <v>130887107</v>
       </c>
       <c r="B26" t="n">
-        <v>79243</v>
+        <v>57881</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3842,41 +3849,50 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>med apothecier</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P26" t="inlineStr">
         <is>
           <t>Palleråsen Södra, Jmt</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>495991</v>
+        <v>495982</v>
       </c>
       <c r="R26" t="n">
-        <v>7016264</v>
+        <v>7016398</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3913,7 +3929,7 @@
       </c>
       <c r="AC26" t="inlineStr">
         <is>
-          <t>Långväxta fertila bålar med apothecier.</t>
+          <t>1 eller möjligen 2 individer som sågs och hördes hacka i stående döda granar och uttryckte lockläte emellanåt. Hyfsat gott om stående död ved på/kring fyndplatsen.</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3922,7 +3938,6 @@
       <c r="AE26" t="b">
         <v>0</v>
       </c>
-      <c r="AF26" t="inlineStr"/>
       <c r="AG26" t="b">
         <v>0</v>
       </c>
@@ -3931,24 +3946,9 @@
           <t>Granskog</t>
         </is>
       </c>
-      <c r="AJ26" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK26" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM26" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
-      <c r="AO26" t="inlineStr">
-        <is>
-          <t>Branch on living tree # Picea abies</t>
+      <c r="AI26" t="inlineStr">
+        <is>
+          <t>Äldre bitvis flerskiktad granskog.</t>
         </is>
       </c>
       <c r="AT26" t="inlineStr"/>
@@ -4359,10 +4359,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>130887096</v>
+        <v>130887132</v>
       </c>
       <c r="B30" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -4370,31 +4370,26 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
@@ -4402,10 +4397,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>495870</v>
+        <v>496008</v>
       </c>
       <c r="R30" t="n">
-        <v>7016247</v>
+        <v>7016340</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4442,7 +4437,7 @@
       </c>
       <c r="AC30" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på en levande gran nära kant mot ungskog.</t>
+          <t>Långväxta bålar på gran. Ca 50 cm lång hängande bål.</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4451,6 +4446,7 @@
       <c r="AE30" t="b">
         <v>0</v>
       </c>
+      <c r="AF30" t="inlineStr"/>
       <c r="AG30" t="b">
         <v>0</v>
       </c>
@@ -4471,12 +4467,12 @@
       </c>
       <c r="AM30" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO30" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT30" t="inlineStr"/>
@@ -4494,7 +4490,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>130887086</v>
+        <v>130887096</v>
       </c>
       <c r="B31" t="n">
         <v>57884</v>
@@ -4527,7 +4523,7 @@
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N31" t="inlineStr"/>
@@ -4537,10 +4533,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>495683</v>
+        <v>495870</v>
       </c>
       <c r="R31" t="n">
-        <v>7016064</v>
+        <v>7016247</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4577,7 +4573,7 @@
       </c>
       <c r="AC31" t="inlineStr">
         <is>
-          <t>Ringhack, färska, på en gran nära en mindre väg.</t>
+          <t>Ringhack, äldre, på en levande gran nära kant mot ungskog.</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4629,10 +4625,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>130887132</v>
+        <v>130887086</v>
       </c>
       <c r="B32" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -4640,26 +4636,31 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
@@ -4667,10 +4668,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>496008</v>
+        <v>495683</v>
       </c>
       <c r="R32" t="n">
-        <v>7016340</v>
+        <v>7016064</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4707,7 +4708,7 @@
       </c>
       <c r="AC32" t="inlineStr">
         <is>
-          <t>Långväxta bålar på gran. Ca 50 cm lång hängande bål.</t>
+          <t>Ringhack, färska, på en gran nära en mindre väg.</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4716,7 +4717,6 @@
       <c r="AE32" t="b">
         <v>0</v>
       </c>
-      <c r="AF32" t="inlineStr"/>
       <c r="AG32" t="b">
         <v>0</v>
       </c>
@@ -4737,12 +4737,12 @@
       </c>
       <c r="AM32" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO32" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT32" t="inlineStr"/>
@@ -5030,7 +5030,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>130887113</v>
+        <v>130887117</v>
       </c>
       <c r="B35" t="n">
         <v>79243</v>
@@ -5068,10 +5068,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>495718</v>
+        <v>495769</v>
       </c>
       <c r="R35" t="n">
-        <v>7015966</v>
+        <v>7016151</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -5106,6 +5106,11 @@
           <t>2026-01-26</t>
         </is>
       </c>
+      <c r="AC35" t="inlineStr">
+        <is>
+          <t>Växer på en hyfsat grovbarkig gammal gran.</t>
+        </is>
+      </c>
       <c r="AD35" t="b">
         <v>0</v>
       </c>
@@ -5118,7 +5123,7 @@
       </c>
       <c r="AH35" t="inlineStr">
         <is>
-          <t>Barrskog</t>
+          <t>Granskog</t>
         </is>
       </c>
       <c r="AJ35" t="inlineStr">
@@ -5156,7 +5161,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>130887117</v>
+        <v>130887113</v>
       </c>
       <c r="B36" t="n">
         <v>79243</v>
@@ -5194,10 +5199,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>495769</v>
+        <v>495718</v>
       </c>
       <c r="R36" t="n">
-        <v>7016151</v>
+        <v>7015966</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -5232,11 +5237,6 @@
           <t>2026-01-26</t>
         </is>
       </c>
-      <c r="AC36" t="inlineStr">
-        <is>
-          <t>Växer på en hyfsat grovbarkig gammal gran.</t>
-        </is>
-      </c>
       <c r="AD36" t="b">
         <v>0</v>
       </c>
@@ -5249,7 +5249,7 @@
       </c>
       <c r="AH36" t="inlineStr">
         <is>
-          <t>Granskog</t>
+          <t>Barrskog</t>
         </is>
       </c>
       <c r="AJ36" t="inlineStr">
@@ -6181,10 +6181,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>130887087</v>
+        <v>130887081</v>
       </c>
       <c r="B44" t="n">
-        <v>57884</v>
+        <v>91808</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -6192,29 +6192,28 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>färska spår</t>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
         </is>
       </c>
       <c r="N44" t="inlineStr"/>
@@ -6224,10 +6223,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>495680</v>
+        <v>495919</v>
       </c>
       <c r="R44" t="n">
-        <v>7016064</v>
+        <v>7016205</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -6264,7 +6263,7 @@
       </c>
       <c r="AC44" t="inlineStr">
         <is>
-          <t>Ringhack, färska, på en högväxt gran intill en mindre väg.</t>
+          <t>I upplyft granlåga.</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -6273,6 +6272,7 @@
       <c r="AE44" t="b">
         <v>0</v>
       </c>
+      <c r="AF44" t="inlineStr"/>
       <c r="AG44" t="b">
         <v>0</v>
       </c>
@@ -6293,12 +6293,12 @@
       </c>
       <c r="AM44" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Liggande död trädstam, utan markontakt</t>
         </is>
       </c>
       <c r="AO44" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Horizontal, dead without ground contact # Picea abies</t>
         </is>
       </c>
       <c r="AT44" t="inlineStr"/>
@@ -6316,10 +6316,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>130887097</v>
+        <v>130887124</v>
       </c>
       <c r="B45" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -6327,31 +6327,26 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
@@ -6359,10 +6354,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>495856</v>
+        <v>495877</v>
       </c>
       <c r="R45" t="n">
-        <v>7016255</v>
+        <v>7016270</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -6399,7 +6394,7 @@
       </c>
       <c r="AC45" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, längs flera meter långt upp på en levande gran nära kant mot ungskog. Tydliga spår av sav/kådaflöde på granens stam.</t>
+          <t>Långväxta bålar på gran.</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -6408,6 +6403,7 @@
       <c r="AE45" t="b">
         <v>0</v>
       </c>
+      <c r="AF45" t="inlineStr"/>
       <c r="AG45" t="b">
         <v>0</v>
       </c>
@@ -6428,12 +6424,12 @@
       </c>
       <c r="AM45" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO45" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT45" t="inlineStr"/>
@@ -6451,7 +6447,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>130887091</v>
+        <v>130887087</v>
       </c>
       <c r="B46" t="n">
         <v>57884</v>
@@ -6494,10 +6490,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>495967</v>
+        <v>495680</v>
       </c>
       <c r="R46" t="n">
-        <v>7016170</v>
+        <v>7016064</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -6534,7 +6530,7 @@
       </c>
       <c r="AC46" t="inlineStr">
         <is>
-          <t>Ringhack, färska, på en levande gran vid en hyggeskant.</t>
+          <t>Ringhack, färska, på en högväxt gran intill en mindre väg.</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -6586,10 +6582,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>130887124</v>
+        <v>130887097</v>
       </c>
       <c r="B47" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -6597,26 +6593,31 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
@@ -6624,10 +6625,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>495877</v>
+        <v>495856</v>
       </c>
       <c r="R47" t="n">
-        <v>7016270</v>
+        <v>7016255</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -6664,7 +6665,7 @@
       </c>
       <c r="AC47" t="inlineStr">
         <is>
-          <t>Långväxta bålar på gran.</t>
+          <t>Ringhack, äldre, längs flera meter långt upp på en levande gran nära kant mot ungskog. Tydliga spår av sav/kådaflöde på granens stam.</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -6673,7 +6674,6 @@
       <c r="AE47" t="b">
         <v>0</v>
       </c>
-      <c r="AF47" t="inlineStr"/>
       <c r="AG47" t="b">
         <v>0</v>
       </c>
@@ -6694,12 +6694,12 @@
       </c>
       <c r="AM47" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO47" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT47" t="inlineStr"/>
@@ -6717,10 +6717,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>130887129</v>
+        <v>130887091</v>
       </c>
       <c r="B48" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -6728,26 +6728,31 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
@@ -6755,10 +6760,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>495878</v>
+        <v>495967</v>
       </c>
       <c r="R48" t="n">
-        <v>7016320</v>
+        <v>7016170</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -6793,13 +6798,17 @@
           <t>2026-01-26</t>
         </is>
       </c>
+      <c r="AC48" t="inlineStr">
+        <is>
+          <t>Ringhack, färska, på en levande gran vid en hyggeskant.</t>
+        </is>
+      </c>
       <c r="AD48" t="b">
         <v>0</v>
       </c>
       <c r="AE48" t="b">
         <v>0</v>
       </c>
-      <c r="AF48" t="inlineStr"/>
       <c r="AG48" t="b">
         <v>0</v>
       </c>
@@ -6820,12 +6829,12 @@
       </c>
       <c r="AM48" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO48" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT48" t="inlineStr"/>
@@ -6843,10 +6852,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>130887081</v>
+        <v>130887129</v>
       </c>
       <c r="B49" t="n">
-        <v>91808</v>
+        <v>79243</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -6854,30 +6863,26 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="N49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
@@ -6885,10 +6890,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>495919</v>
+        <v>495878</v>
       </c>
       <c r="R49" t="n">
-        <v>7016205</v>
+        <v>7016320</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -6923,11 +6928,6 @@
           <t>2026-01-26</t>
         </is>
       </c>
-      <c r="AC49" t="inlineStr">
-        <is>
-          <t>I upplyft granlåga.</t>
-        </is>
-      </c>
       <c r="AD49" t="b">
         <v>0</v>
       </c>
@@ -6955,12 +6955,12 @@
       </c>
       <c r="AM49" t="inlineStr">
         <is>
-          <t>Liggande död trädstam, utan markontakt</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO49" t="inlineStr">
         <is>
-          <t>Horizontal, dead without ground contact # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT49" t="inlineStr"/>

--- a/artfynd/A 62696-2025 artfynd.xlsx
+++ b/artfynd/A 62696-2025 artfynd.xlsx
@@ -819,10 +819,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>130887118</v>
+        <v>130887092</v>
       </c>
       <c r="B3" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -830,26 +830,31 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -857,10 +862,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>495992</v>
+        <v>495933</v>
       </c>
       <c r="R3" t="n">
-        <v>7016301</v>
+        <v>7016163</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -897,7 +902,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>På gran intill andra hänglavar.</t>
+          <t>Ringhack, äldre, på en levande gran nära kant mot ungskog.</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -906,7 +911,6 @@
       <c r="AE3" t="b">
         <v>0</v>
       </c>
-      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
       </c>
@@ -927,12 +931,12 @@
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
@@ -950,10 +954,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>130887121</v>
+        <v>130887089</v>
       </c>
       <c r="B4" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -961,26 +965,31 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
@@ -988,10 +997,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>495911</v>
+        <v>496018</v>
       </c>
       <c r="R4" t="n">
-        <v>7016227</v>
+        <v>7016278</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1026,13 +1035,17 @@
           <t>2026-01-26</t>
         </is>
       </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>Ringhack, äldre, i riklig mängd längs flera meter på en granstam. Med tydliga spår av sav/kådaflöden. Granen med ringhack står intill en enklare körväg.</t>
+        </is>
+      </c>
       <c r="AD4" t="b">
         <v>0</v>
       </c>
       <c r="AE4" t="b">
         <v>0</v>
       </c>
-      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
@@ -1053,12 +1066,12 @@
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
@@ -1076,7 +1089,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>130887092</v>
+        <v>130887090</v>
       </c>
       <c r="B5" t="n">
         <v>57884</v>
@@ -1109,7 +1122,7 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>gammalt bo</t>
         </is>
       </c>
       <c r="N5" t="inlineStr"/>
@@ -1119,10 +1132,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>495933</v>
+        <v>495983</v>
       </c>
       <c r="R5" t="n">
-        <v>7016163</v>
+        <v>7016212</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1159,7 +1172,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på en levande gran nära kant mot ungskog.</t>
+          <t>Välsnidat bohål på ca 1,75 meters höjd i en döende gran. Bohålets diameter är 4,5 cm.</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1211,10 +1224,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>130887089</v>
+        <v>130887118</v>
       </c>
       <c r="B6" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1222,31 +1235,26 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
@@ -1254,10 +1262,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>496018</v>
+        <v>495992</v>
       </c>
       <c r="R6" t="n">
-        <v>7016278</v>
+        <v>7016301</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1294,7 +1302,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, i riklig mängd längs flera meter på en granstam. Med tydliga spår av sav/kådaflöden. Granen med ringhack står intill en enklare körväg.</t>
+          <t>På gran intill andra hänglavar.</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1303,6 +1311,7 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
+      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
@@ -1323,12 +1332,12 @@
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
@@ -1346,10 +1355,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>130887090</v>
+        <v>130887121</v>
       </c>
       <c r="B7" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1357,31 +1366,26 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>gammalt bo</t>
-        </is>
-      </c>
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
@@ -1389,10 +1393,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>495983</v>
+        <v>495911</v>
       </c>
       <c r="R7" t="n">
-        <v>7016212</v>
+        <v>7016227</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1427,17 +1431,13 @@
           <t>2026-01-26</t>
         </is>
       </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>Välsnidat bohål på ca 1,75 meters höjd i en döende gran. Bohålets diameter är 4,5 cm.</t>
-        </is>
-      </c>
       <c r="AD7" t="b">
         <v>0</v>
       </c>
       <c r="AE7" t="b">
         <v>0</v>
       </c>
+      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
       </c>
@@ -1458,12 +1458,12 @@
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr"/>
@@ -1723,7 +1723,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>130887100</v>
+        <v>130887102</v>
       </c>
       <c r="B10" t="n">
         <v>57884</v>
@@ -1756,7 +1756,7 @@
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>gammalt bo</t>
         </is>
       </c>
       <c r="N10" t="inlineStr"/>
@@ -1766,10 +1766,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>495805</v>
+        <v>495951</v>
       </c>
       <c r="R10" t="n">
-        <v>7016271</v>
+        <v>7016339</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1806,14 +1806,14 @@
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på en levande gran vid kanten mot ungskog. Spår av sav/kådaflöde på granens stam.</t>
+          <t>Gammalt bohål på 2 meters höjd i en stående död gran. Bohålet är 5 cm i diameter längst ut och ca 4 cm i diameter en bit in i ingångshålet. Ev. skapat av tretåig hackspett. Stående död ved som indikerar högt livsmiljövärde för tretåig hackspett finns på/kring fyndplatsen.</t>
         </is>
       </c>
       <c r="AD10" t="b">
         <v>0</v>
       </c>
       <c r="AE10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG10" t="b">
         <v>0</v>
@@ -1858,10 +1858,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>130887088</v>
+        <v>130887126</v>
       </c>
       <c r="B11" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1869,46 +1869,37 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>Palleråsen Södra, Jmt</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>495679</v>
+        <v>495942</v>
       </c>
       <c r="R11" t="n">
-        <v>7016071</v>
+        <v>7016269</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1943,17 +1934,13 @@
           <t>2026-01-26</t>
         </is>
       </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>Ringhack, färska, på en gran intill en mindre väg.</t>
-        </is>
-      </c>
       <c r="AD11" t="b">
         <v>0</v>
       </c>
       <c r="AE11" t="b">
         <v>0</v>
       </c>
+      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
       </c>
@@ -1974,12 +1961,12 @@
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr"/>
@@ -1997,10 +1984,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>130887102</v>
+        <v>130887123</v>
       </c>
       <c r="B12" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -2008,31 +1995,26 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>gammalt bo</t>
-        </is>
-      </c>
       <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
@@ -2040,10 +2022,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>495951</v>
+        <v>495877</v>
       </c>
       <c r="R12" t="n">
-        <v>7016339</v>
+        <v>7016242</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -2078,17 +2060,13 @@
           <t>2026-01-26</t>
         </is>
       </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>Gammalt bohål på 2 meters höjd i en stående död gran. Bohålet är 5 cm i diameter längst ut och ca 4 cm i diameter en bit in i ingångshålet. Ev. skapat av tretåig hackspett. Stående död ved som indikerar högt livsmiljövärde för tretåig hackspett finns på/kring fyndplatsen.</t>
-        </is>
-      </c>
       <c r="AD12" t="b">
         <v>0</v>
       </c>
       <c r="AE12" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
       </c>
@@ -2109,12 +2087,12 @@
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr"/>
@@ -2132,7 +2110,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>130887123</v>
+        <v>130887133</v>
       </c>
       <c r="B13" t="n">
         <v>79243</v>
@@ -2170,10 +2148,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>495877</v>
+        <v>496017</v>
       </c>
       <c r="R13" t="n">
-        <v>7016242</v>
+        <v>7016363</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2258,10 +2236,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>130887126</v>
+        <v>130887100</v>
       </c>
       <c r="B14" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2269,26 +2247,31 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
@@ -2296,10 +2279,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>495942</v>
+        <v>495805</v>
       </c>
       <c r="R14" t="n">
-        <v>7016269</v>
+        <v>7016271</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2334,13 +2317,17 @@
           <t>2026-01-26</t>
         </is>
       </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>Ringhack, äldre, på en levande gran vid kanten mot ungskog. Spår av sav/kådaflöde på granens stam.</t>
+        </is>
+      </c>
       <c r="AD14" t="b">
         <v>0</v>
       </c>
       <c r="AE14" t="b">
         <v>0</v>
       </c>
-      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
       </c>
@@ -2361,12 +2348,12 @@
       </c>
       <c r="AM14" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr"/>
@@ -2384,10 +2371,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>130887133</v>
+        <v>130887088</v>
       </c>
       <c r="B15" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2395,37 +2382,46 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P15" t="inlineStr">
         <is>
           <t>Palleråsen Södra, Jmt</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>496017</v>
+        <v>495679</v>
       </c>
       <c r="R15" t="n">
-        <v>7016363</v>
+        <v>7016071</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2460,13 +2456,17 @@
           <t>2026-01-26</t>
         </is>
       </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>Ringhack, färska, på en gran intill en mindre väg.</t>
+        </is>
+      </c>
       <c r="AD15" t="b">
         <v>0</v>
       </c>
       <c r="AE15" t="b">
         <v>0</v>
       </c>
-      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
       </c>
@@ -2487,12 +2487,12 @@
       </c>
       <c r="AM15" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr"/>
@@ -2771,10 +2771,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>130887122</v>
+        <v>130887085</v>
       </c>
       <c r="B18" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2782,26 +2782,31 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
@@ -2809,10 +2814,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>495898</v>
+        <v>495713</v>
       </c>
       <c r="R18" t="n">
-        <v>7016234</v>
+        <v>7015939</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2847,13 +2852,17 @@
           <t>2026-01-26</t>
         </is>
       </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>Ringhack, äldre, längs flera meter på en gran med spår efter påtagligt sav/kådaflöde.</t>
+        </is>
+      </c>
       <c r="AD18" t="b">
         <v>0</v>
       </c>
       <c r="AE18" t="b">
         <v>0</v>
       </c>
-      <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="b">
         <v>0</v>
       </c>
@@ -2874,12 +2883,12 @@
       </c>
       <c r="AM18" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT18" t="inlineStr"/>
@@ -2897,10 +2906,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>130887085</v>
+        <v>130887122</v>
       </c>
       <c r="B19" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2908,31 +2917,26 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
@@ -2940,10 +2944,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>495713</v>
+        <v>495898</v>
       </c>
       <c r="R19" t="n">
-        <v>7015939</v>
+        <v>7016234</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2978,17 +2982,13 @@
           <t>2026-01-26</t>
         </is>
       </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>Ringhack, äldre, längs flera meter på en gran med spår efter påtagligt sav/kådaflöde.</t>
-        </is>
-      </c>
       <c r="AD19" t="b">
         <v>0</v>
       </c>
       <c r="AE19" t="b">
         <v>0</v>
       </c>
+      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
       </c>
@@ -3009,12 +3009,12 @@
       </c>
       <c r="AM19" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO19" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT19" t="inlineStr"/>
@@ -3171,37 +3171,41 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>130887116</v>
+        <v>130887106</v>
       </c>
       <c r="B21" t="n">
-        <v>79243</v>
+        <v>80377</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6425</v>
+        <v>6462</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>med apothecier</t>
+        </is>
+      </c>
       <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
@@ -3209,10 +3213,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>495725</v>
+        <v>495981</v>
       </c>
       <c r="R21" t="n">
-        <v>7016183</v>
+        <v>7016252</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3249,7 +3253,7 @@
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>Långväxta bålar på gran.</t>
+          <t>Enstaka bålar på en sälg.</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3269,22 +3273,22 @@
       </c>
       <c r="AJ21" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK21" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AM21" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO21" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Bark on living woody plant # Salix caprea</t>
         </is>
       </c>
       <c r="AT21" t="inlineStr"/>
@@ -3433,41 +3437,37 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>130887106</v>
+        <v>130887116</v>
       </c>
       <c r="B23" t="n">
-        <v>80377</v>
+        <v>79243</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6462</v>
+        <v>6425</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>med apothecier</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
@@ -3475,10 +3475,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>495981</v>
+        <v>495725</v>
       </c>
       <c r="R23" t="n">
-        <v>7016252</v>
+        <v>7016183</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3515,7 +3515,7 @@
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>Enstaka bålar på en sälg.</t>
+          <t>Långväxta bålar på gran.</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3535,22 +3535,22 @@
       </c>
       <c r="AJ23" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK23" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM23" t="inlineStr">
         <is>
-          <t>Bark på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO23" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Salix caprea</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT23" t="inlineStr"/>
@@ -4228,10 +4228,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>130887127</v>
+        <v>130887086</v>
       </c>
       <c r="B29" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -4239,26 +4239,31 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
@@ -4266,10 +4271,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>495831</v>
+        <v>495683</v>
       </c>
       <c r="R29" t="n">
-        <v>7016258</v>
+        <v>7016064</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -4306,7 +4311,7 @@
       </c>
       <c r="AC29" t="inlineStr">
         <is>
-          <t>På en gren av gran på ca 2 m höjd.</t>
+          <t>Ringhack, färska, på en gran nära en mindre väg.</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -4315,7 +4320,6 @@
       <c r="AE29" t="b">
         <v>0</v>
       </c>
-      <c r="AF29" t="inlineStr"/>
       <c r="AG29" t="b">
         <v>0</v>
       </c>
@@ -4336,12 +4340,12 @@
       </c>
       <c r="AM29" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO29" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT29" t="inlineStr"/>
@@ -4490,10 +4494,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>130887096</v>
+        <v>130887127</v>
       </c>
       <c r="B31" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -4501,31 +4505,26 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
@@ -4533,10 +4532,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>495870</v>
+        <v>495831</v>
       </c>
       <c r="R31" t="n">
-        <v>7016247</v>
+        <v>7016258</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4573,7 +4572,7 @@
       </c>
       <c r="AC31" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på en levande gran nära kant mot ungskog.</t>
+          <t>På en gren av gran på ca 2 m höjd.</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4582,6 +4581,7 @@
       <c r="AE31" t="b">
         <v>0</v>
       </c>
+      <c r="AF31" t="inlineStr"/>
       <c r="AG31" t="b">
         <v>0</v>
       </c>
@@ -4602,12 +4602,12 @@
       </c>
       <c r="AM31" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO31" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT31" t="inlineStr"/>
@@ -4625,7 +4625,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>130887086</v>
+        <v>130887096</v>
       </c>
       <c r="B32" t="n">
         <v>57884</v>
@@ -4658,7 +4658,7 @@
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N32" t="inlineStr"/>
@@ -4668,10 +4668,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>495683</v>
+        <v>495870</v>
       </c>
       <c r="R32" t="n">
-        <v>7016064</v>
+        <v>7016247</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4708,7 +4708,7 @@
       </c>
       <c r="AC32" t="inlineStr">
         <is>
-          <t>Ringhack, färska, på en gran nära en mindre väg.</t>
+          <t>Ringhack, äldre, på en levande gran nära kant mot ungskog.</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -5030,7 +5030,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>130887117</v>
+        <v>130887113</v>
       </c>
       <c r="B35" t="n">
         <v>79243</v>
@@ -5068,10 +5068,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>495769</v>
+        <v>495718</v>
       </c>
       <c r="R35" t="n">
-        <v>7016151</v>
+        <v>7015966</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -5106,11 +5106,6 @@
           <t>2026-01-26</t>
         </is>
       </c>
-      <c r="AC35" t="inlineStr">
-        <is>
-          <t>Växer på en hyfsat grovbarkig gammal gran.</t>
-        </is>
-      </c>
       <c r="AD35" t="b">
         <v>0</v>
       </c>
@@ -5123,7 +5118,7 @@
       </c>
       <c r="AH35" t="inlineStr">
         <is>
-          <t>Granskog</t>
+          <t>Barrskog</t>
         </is>
       </c>
       <c r="AJ35" t="inlineStr">
@@ -5161,7 +5156,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>130887113</v>
+        <v>130887117</v>
       </c>
       <c r="B36" t="n">
         <v>79243</v>
@@ -5199,10 +5194,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>495718</v>
+        <v>495769</v>
       </c>
       <c r="R36" t="n">
-        <v>7015966</v>
+        <v>7016151</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -5237,6 +5232,11 @@
           <t>2026-01-26</t>
         </is>
       </c>
+      <c r="AC36" t="inlineStr">
+        <is>
+          <t>Växer på en hyfsat grovbarkig gammal gran.</t>
+        </is>
+      </c>
       <c r="AD36" t="b">
         <v>0</v>
       </c>
@@ -5249,7 +5249,7 @@
       </c>
       <c r="AH36" t="inlineStr">
         <is>
-          <t>Barrskog</t>
+          <t>Granskog</t>
         </is>
       </c>
       <c r="AJ36" t="inlineStr">
@@ -5287,7 +5287,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>130887084</v>
+        <v>130887099</v>
       </c>
       <c r="B37" t="n">
         <v>57884</v>
@@ -5320,24 +5320,20 @@
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr">
         <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
           <t>Palleråsen Södra, Jmt</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>495868</v>
+        <v>495812</v>
       </c>
       <c r="R37" t="n">
-        <v>7015959</v>
+        <v>7016273</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -5374,7 +5370,7 @@
       </c>
       <c r="AC37" t="inlineStr">
         <is>
-          <t>Ringhack, färska, enstaka några meter upp på en granstam vid en glänta.</t>
+          <t>Ringhack, äldre, på en levande gran nära kant mot ungskog.</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -5426,7 +5422,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>130887099</v>
+        <v>130887084</v>
       </c>
       <c r="B38" t="n">
         <v>57884</v>
@@ -5459,20 +5455,24 @@
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr">
         <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N38" t="inlineStr"/>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P38" t="inlineStr">
         <is>
           <t>Palleråsen Södra, Jmt</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>495812</v>
+        <v>495868</v>
       </c>
       <c r="R38" t="n">
-        <v>7016273</v>
+        <v>7015959</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -5509,7 +5509,7 @@
       </c>
       <c r="AC38" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på en levande gran nära kant mot ungskog.</t>
+          <t>Ringhack, färska, enstaka några meter upp på en granstam vid en glänta.</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -6316,10 +6316,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>130887124</v>
+        <v>130887097</v>
       </c>
       <c r="B45" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -6327,26 +6327,31 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
@@ -6354,10 +6359,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>495877</v>
+        <v>495856</v>
       </c>
       <c r="R45" t="n">
-        <v>7016270</v>
+        <v>7016255</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -6394,7 +6399,7 @@
       </c>
       <c r="AC45" t="inlineStr">
         <is>
-          <t>Långväxta bålar på gran.</t>
+          <t>Ringhack, äldre, längs flera meter långt upp på en levande gran nära kant mot ungskog. Tydliga spår av sav/kådaflöde på granens stam.</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -6403,7 +6408,6 @@
       <c r="AE45" t="b">
         <v>0</v>
       </c>
-      <c r="AF45" t="inlineStr"/>
       <c r="AG45" t="b">
         <v>0</v>
       </c>
@@ -6424,12 +6428,12 @@
       </c>
       <c r="AM45" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO45" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT45" t="inlineStr"/>
@@ -6447,7 +6451,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>130887087</v>
+        <v>130887091</v>
       </c>
       <c r="B46" t="n">
         <v>57884</v>
@@ -6490,10 +6494,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>495680</v>
+        <v>495967</v>
       </c>
       <c r="R46" t="n">
-        <v>7016064</v>
+        <v>7016170</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -6530,7 +6534,7 @@
       </c>
       <c r="AC46" t="inlineStr">
         <is>
-          <t>Ringhack, färska, på en högväxt gran intill en mindre väg.</t>
+          <t>Ringhack, färska, på en levande gran vid en hyggeskant.</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -6582,7 +6586,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>130887097</v>
+        <v>130887087</v>
       </c>
       <c r="B47" t="n">
         <v>57884</v>
@@ -6615,7 +6619,7 @@
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N47" t="inlineStr"/>
@@ -6625,10 +6629,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>495856</v>
+        <v>495680</v>
       </c>
       <c r="R47" t="n">
-        <v>7016255</v>
+        <v>7016064</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -6665,7 +6669,7 @@
       </c>
       <c r="AC47" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, längs flera meter långt upp på en levande gran nära kant mot ungskog. Tydliga spår av sav/kådaflöde på granens stam.</t>
+          <t>Ringhack, färska, på en högväxt gran intill en mindre väg.</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -6717,10 +6721,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>130887091</v>
+        <v>130887124</v>
       </c>
       <c r="B48" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -6728,31 +6732,26 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
@@ -6760,10 +6759,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>495967</v>
+        <v>495877</v>
       </c>
       <c r="R48" t="n">
-        <v>7016170</v>
+        <v>7016270</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -6800,7 +6799,7 @@
       </c>
       <c r="AC48" t="inlineStr">
         <is>
-          <t>Ringhack, färska, på en levande gran vid en hyggeskant.</t>
+          <t>Långväxta bålar på gran.</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -6809,6 +6808,7 @@
       <c r="AE48" t="b">
         <v>0</v>
       </c>
+      <c r="AF48" t="inlineStr"/>
       <c r="AG48" t="b">
         <v>0</v>
       </c>
@@ -6829,12 +6829,12 @@
       </c>
       <c r="AM48" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO48" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT48" t="inlineStr"/>
@@ -6978,10 +6978,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>130887112</v>
+        <v>130887101</v>
       </c>
       <c r="B50" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -6989,37 +6989,46 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P50" t="inlineStr">
         <is>
           <t>Palleråsen Södra, Jmt</t>
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>495735</v>
+        <v>495852</v>
       </c>
       <c r="R50" t="n">
-        <v>7016071</v>
+        <v>7016315</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -7056,7 +7065,7 @@
       </c>
       <c r="AC50" t="inlineStr">
         <is>
-          <t>Enstaka bålar på gran.</t>
+          <t>Ringhack, färska, längs ca 3 meter på en levande gran vid en lucka i skogen. En volym av stående död ved av gran som indikerar mycket högt livsmiljövärde för tretåig hackspett på fyndplatsen.</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -7065,7 +7074,6 @@
       <c r="AE50" t="b">
         <v>0</v>
       </c>
-      <c r="AF50" t="inlineStr"/>
       <c r="AG50" t="b">
         <v>0</v>
       </c>
@@ -7074,6 +7082,11 @@
           <t>Granskog</t>
         </is>
       </c>
+      <c r="AI50" t="inlineStr">
+        <is>
+          <t>Äldre bitvis flerskiktad granskog med inslag av tall, björk, sälg och gråal.</t>
+        </is>
+      </c>
       <c r="AJ50" t="inlineStr">
         <is>
           <t>gran</t>
@@ -7086,12 +7099,12 @@
       </c>
       <c r="AM50" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO50" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT50" t="inlineStr"/>
@@ -7109,10 +7122,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>130887101</v>
+        <v>130887112</v>
       </c>
       <c r="B51" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -7120,46 +7133,37 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+      <c r="N51" t="inlineStr"/>
       <c r="P51" t="inlineStr">
         <is>
           <t>Palleråsen Södra, Jmt</t>
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>495852</v>
+        <v>495735</v>
       </c>
       <c r="R51" t="n">
-        <v>7016315</v>
+        <v>7016071</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -7196,7 +7200,7 @@
       </c>
       <c r="AC51" t="inlineStr">
         <is>
-          <t>Ringhack, färska, längs ca 3 meter på en levande gran vid en lucka i skogen. En volym av stående död ved av gran som indikerar mycket högt livsmiljövärde för tretåig hackspett på fyndplatsen.</t>
+          <t>Enstaka bålar på gran.</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -7205,6 +7209,7 @@
       <c r="AE51" t="b">
         <v>0</v>
       </c>
+      <c r="AF51" t="inlineStr"/>
       <c r="AG51" t="b">
         <v>0</v>
       </c>
@@ -7213,11 +7218,6 @@
           <t>Granskog</t>
         </is>
       </c>
-      <c r="AI51" t="inlineStr">
-        <is>
-          <t>Äldre bitvis flerskiktad granskog med inslag av tall, björk, sälg och gråal.</t>
-        </is>
-      </c>
       <c r="AJ51" t="inlineStr">
         <is>
           <t>gran</t>
@@ -7230,12 +7230,12 @@
       </c>
       <c r="AM51" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO51" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT51" t="inlineStr"/>

--- a/artfynd/A 62696-2025 artfynd.xlsx
+++ b/artfynd/A 62696-2025 artfynd.xlsx
@@ -819,10 +819,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>130887092</v>
+        <v>130887118</v>
       </c>
       <c r="B3" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -830,31 +830,26 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -862,10 +857,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>495933</v>
+        <v>495992</v>
       </c>
       <c r="R3" t="n">
-        <v>7016163</v>
+        <v>7016301</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -902,7 +897,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på en levande gran nära kant mot ungskog.</t>
+          <t>På gran intill andra hänglavar.</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -911,6 +906,7 @@
       <c r="AE3" t="b">
         <v>0</v>
       </c>
+      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
       </c>
@@ -931,12 +927,12 @@
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
@@ -954,10 +950,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>130887089</v>
+        <v>130887121</v>
       </c>
       <c r="B4" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -965,31 +961,26 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
@@ -997,10 +988,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>496018</v>
+        <v>495911</v>
       </c>
       <c r="R4" t="n">
-        <v>7016278</v>
+        <v>7016227</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1035,17 +1026,13 @@
           <t>2026-01-26</t>
         </is>
       </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>Ringhack, äldre, i riklig mängd längs flera meter på en granstam. Med tydliga spår av sav/kådaflöden. Granen med ringhack står intill en enklare körväg.</t>
-        </is>
-      </c>
       <c r="AD4" t="b">
         <v>0</v>
       </c>
       <c r="AE4" t="b">
         <v>0</v>
       </c>
+      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
@@ -1066,12 +1053,12 @@
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
@@ -1089,7 +1076,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>130887090</v>
+        <v>130887092</v>
       </c>
       <c r="B5" t="n">
         <v>57884</v>
@@ -1122,7 +1109,7 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>gammalt bo</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N5" t="inlineStr"/>
@@ -1132,10 +1119,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>495983</v>
+        <v>495933</v>
       </c>
       <c r="R5" t="n">
-        <v>7016212</v>
+        <v>7016163</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1172,7 +1159,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>Välsnidat bohål på ca 1,75 meters höjd i en döende gran. Bohålets diameter är 4,5 cm.</t>
+          <t>Ringhack, äldre, på en levande gran nära kant mot ungskog.</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1224,10 +1211,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>130887118</v>
+        <v>130887089</v>
       </c>
       <c r="B6" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1235,26 +1222,31 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
@@ -1262,10 +1254,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>495992</v>
+        <v>496018</v>
       </c>
       <c r="R6" t="n">
-        <v>7016301</v>
+        <v>7016278</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1302,7 +1294,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>På gran intill andra hänglavar.</t>
+          <t>Ringhack, äldre, i riklig mängd längs flera meter på en granstam. Med tydliga spår av sav/kådaflöden. Granen med ringhack står intill en enklare körväg.</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1311,7 +1303,6 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
-      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
@@ -1332,12 +1323,12 @@
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
@@ -1355,10 +1346,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>130887121</v>
+        <v>130887090</v>
       </c>
       <c r="B7" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1366,26 +1357,31 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>gammalt bo</t>
+        </is>
+      </c>
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
@@ -1393,10 +1389,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>495911</v>
+        <v>495983</v>
       </c>
       <c r="R7" t="n">
-        <v>7016227</v>
+        <v>7016212</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1431,13 +1427,17 @@
           <t>2026-01-26</t>
         </is>
       </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>Välsnidat bohål på ca 1,75 meters höjd i en döende gran. Bohålets diameter är 4,5 cm.</t>
+        </is>
+      </c>
       <c r="AD7" t="b">
         <v>0</v>
       </c>
       <c r="AE7" t="b">
         <v>0</v>
       </c>
-      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
       </c>
@@ -1458,12 +1458,12 @@
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr"/>
@@ -1481,42 +1481,38 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>130887094</v>
+        <v>130887108</v>
       </c>
       <c r="B8" t="n">
-        <v>57884</v>
+        <v>97879</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>100109</v>
+        <v>221945</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
@@ -1524,10 +1520,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>495901</v>
+        <v>495742</v>
       </c>
       <c r="R8" t="n">
-        <v>7016223</v>
+        <v>7016070</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1562,43 +1558,19 @@
           <t>2026-01-26</t>
         </is>
       </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>Ringhack, färska, på en levande något grövre gammal gran nära kant mot ungskog.</t>
-        </is>
-      </c>
       <c r="AD8" t="b">
         <v>0</v>
       </c>
       <c r="AE8" t="b">
         <v>0</v>
       </c>
+      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="b">
         <v>0</v>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ8" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM8" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO8" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr"/>
@@ -1616,38 +1588,42 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>130887108</v>
+        <v>130887094</v>
       </c>
       <c r="B9" t="n">
-        <v>97878</v>
+        <v>57884</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>221945</v>
+        <v>100109</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
@@ -1655,10 +1631,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>495742</v>
+        <v>495901</v>
       </c>
       <c r="R9" t="n">
-        <v>7016070</v>
+        <v>7016223</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1693,19 +1669,43 @@
           <t>2026-01-26</t>
         </is>
       </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>Ringhack, färska, på en levande något grövre gammal gran nära kant mot ungskog.</t>
+        </is>
+      </c>
       <c r="AD9" t="b">
         <v>0</v>
       </c>
       <c r="AE9" t="b">
         <v>0</v>
       </c>
-      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
       </c>
       <c r="AH9" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ9" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM9" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr"/>
@@ -1723,10 +1723,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>130887102</v>
+        <v>130887126</v>
       </c>
       <c r="B10" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1734,31 +1734,26 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>gammalt bo</t>
-        </is>
-      </c>
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
@@ -1766,10 +1761,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>495951</v>
+        <v>495942</v>
       </c>
       <c r="R10" t="n">
-        <v>7016339</v>
+        <v>7016269</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1804,17 +1799,13 @@
           <t>2026-01-26</t>
         </is>
       </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>Gammalt bohål på 2 meters höjd i en stående död gran. Bohålet är 5 cm i diameter längst ut och ca 4 cm i diameter en bit in i ingångshålet. Ev. skapat av tretåig hackspett. Stående död ved som indikerar högt livsmiljövärde för tretåig hackspett finns på/kring fyndplatsen.</t>
-        </is>
-      </c>
       <c r="AD10" t="b">
         <v>0</v>
       </c>
       <c r="AE10" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
       </c>
@@ -1835,12 +1826,12 @@
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr"/>
@@ -1858,10 +1849,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>130887126</v>
+        <v>130887133</v>
       </c>
       <c r="B11" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1896,10 +1887,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>495942</v>
+        <v>496017</v>
       </c>
       <c r="R11" t="n">
-        <v>7016269</v>
+        <v>7016363</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1987,7 +1978,7 @@
         <v>130887123</v>
       </c>
       <c r="B12" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -2110,10 +2101,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>130887133</v>
+        <v>130887100</v>
       </c>
       <c r="B13" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -2121,26 +2112,31 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
@@ -2148,10 +2144,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>496017</v>
+        <v>495805</v>
       </c>
       <c r="R13" t="n">
-        <v>7016363</v>
+        <v>7016271</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2186,13 +2182,17 @@
           <t>2026-01-26</t>
         </is>
       </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>Ringhack, äldre, på en levande gran vid kanten mot ungskog. Spår av sav/kådaflöde på granens stam.</t>
+        </is>
+      </c>
       <c r="AD13" t="b">
         <v>0</v>
       </c>
       <c r="AE13" t="b">
         <v>0</v>
       </c>
-      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
       </c>
@@ -2213,12 +2213,12 @@
       </c>
       <c r="AM13" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr"/>
@@ -2236,7 +2236,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>130887100</v>
+        <v>130887088</v>
       </c>
       <c r="B14" t="n">
         <v>57884</v>
@@ -2269,20 +2269,24 @@
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr"/>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P14" t="inlineStr">
         <is>
           <t>Palleråsen Södra, Jmt</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>495805</v>
+        <v>495679</v>
       </c>
       <c r="R14" t="n">
-        <v>7016271</v>
+        <v>7016071</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2319,7 +2323,7 @@
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på en levande gran vid kanten mot ungskog. Spår av sav/kådaflöde på granens stam.</t>
+          <t>Ringhack, färska, på en gran intill en mindre väg.</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2371,7 +2375,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>130887088</v>
+        <v>130887102</v>
       </c>
       <c r="B15" t="n">
         <v>57884</v>
@@ -2404,24 +2408,20 @@
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+          <t>gammalt bo</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
           <t>Palleråsen Södra, Jmt</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>495679</v>
+        <v>495951</v>
       </c>
       <c r="R15" t="n">
-        <v>7016071</v>
+        <v>7016339</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2458,14 +2458,14 @@
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>Ringhack, färska, på en gran intill en mindre väg.</t>
+          <t>Gammalt bohål på 2 meters höjd i en stående död gran. Bohålet är 5 cm i diameter längst ut och ca 4 cm i diameter en bit in i ingångshålet. Ev. skapat av tretåig hackspett. Stående död ved som indikerar högt livsmiljövärde för tretåig hackspett finns på/kring fyndplatsen.</t>
         </is>
       </c>
       <c r="AD15" t="b">
         <v>0</v>
       </c>
       <c r="AE15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG15" t="b">
         <v>0</v>
@@ -2510,10 +2510,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>130887095</v>
+        <v>130887125</v>
       </c>
       <c r="B16" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2521,31 +2521,26 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
@@ -2553,10 +2548,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>495890</v>
+        <v>495945</v>
       </c>
       <c r="R16" t="n">
-        <v>7016236</v>
+        <v>7016232</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2591,17 +2586,13 @@
           <t>2026-01-26</t>
         </is>
       </c>
-      <c r="AC16" t="inlineStr">
-        <is>
-          <t>Ringhack, äldre, enstaka högt upp på stammen av en levande gran nära kant mot ungskog.</t>
-        </is>
-      </c>
       <c r="AD16" t="b">
         <v>0</v>
       </c>
       <c r="AE16" t="b">
         <v>0</v>
       </c>
+      <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="b">
         <v>0</v>
       </c>
@@ -2622,12 +2613,12 @@
       </c>
       <c r="AM16" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr"/>
@@ -2645,10 +2636,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>130887125</v>
+        <v>130887095</v>
       </c>
       <c r="B17" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2656,26 +2647,31 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
@@ -2683,10 +2679,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>495945</v>
+        <v>495890</v>
       </c>
       <c r="R17" t="n">
-        <v>7016232</v>
+        <v>7016236</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2721,13 +2717,17 @@
           <t>2026-01-26</t>
         </is>
       </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>Ringhack, äldre, enstaka högt upp på stammen av en levande gran nära kant mot ungskog.</t>
+        </is>
+      </c>
       <c r="AD17" t="b">
         <v>0</v>
       </c>
       <c r="AE17" t="b">
         <v>0</v>
       </c>
-      <c r="AF17" t="inlineStr"/>
       <c r="AG17" t="b">
         <v>0</v>
       </c>
@@ -2748,12 +2748,12 @@
       </c>
       <c r="AM17" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT17" t="inlineStr"/>
@@ -2771,10 +2771,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>130887085</v>
+        <v>130887122</v>
       </c>
       <c r="B18" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2782,31 +2782,26 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
@@ -2814,10 +2809,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>495713</v>
+        <v>495898</v>
       </c>
       <c r="R18" t="n">
-        <v>7015939</v>
+        <v>7016234</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2852,17 +2847,13 @@
           <t>2026-01-26</t>
         </is>
       </c>
-      <c r="AC18" t="inlineStr">
-        <is>
-          <t>Ringhack, äldre, längs flera meter på en gran med spår efter påtagligt sav/kådaflöde.</t>
-        </is>
-      </c>
       <c r="AD18" t="b">
         <v>0</v>
       </c>
       <c r="AE18" t="b">
         <v>0</v>
       </c>
+      <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="b">
         <v>0</v>
       </c>
@@ -2883,12 +2874,12 @@
       </c>
       <c r="AM18" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT18" t="inlineStr"/>
@@ -2906,10 +2897,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>130887122</v>
+        <v>130887085</v>
       </c>
       <c r="B19" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2917,26 +2908,31 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
@@ -2944,10 +2940,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>495898</v>
+        <v>495713</v>
       </c>
       <c r="R19" t="n">
-        <v>7016234</v>
+        <v>7015939</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2982,13 +2978,17 @@
           <t>2026-01-26</t>
         </is>
       </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>Ringhack, äldre, längs flera meter på en gran med spår efter påtagligt sav/kådaflöde.</t>
+        </is>
+      </c>
       <c r="AD19" t="b">
         <v>0</v>
       </c>
       <c r="AE19" t="b">
         <v>0</v>
       </c>
-      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
       </c>
@@ -3009,12 +3009,12 @@
       </c>
       <c r="AM19" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO19" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT19" t="inlineStr"/>
@@ -3032,43 +3032,40 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>130887104</v>
+        <v>130887098</v>
       </c>
       <c r="B20" t="n">
-        <v>80377</v>
+        <v>57884</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6462</v>
+        <v>100109</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>dm²</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>med apothecier</t>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N20" t="inlineStr"/>
@@ -3078,10 +3075,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>495828</v>
+        <v>495849</v>
       </c>
       <c r="R20" t="n">
-        <v>7015949</v>
+        <v>7016251</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -3118,7 +3115,7 @@
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>Bålar av stuplav som täcker ca 3 dm2 sälg.</t>
+          <t>Ringhack, äldre, längs några meter på en levande gran nära kant mot ungskog.</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -3127,33 +3124,32 @@
       <c r="AE20" t="b">
         <v>0</v>
       </c>
-      <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="b">
         <v>0</v>
       </c>
       <c r="AH20" t="inlineStr">
         <is>
-          <t>Barrskog</t>
+          <t>Granskog</t>
         </is>
       </c>
       <c r="AJ20" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK20" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM20" t="inlineStr">
         <is>
-          <t>Bark på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO20" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Salix caprea</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT20" t="inlineStr"/>
@@ -3171,41 +3167,37 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>130887106</v>
+        <v>130887116</v>
       </c>
       <c r="B21" t="n">
-        <v>80377</v>
+        <v>79244</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6462</v>
+        <v>6425</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>med apothecier</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
@@ -3213,10 +3205,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>495981</v>
+        <v>495725</v>
       </c>
       <c r="R21" t="n">
-        <v>7016252</v>
+        <v>7016183</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3253,7 +3245,7 @@
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>Enstaka bålar på en sälg.</t>
+          <t>Långväxta bålar på gran.</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3273,22 +3265,22 @@
       </c>
       <c r="AJ21" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK21" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM21" t="inlineStr">
         <is>
-          <t>Bark på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO21" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Salix caprea</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT21" t="inlineStr"/>
@@ -3306,37 +3298,45 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>130887119</v>
+        <v>130887104</v>
       </c>
       <c r="B22" t="n">
-        <v>79243</v>
+        <v>80378</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6425</v>
+        <v>6462</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>dm²</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>med apothecier</t>
+        </is>
+      </c>
       <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
@@ -3344,10 +3344,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>495992</v>
+        <v>495828</v>
       </c>
       <c r="R22" t="n">
-        <v>7016329</v>
+        <v>7015949</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3384,7 +3384,7 @@
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>Långväxta bålar på flera granar. Längsta bålen ca 80 cm.</t>
+          <t>Bålar av stuplav som täcker ca 3 dm2 sälg.</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3399,27 +3399,27 @@
       </c>
       <c r="AH22" t="inlineStr">
         <is>
-          <t>Granskog</t>
+          <t>Barrskog</t>
         </is>
       </c>
       <c r="AJ22" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK22" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AM22" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO22" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Bark on living woody plant # Salix caprea</t>
         </is>
       </c>
       <c r="AT22" t="inlineStr"/>
@@ -3437,37 +3437,41 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>130887116</v>
+        <v>130887106</v>
       </c>
       <c r="B23" t="n">
-        <v>79243</v>
+        <v>80378</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6425</v>
+        <v>6462</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>med apothecier</t>
+        </is>
+      </c>
       <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
@@ -3475,10 +3479,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>495725</v>
+        <v>495981</v>
       </c>
       <c r="R23" t="n">
-        <v>7016183</v>
+        <v>7016252</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3515,7 +3519,7 @@
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>Långväxta bålar på gran.</t>
+          <t>Enstaka bålar på en sälg.</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3535,22 +3539,22 @@
       </c>
       <c r="AJ23" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK23" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AM23" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO23" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Bark on living woody plant # Salix caprea</t>
         </is>
       </c>
       <c r="AT23" t="inlineStr"/>
@@ -3568,10 +3572,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>130887098</v>
+        <v>130887119</v>
       </c>
       <c r="B24" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3579,31 +3583,26 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
@@ -3611,10 +3610,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>495849</v>
+        <v>495992</v>
       </c>
       <c r="R24" t="n">
-        <v>7016251</v>
+        <v>7016329</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3651,7 +3650,7 @@
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, längs några meter på en levande gran nära kant mot ungskog.</t>
+          <t>Långväxta bålar på flera granar. Längsta bålen ca 80 cm.</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3660,6 +3659,7 @@
       <c r="AE24" t="b">
         <v>0</v>
       </c>
+      <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="b">
         <v>0</v>
       </c>
@@ -3680,12 +3680,12 @@
       </c>
       <c r="AM24" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO24" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT24" t="inlineStr"/>
@@ -3706,7 +3706,7 @@
         <v>130887120</v>
       </c>
       <c r="B25" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3969,7 +3969,7 @@
         <v>130887130</v>
       </c>
       <c r="B27" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         <v>130887128</v>
       </c>
       <c r="B28" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -4228,10 +4228,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>130887086</v>
+        <v>130887127</v>
       </c>
       <c r="B29" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -4239,31 +4239,26 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
@@ -4271,10 +4266,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>495683</v>
+        <v>495831</v>
       </c>
       <c r="R29" t="n">
-        <v>7016064</v>
+        <v>7016258</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -4311,7 +4306,7 @@
       </c>
       <c r="AC29" t="inlineStr">
         <is>
-          <t>Ringhack, färska, på en gran nära en mindre väg.</t>
+          <t>På en gren av gran på ca 2 m höjd.</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -4320,6 +4315,7 @@
       <c r="AE29" t="b">
         <v>0</v>
       </c>
+      <c r="AF29" t="inlineStr"/>
       <c r="AG29" t="b">
         <v>0</v>
       </c>
@@ -4340,12 +4336,12 @@
       </c>
       <c r="AM29" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO29" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT29" t="inlineStr"/>
@@ -4366,7 +4362,7 @@
         <v>130887132</v>
       </c>
       <c r="B30" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -4494,10 +4490,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>130887127</v>
+        <v>130887096</v>
       </c>
       <c r="B31" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -4505,26 +4501,31 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
@@ -4532,10 +4533,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>495831</v>
+        <v>495870</v>
       </c>
       <c r="R31" t="n">
-        <v>7016258</v>
+        <v>7016247</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4572,7 +4573,7 @@
       </c>
       <c r="AC31" t="inlineStr">
         <is>
-          <t>På en gren av gran på ca 2 m höjd.</t>
+          <t>Ringhack, äldre, på en levande gran nära kant mot ungskog.</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4581,7 +4582,6 @@
       <c r="AE31" t="b">
         <v>0</v>
       </c>
-      <c r="AF31" t="inlineStr"/>
       <c r="AG31" t="b">
         <v>0</v>
       </c>
@@ -4602,12 +4602,12 @@
       </c>
       <c r="AM31" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO31" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT31" t="inlineStr"/>
@@ -4625,7 +4625,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>130887096</v>
+        <v>130887086</v>
       </c>
       <c r="B32" t="n">
         <v>57884</v>
@@ -4658,7 +4658,7 @@
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N32" t="inlineStr"/>
@@ -4668,10 +4668,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>495870</v>
+        <v>495683</v>
       </c>
       <c r="R32" t="n">
-        <v>7016247</v>
+        <v>7016064</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4708,7 +4708,7 @@
       </c>
       <c r="AC32" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på en levande gran nära kant mot ungskog.</t>
+          <t>Ringhack, färska, på en gran nära en mindre väg.</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4898,7 +4898,7 @@
         <v>130887082</v>
       </c>
       <c r="B34" t="n">
-        <v>91808</v>
+        <v>91809</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -5033,7 +5033,7 @@
         <v>130887113</v>
       </c>
       <c r="B35" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -5159,7 +5159,7 @@
         <v>130887117</v>
       </c>
       <c r="B36" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -5287,7 +5287,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>130887099</v>
+        <v>130887084</v>
       </c>
       <c r="B37" t="n">
         <v>57884</v>
@@ -5320,20 +5320,24 @@
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr">
         <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N37" t="inlineStr"/>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P37" t="inlineStr">
         <is>
           <t>Palleråsen Södra, Jmt</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>495812</v>
+        <v>495868</v>
       </c>
       <c r="R37" t="n">
-        <v>7016273</v>
+        <v>7015959</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -5370,7 +5374,7 @@
       </c>
       <c r="AC37" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på en levande gran nära kant mot ungskog.</t>
+          <t>Ringhack, färska, enstaka några meter upp på en granstam vid en glänta.</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -5422,7 +5426,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>130887084</v>
+        <v>130887099</v>
       </c>
       <c r="B38" t="n">
         <v>57884</v>
@@ -5455,24 +5459,20 @@
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr">
         <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
           <t>Palleråsen Södra, Jmt</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>495868</v>
+        <v>495812</v>
       </c>
       <c r="R38" t="n">
-        <v>7015959</v>
+        <v>7016273</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -5509,7 +5509,7 @@
       </c>
       <c r="AC38" t="inlineStr">
         <is>
-          <t>Ringhack, färska, enstaka några meter upp på en granstam vid en glänta.</t>
+          <t>Ringhack, äldre, på en levande gran nära kant mot ungskog.</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -5564,7 +5564,7 @@
         <v>130887109</v>
       </c>
       <c r="B39" t="n">
-        <v>97878</v>
+        <v>97879</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -5671,7 +5671,7 @@
         <v>130887131</v>
       </c>
       <c r="B40" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -5802,7 +5802,7 @@
         <v>130887115</v>
       </c>
       <c r="B41" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -5928,7 +5928,7 @@
         <v>130887114</v>
       </c>
       <c r="B42" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -6054,7 +6054,7 @@
         <v>130887105</v>
       </c>
       <c r="B43" t="n">
-        <v>80377</v>
+        <v>80378</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -6181,10 +6181,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>130887081</v>
+        <v>130887091</v>
       </c>
       <c r="B44" t="n">
-        <v>91808</v>
+        <v>57884</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -6192,28 +6192,29 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N44" t="inlineStr"/>
@@ -6223,10 +6224,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>495919</v>
+        <v>495967</v>
       </c>
       <c r="R44" t="n">
-        <v>7016205</v>
+        <v>7016170</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -6263,7 +6264,7 @@
       </c>
       <c r="AC44" t="inlineStr">
         <is>
-          <t>I upplyft granlåga.</t>
+          <t>Ringhack, färska, på en levande gran vid en hyggeskant.</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -6272,7 +6273,6 @@
       <c r="AE44" t="b">
         <v>0</v>
       </c>
-      <c r="AF44" t="inlineStr"/>
       <c r="AG44" t="b">
         <v>0</v>
       </c>
@@ -6293,12 +6293,12 @@
       </c>
       <c r="AM44" t="inlineStr">
         <is>
-          <t>Liggande död trädstam, utan markontakt</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO44" t="inlineStr">
         <is>
-          <t>Horizontal, dead without ground contact # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT44" t="inlineStr"/>
@@ -6316,10 +6316,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>130887097</v>
+        <v>130887124</v>
       </c>
       <c r="B45" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -6327,31 +6327,26 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
@@ -6359,10 +6354,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>495856</v>
+        <v>495877</v>
       </c>
       <c r="R45" t="n">
-        <v>7016255</v>
+        <v>7016270</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -6399,7 +6394,7 @@
       </c>
       <c r="AC45" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, längs flera meter långt upp på en levande gran nära kant mot ungskog. Tydliga spår av sav/kådaflöde på granens stam.</t>
+          <t>Långväxta bålar på gran.</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -6408,6 +6403,7 @@
       <c r="AE45" t="b">
         <v>0</v>
       </c>
+      <c r="AF45" t="inlineStr"/>
       <c r="AG45" t="b">
         <v>0</v>
       </c>
@@ -6428,12 +6424,12 @@
       </c>
       <c r="AM45" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO45" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT45" t="inlineStr"/>
@@ -6451,10 +6447,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>130887091</v>
+        <v>130887129</v>
       </c>
       <c r="B46" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -6462,31 +6458,26 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N46" t="inlineStr"/>
       <c r="P46" t="inlineStr">
         <is>
@@ -6494,10 +6485,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>495967</v>
+        <v>495878</v>
       </c>
       <c r="R46" t="n">
-        <v>7016170</v>
+        <v>7016320</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -6532,17 +6523,13 @@
           <t>2026-01-26</t>
         </is>
       </c>
-      <c r="AC46" t="inlineStr">
-        <is>
-          <t>Ringhack, färska, på en levande gran vid en hyggeskant.</t>
-        </is>
-      </c>
       <c r="AD46" t="b">
         <v>0</v>
       </c>
       <c r="AE46" t="b">
         <v>0</v>
       </c>
+      <c r="AF46" t="inlineStr"/>
       <c r="AG46" t="b">
         <v>0</v>
       </c>
@@ -6563,12 +6550,12 @@
       </c>
       <c r="AM46" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO46" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT46" t="inlineStr"/>
@@ -6586,10 +6573,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>130887087</v>
+        <v>130887081</v>
       </c>
       <c r="B47" t="n">
-        <v>57884</v>
+        <v>91809</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -6597,29 +6584,28 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>färska spår</t>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
         </is>
       </c>
       <c r="N47" t="inlineStr"/>
@@ -6629,10 +6615,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>495680</v>
+        <v>495919</v>
       </c>
       <c r="R47" t="n">
-        <v>7016064</v>
+        <v>7016205</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -6669,7 +6655,7 @@
       </c>
       <c r="AC47" t="inlineStr">
         <is>
-          <t>Ringhack, färska, på en högväxt gran intill en mindre väg.</t>
+          <t>I upplyft granlåga.</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -6678,6 +6664,7 @@
       <c r="AE47" t="b">
         <v>0</v>
       </c>
+      <c r="AF47" t="inlineStr"/>
       <c r="AG47" t="b">
         <v>0</v>
       </c>
@@ -6698,12 +6685,12 @@
       </c>
       <c r="AM47" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Liggande död trädstam, utan markontakt</t>
         </is>
       </c>
       <c r="AO47" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Horizontal, dead without ground contact # Picea abies</t>
         </is>
       </c>
       <c r="AT47" t="inlineStr"/>
@@ -6721,10 +6708,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>130887124</v>
+        <v>130887087</v>
       </c>
       <c r="B48" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -6732,26 +6719,31 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
@@ -6759,10 +6751,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>495877</v>
+        <v>495680</v>
       </c>
       <c r="R48" t="n">
-        <v>7016270</v>
+        <v>7016064</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -6799,7 +6791,7 @@
       </c>
       <c r="AC48" t="inlineStr">
         <is>
-          <t>Långväxta bålar på gran.</t>
+          <t>Ringhack, färska, på en högväxt gran intill en mindre väg.</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -6808,7 +6800,6 @@
       <c r="AE48" t="b">
         <v>0</v>
       </c>
-      <c r="AF48" t="inlineStr"/>
       <c r="AG48" t="b">
         <v>0</v>
       </c>
@@ -6829,12 +6820,12 @@
       </c>
       <c r="AM48" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO48" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT48" t="inlineStr"/>
@@ -6852,10 +6843,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>130887129</v>
+        <v>130887097</v>
       </c>
       <c r="B49" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -6863,26 +6854,31 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
@@ -6890,10 +6886,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>495878</v>
+        <v>495856</v>
       </c>
       <c r="R49" t="n">
-        <v>7016320</v>
+        <v>7016255</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -6928,13 +6924,17 @@
           <t>2026-01-26</t>
         </is>
       </c>
+      <c r="AC49" t="inlineStr">
+        <is>
+          <t>Ringhack, äldre, längs flera meter långt upp på en levande gran nära kant mot ungskog. Tydliga spår av sav/kådaflöde på granens stam.</t>
+        </is>
+      </c>
       <c r="AD49" t="b">
         <v>0</v>
       </c>
       <c r="AE49" t="b">
         <v>0</v>
       </c>
-      <c r="AF49" t="inlineStr"/>
       <c r="AG49" t="b">
         <v>0</v>
       </c>
@@ -6955,12 +6955,12 @@
       </c>
       <c r="AM49" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO49" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT49" t="inlineStr"/>
@@ -7125,7 +7125,7 @@
         <v>130887112</v>
       </c>
       <c r="B51" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>

--- a/artfynd/A 62696-2025 artfynd.xlsx
+++ b/artfynd/A 62696-2025 artfynd.xlsx
@@ -1481,38 +1481,42 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>130887108</v>
+        <v>130887094</v>
       </c>
       <c r="B8" t="n">
-        <v>97879</v>
+        <v>57884</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>221945</v>
+        <v>100109</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
@@ -1520,10 +1524,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>495742</v>
+        <v>495901</v>
       </c>
       <c r="R8" t="n">
-        <v>7016070</v>
+        <v>7016223</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1558,19 +1562,43 @@
           <t>2026-01-26</t>
         </is>
       </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>Ringhack, färska, på en levande något grövre gammal gran nära kant mot ungskog.</t>
+        </is>
+      </c>
       <c r="AD8" t="b">
         <v>0</v>
       </c>
       <c r="AE8" t="b">
         <v>0</v>
       </c>
-      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="b">
         <v>0</v>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM8" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr"/>
@@ -1588,42 +1616,38 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>130887094</v>
+        <v>130887108</v>
       </c>
       <c r="B9" t="n">
-        <v>57884</v>
+        <v>97879</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>100109</v>
+        <v>221945</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
@@ -1631,10 +1655,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>495901</v>
+        <v>495742</v>
       </c>
       <c r="R9" t="n">
-        <v>7016223</v>
+        <v>7016070</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1669,43 +1693,19 @@
           <t>2026-01-26</t>
         </is>
       </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>Ringhack, färska, på en levande något grövre gammal gran nära kant mot ungskog.</t>
-        </is>
-      </c>
       <c r="AD9" t="b">
         <v>0</v>
       </c>
       <c r="AE9" t="b">
         <v>0</v>
       </c>
+      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
       </c>
       <c r="AH9" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ9" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK9" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM9" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO9" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr"/>
@@ -1849,7 +1849,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>130887133</v>
+        <v>130887123</v>
       </c>
       <c r="B11" t="n">
         <v>79244</v>
@@ -1887,10 +1887,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>496017</v>
+        <v>495877</v>
       </c>
       <c r="R11" t="n">
-        <v>7016363</v>
+        <v>7016242</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1975,7 +1975,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>130887123</v>
+        <v>130887133</v>
       </c>
       <c r="B12" t="n">
         <v>79244</v>
@@ -2013,10 +2013,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>495877</v>
+        <v>496017</v>
       </c>
       <c r="R12" t="n">
-        <v>7016242</v>
+        <v>7016363</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -3032,40 +3032,43 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>130887098</v>
+        <v>130887104</v>
       </c>
       <c r="B20" t="n">
-        <v>57884</v>
+        <v>80378</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>100109</v>
+        <v>6462</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>dm²</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>med apothecier</t>
         </is>
       </c>
       <c r="N20" t="inlineStr"/>
@@ -3075,10 +3078,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>495849</v>
+        <v>495828</v>
       </c>
       <c r="R20" t="n">
-        <v>7016251</v>
+        <v>7015949</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -3115,7 +3118,7 @@
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, längs några meter på en levande gran nära kant mot ungskog.</t>
+          <t>Bålar av stuplav som täcker ca 3 dm2 sälg.</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -3124,32 +3127,33 @@
       <c r="AE20" t="b">
         <v>0</v>
       </c>
+      <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="b">
         <v>0</v>
       </c>
       <c r="AH20" t="inlineStr">
         <is>
-          <t>Granskog</t>
+          <t>Barrskog</t>
         </is>
       </c>
       <c r="AJ20" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK20" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AM20" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO20" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Bark on living woody plant # Salix caprea</t>
         </is>
       </c>
       <c r="AT20" t="inlineStr"/>
@@ -3167,37 +3171,41 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>130887116</v>
+        <v>130887106</v>
       </c>
       <c r="B21" t="n">
-        <v>79244</v>
+        <v>80378</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6425</v>
+        <v>6462</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>med apothecier</t>
+        </is>
+      </c>
       <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
@@ -3205,10 +3213,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>495725</v>
+        <v>495981</v>
       </c>
       <c r="R21" t="n">
-        <v>7016183</v>
+        <v>7016252</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3245,7 +3253,7 @@
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>Långväxta bålar på gran.</t>
+          <t>Enstaka bålar på en sälg.</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3265,22 +3273,22 @@
       </c>
       <c r="AJ21" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK21" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AM21" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO21" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Bark on living woody plant # Salix caprea</t>
         </is>
       </c>
       <c r="AT21" t="inlineStr"/>
@@ -3298,45 +3306,37 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>130887104</v>
+        <v>130887119</v>
       </c>
       <c r="B22" t="n">
-        <v>80378</v>
+        <v>79244</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6462</v>
+        <v>6425</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>dm²</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>med apothecier</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
@@ -3344,10 +3344,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>495828</v>
+        <v>495992</v>
       </c>
       <c r="R22" t="n">
-        <v>7015949</v>
+        <v>7016329</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3384,7 +3384,7 @@
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>Bålar av stuplav som täcker ca 3 dm2 sälg.</t>
+          <t>Långväxta bålar på flera granar. Längsta bålen ca 80 cm.</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3399,27 +3399,27 @@
       </c>
       <c r="AH22" t="inlineStr">
         <is>
-          <t>Barrskog</t>
+          <t>Granskog</t>
         </is>
       </c>
       <c r="AJ22" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK22" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM22" t="inlineStr">
         <is>
-          <t>Bark på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO22" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Salix caprea</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT22" t="inlineStr"/>
@@ -3437,41 +3437,37 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>130887106</v>
+        <v>130887116</v>
       </c>
       <c r="B23" t="n">
-        <v>80378</v>
+        <v>79244</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6462</v>
+        <v>6425</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>med apothecier</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
@@ -3479,10 +3475,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>495981</v>
+        <v>495725</v>
       </c>
       <c r="R23" t="n">
-        <v>7016252</v>
+        <v>7016183</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3519,7 +3515,7 @@
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>Enstaka bålar på en sälg.</t>
+          <t>Långväxta bålar på gran.</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3539,22 +3535,22 @@
       </c>
       <c r="AJ23" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK23" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM23" t="inlineStr">
         <is>
-          <t>Bark på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO23" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Salix caprea</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT23" t="inlineStr"/>
@@ -3572,10 +3568,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>130887119</v>
+        <v>130887098</v>
       </c>
       <c r="B24" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3583,26 +3579,31 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
@@ -3610,10 +3611,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>495992</v>
+        <v>495849</v>
       </c>
       <c r="R24" t="n">
-        <v>7016329</v>
+        <v>7016251</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3650,7 +3651,7 @@
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>Långväxta bålar på flera granar. Längsta bålen ca 80 cm.</t>
+          <t>Ringhack, äldre, längs några meter på en levande gran nära kant mot ungskog.</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3659,7 +3660,6 @@
       <c r="AE24" t="b">
         <v>0</v>
       </c>
-      <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="b">
         <v>0</v>
       </c>
@@ -3680,12 +3680,12 @@
       </c>
       <c r="AM24" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO24" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT24" t="inlineStr"/>
@@ -4228,7 +4228,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>130887127</v>
+        <v>130887132</v>
       </c>
       <c r="B29" t="n">
         <v>79244</v>
@@ -4266,10 +4266,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>495831</v>
+        <v>496008</v>
       </c>
       <c r="R29" t="n">
-        <v>7016258</v>
+        <v>7016340</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -4306,7 +4306,7 @@
       </c>
       <c r="AC29" t="inlineStr">
         <is>
-          <t>På en gren av gran på ca 2 m höjd.</t>
+          <t>Långväxta bålar på gran. Ca 50 cm lång hängande bål.</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -4359,7 +4359,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>130887132</v>
+        <v>130887127</v>
       </c>
       <c r="B30" t="n">
         <v>79244</v>
@@ -4397,10 +4397,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>496008</v>
+        <v>495831</v>
       </c>
       <c r="R30" t="n">
-        <v>7016340</v>
+        <v>7016258</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4437,7 +4437,7 @@
       </c>
       <c r="AC30" t="inlineStr">
         <is>
-          <t>Långväxta bålar på gran. Ca 50 cm lång hängande bål.</t>
+          <t>På en gren av gran på ca 2 m höjd.</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -5925,37 +5925,41 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>130887114</v>
+        <v>130887105</v>
       </c>
       <c r="B42" t="n">
-        <v>79244</v>
+        <v>80378</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>6425</v>
+        <v>6462</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>med apothecier</t>
+        </is>
+      </c>
       <c r="N42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
@@ -5963,10 +5967,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>495689</v>
+        <v>495736</v>
       </c>
       <c r="R42" t="n">
-        <v>7015994</v>
+        <v>7016168</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -6018,22 +6022,22 @@
       </c>
       <c r="AJ42" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK42" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AM42" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO42" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Bark on living woody plant # Salix caprea</t>
         </is>
       </c>
       <c r="AT42" t="inlineStr"/>
@@ -6051,41 +6055,37 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>130887105</v>
+        <v>130887114</v>
       </c>
       <c r="B43" t="n">
-        <v>80378</v>
+        <v>79244</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>6462</v>
+        <v>6425</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>med apothecier</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="N43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
@@ -6093,10 +6093,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>495736</v>
+        <v>495689</v>
       </c>
       <c r="R43" t="n">
-        <v>7016168</v>
+        <v>7015994</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -6148,22 +6148,22 @@
       </c>
       <c r="AJ43" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK43" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM43" t="inlineStr">
         <is>
-          <t>Bark på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO43" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Salix caprea</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT43" t="inlineStr"/>
@@ -6181,10 +6181,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>130887091</v>
+        <v>130887124</v>
       </c>
       <c r="B44" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -6192,31 +6192,26 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
@@ -6224,10 +6219,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>495967</v>
+        <v>495877</v>
       </c>
       <c r="R44" t="n">
-        <v>7016170</v>
+        <v>7016270</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -6264,7 +6259,7 @@
       </c>
       <c r="AC44" t="inlineStr">
         <is>
-          <t>Ringhack, färska, på en levande gran vid en hyggeskant.</t>
+          <t>Långväxta bålar på gran.</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -6273,6 +6268,7 @@
       <c r="AE44" t="b">
         <v>0</v>
       </c>
+      <c r="AF44" t="inlineStr"/>
       <c r="AG44" t="b">
         <v>0</v>
       </c>
@@ -6293,12 +6289,12 @@
       </c>
       <c r="AM44" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO44" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT44" t="inlineStr"/>
@@ -6316,7 +6312,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>130887124</v>
+        <v>130887129</v>
       </c>
       <c r="B45" t="n">
         <v>79244</v>
@@ -6354,10 +6350,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>495877</v>
+        <v>495878</v>
       </c>
       <c r="R45" t="n">
-        <v>7016270</v>
+        <v>7016320</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -6390,11 +6386,6 @@
       <c r="AA45" t="inlineStr">
         <is>
           <t>2026-01-26</t>
-        </is>
-      </c>
-      <c r="AC45" t="inlineStr">
-        <is>
-          <t>Långväxta bålar på gran.</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -6447,10 +6438,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>130887129</v>
+        <v>130887081</v>
       </c>
       <c r="B46" t="n">
-        <v>79244</v>
+        <v>91809</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -6458,26 +6449,30 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
       <c r="N46" t="inlineStr"/>
       <c r="P46" t="inlineStr">
         <is>
@@ -6485,10 +6480,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>495878</v>
+        <v>495919</v>
       </c>
       <c r="R46" t="n">
-        <v>7016320</v>
+        <v>7016205</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -6523,6 +6518,11 @@
           <t>2026-01-26</t>
         </is>
       </c>
+      <c r="AC46" t="inlineStr">
+        <is>
+          <t>I upplyft granlåga.</t>
+        </is>
+      </c>
       <c r="AD46" t="b">
         <v>0</v>
       </c>
@@ -6550,12 +6550,12 @@
       </c>
       <c r="AM46" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Liggande död trädstam, utan markontakt</t>
         </is>
       </c>
       <c r="AO46" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Horizontal, dead without ground contact # Picea abies</t>
         </is>
       </c>
       <c r="AT46" t="inlineStr"/>
@@ -6573,10 +6573,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>130887081</v>
+        <v>130887087</v>
       </c>
       <c r="B47" t="n">
-        <v>91809</v>
+        <v>57884</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -6584,28 +6584,29 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N47" t="inlineStr"/>
@@ -6615,10 +6616,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>495919</v>
+        <v>495680</v>
       </c>
       <c r="R47" t="n">
-        <v>7016205</v>
+        <v>7016064</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -6655,7 +6656,7 @@
       </c>
       <c r="AC47" t="inlineStr">
         <is>
-          <t>I upplyft granlåga.</t>
+          <t>Ringhack, färska, på en högväxt gran intill en mindre väg.</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -6664,7 +6665,6 @@
       <c r="AE47" t="b">
         <v>0</v>
       </c>
-      <c r="AF47" t="inlineStr"/>
       <c r="AG47" t="b">
         <v>0</v>
       </c>
@@ -6685,12 +6685,12 @@
       </c>
       <c r="AM47" t="inlineStr">
         <is>
-          <t>Liggande död trädstam, utan markontakt</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO47" t="inlineStr">
         <is>
-          <t>Horizontal, dead without ground contact # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT47" t="inlineStr"/>
@@ -6708,7 +6708,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>130887087</v>
+        <v>130887097</v>
       </c>
       <c r="B48" t="n">
         <v>57884</v>
@@ -6741,7 +6741,7 @@
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N48" t="inlineStr"/>
@@ -6751,10 +6751,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>495680</v>
+        <v>495856</v>
       </c>
       <c r="R48" t="n">
-        <v>7016064</v>
+        <v>7016255</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -6791,7 +6791,7 @@
       </c>
       <c r="AC48" t="inlineStr">
         <is>
-          <t>Ringhack, färska, på en högväxt gran intill en mindre väg.</t>
+          <t>Ringhack, äldre, längs flera meter långt upp på en levande gran nära kant mot ungskog. Tydliga spår av sav/kådaflöde på granens stam.</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -6843,7 +6843,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>130887097</v>
+        <v>130887091</v>
       </c>
       <c r="B49" t="n">
         <v>57884</v>
@@ -6876,7 +6876,7 @@
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N49" t="inlineStr"/>
@@ -6886,10 +6886,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>495856</v>
+        <v>495967</v>
       </c>
       <c r="R49" t="n">
-        <v>7016255</v>
+        <v>7016170</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -6926,7 +6926,7 @@
       </c>
       <c r="AC49" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, längs flera meter långt upp på en levande gran nära kant mot ungskog. Tydliga spår av sav/kådaflöde på granens stam.</t>
+          <t>Ringhack, färska, på en levande gran vid en hyggeskant.</t>
         </is>
       </c>
       <c r="AD49" t="b">

--- a/artfynd/A 62696-2025 artfynd.xlsx
+++ b/artfynd/A 62696-2025 artfynd.xlsx
@@ -1723,7 +1723,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>130887126</v>
+        <v>130887123</v>
       </c>
       <c r="B10" t="n">
         <v>79244</v>
@@ -1761,10 +1761,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>495942</v>
+        <v>495877</v>
       </c>
       <c r="R10" t="n">
-        <v>7016269</v>
+        <v>7016242</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1849,7 +1849,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>130887123</v>
+        <v>130887126</v>
       </c>
       <c r="B11" t="n">
         <v>79244</v>
@@ -1887,10 +1887,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>495877</v>
+        <v>495942</v>
       </c>
       <c r="R11" t="n">
-        <v>7016242</v>
+        <v>7016269</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -3171,41 +3171,37 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>130887106</v>
+        <v>130887116</v>
       </c>
       <c r="B21" t="n">
-        <v>80378</v>
+        <v>79244</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6462</v>
+        <v>6425</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>med apothecier</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
@@ -3213,10 +3209,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>495981</v>
+        <v>495725</v>
       </c>
       <c r="R21" t="n">
-        <v>7016252</v>
+        <v>7016183</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3253,7 +3249,7 @@
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>Enstaka bålar på en sälg.</t>
+          <t>Långväxta bålar på gran.</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3273,22 +3269,22 @@
       </c>
       <c r="AJ21" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK21" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM21" t="inlineStr">
         <is>
-          <t>Bark på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO21" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Salix caprea</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT21" t="inlineStr"/>
@@ -3437,37 +3433,41 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>130887116</v>
+        <v>130887106</v>
       </c>
       <c r="B23" t="n">
-        <v>79244</v>
+        <v>80378</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6425</v>
+        <v>6462</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>med apothecier</t>
+        </is>
+      </c>
       <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
@@ -3475,10 +3475,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>495725</v>
+        <v>495981</v>
       </c>
       <c r="R23" t="n">
-        <v>7016183</v>
+        <v>7016252</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3515,7 +3515,7 @@
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>Långväxta bålar på gran.</t>
+          <t>Enstaka bålar på en sälg.</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3535,22 +3535,22 @@
       </c>
       <c r="AJ23" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK23" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AM23" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO23" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Bark on living woody plant # Salix caprea</t>
         </is>
       </c>
       <c r="AT23" t="inlineStr"/>
@@ -4228,10 +4228,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>130887132</v>
+        <v>130887096</v>
       </c>
       <c r="B29" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -4239,26 +4239,31 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
@@ -4266,10 +4271,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>496008</v>
+        <v>495870</v>
       </c>
       <c r="R29" t="n">
-        <v>7016340</v>
+        <v>7016247</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -4306,7 +4311,7 @@
       </c>
       <c r="AC29" t="inlineStr">
         <is>
-          <t>Långväxta bålar på gran. Ca 50 cm lång hängande bål.</t>
+          <t>Ringhack, äldre, på en levande gran nära kant mot ungskog.</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -4315,7 +4320,6 @@
       <c r="AE29" t="b">
         <v>0</v>
       </c>
-      <c r="AF29" t="inlineStr"/>
       <c r="AG29" t="b">
         <v>0</v>
       </c>
@@ -4336,12 +4340,12 @@
       </c>
       <c r="AM29" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO29" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT29" t="inlineStr"/>
@@ -4359,10 +4363,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>130887127</v>
+        <v>130887086</v>
       </c>
       <c r="B30" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -4370,26 +4374,31 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
@@ -4397,10 +4406,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>495831</v>
+        <v>495683</v>
       </c>
       <c r="R30" t="n">
-        <v>7016258</v>
+        <v>7016064</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4437,7 +4446,7 @@
       </c>
       <c r="AC30" t="inlineStr">
         <is>
-          <t>På en gren av gran på ca 2 m höjd.</t>
+          <t>Ringhack, färska, på en gran nära en mindre väg.</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4446,7 +4455,6 @@
       <c r="AE30" t="b">
         <v>0</v>
       </c>
-      <c r="AF30" t="inlineStr"/>
       <c r="AG30" t="b">
         <v>0</v>
       </c>
@@ -4467,12 +4475,12 @@
       </c>
       <c r="AM30" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO30" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT30" t="inlineStr"/>
@@ -4490,10 +4498,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>130887096</v>
+        <v>130887127</v>
       </c>
       <c r="B31" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -4501,31 +4509,26 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
@@ -4533,10 +4536,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>495870</v>
+        <v>495831</v>
       </c>
       <c r="R31" t="n">
-        <v>7016247</v>
+        <v>7016258</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4573,7 +4576,7 @@
       </c>
       <c r="AC31" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på en levande gran nära kant mot ungskog.</t>
+          <t>På en gren av gran på ca 2 m höjd.</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4582,6 +4585,7 @@
       <c r="AE31" t="b">
         <v>0</v>
       </c>
+      <c r="AF31" t="inlineStr"/>
       <c r="AG31" t="b">
         <v>0</v>
       </c>
@@ -4602,12 +4606,12 @@
       </c>
       <c r="AM31" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO31" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT31" t="inlineStr"/>
@@ -4625,10 +4629,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>130887086</v>
+        <v>130887132</v>
       </c>
       <c r="B32" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -4636,31 +4640,26 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
@@ -4668,10 +4667,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>495683</v>
+        <v>496008</v>
       </c>
       <c r="R32" t="n">
-        <v>7016064</v>
+        <v>7016340</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4708,7 +4707,7 @@
       </c>
       <c r="AC32" t="inlineStr">
         <is>
-          <t>Ringhack, färska, på en gran nära en mindre väg.</t>
+          <t>Långväxta bålar på gran. Ca 50 cm lång hängande bål.</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4717,6 +4716,7 @@
       <c r="AE32" t="b">
         <v>0</v>
       </c>
+      <c r="AF32" t="inlineStr"/>
       <c r="AG32" t="b">
         <v>0</v>
       </c>
@@ -4737,12 +4737,12 @@
       </c>
       <c r="AM32" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO32" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT32" t="inlineStr"/>
@@ -5925,41 +5925,37 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>130887105</v>
+        <v>130887114</v>
       </c>
       <c r="B42" t="n">
-        <v>80378</v>
+        <v>79244</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>6462</v>
+        <v>6425</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>med apothecier</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="N42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
@@ -5967,10 +5963,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>495736</v>
+        <v>495689</v>
       </c>
       <c r="R42" t="n">
-        <v>7016168</v>
+        <v>7015994</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -6022,22 +6018,22 @@
       </c>
       <c r="AJ42" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK42" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM42" t="inlineStr">
         <is>
-          <t>Bark på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO42" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Salix caprea</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT42" t="inlineStr"/>
@@ -6055,37 +6051,41 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>130887114</v>
+        <v>130887105</v>
       </c>
       <c r="B43" t="n">
-        <v>79244</v>
+        <v>80378</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>6425</v>
+        <v>6462</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>med apothecier</t>
+        </is>
+      </c>
       <c r="N43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
@@ -6093,10 +6093,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>495689</v>
+        <v>495736</v>
       </c>
       <c r="R43" t="n">
-        <v>7015994</v>
+        <v>7016168</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -6148,22 +6148,22 @@
       </c>
       <c r="AJ43" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK43" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AM43" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO43" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Bark on living woody plant # Salix caprea</t>
         </is>
       </c>
       <c r="AT43" t="inlineStr"/>
@@ -6181,10 +6181,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>130887124</v>
+        <v>130887081</v>
       </c>
       <c r="B44" t="n">
-        <v>79244</v>
+        <v>91809</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -6192,26 +6192,30 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
       <c r="N44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
@@ -6219,10 +6223,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>495877</v>
+        <v>495919</v>
       </c>
       <c r="R44" t="n">
-        <v>7016270</v>
+        <v>7016205</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -6259,7 +6263,7 @@
       </c>
       <c r="AC44" t="inlineStr">
         <is>
-          <t>Långväxta bålar på gran.</t>
+          <t>I upplyft granlåga.</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -6289,12 +6293,12 @@
       </c>
       <c r="AM44" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Liggande död trädstam, utan markontakt</t>
         </is>
       </c>
       <c r="AO44" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Horizontal, dead without ground contact # Picea abies</t>
         </is>
       </c>
       <c r="AT44" t="inlineStr"/>
@@ -6312,10 +6316,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>130887129</v>
+        <v>130887087</v>
       </c>
       <c r="B45" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -6323,26 +6327,31 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
@@ -6350,10 +6359,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>495878</v>
+        <v>495680</v>
       </c>
       <c r="R45" t="n">
-        <v>7016320</v>
+        <v>7016064</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -6388,13 +6397,17 @@
           <t>2026-01-26</t>
         </is>
       </c>
+      <c r="AC45" t="inlineStr">
+        <is>
+          <t>Ringhack, färska, på en högväxt gran intill en mindre väg.</t>
+        </is>
+      </c>
       <c r="AD45" t="b">
         <v>0</v>
       </c>
       <c r="AE45" t="b">
         <v>0</v>
       </c>
-      <c r="AF45" t="inlineStr"/>
       <c r="AG45" t="b">
         <v>0</v>
       </c>
@@ -6415,12 +6428,12 @@
       </c>
       <c r="AM45" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO45" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT45" t="inlineStr"/>
@@ -6438,10 +6451,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>130887081</v>
+        <v>130887097</v>
       </c>
       <c r="B46" t="n">
-        <v>91809</v>
+        <v>57884</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -6449,28 +6462,29 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N46" t="inlineStr"/>
@@ -6480,10 +6494,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>495919</v>
+        <v>495856</v>
       </c>
       <c r="R46" t="n">
-        <v>7016205</v>
+        <v>7016255</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -6520,7 +6534,7 @@
       </c>
       <c r="AC46" t="inlineStr">
         <is>
-          <t>I upplyft granlåga.</t>
+          <t>Ringhack, äldre, längs flera meter långt upp på en levande gran nära kant mot ungskog. Tydliga spår av sav/kådaflöde på granens stam.</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -6529,7 +6543,6 @@
       <c r="AE46" t="b">
         <v>0</v>
       </c>
-      <c r="AF46" t="inlineStr"/>
       <c r="AG46" t="b">
         <v>0</v>
       </c>
@@ -6550,12 +6563,12 @@
       </c>
       <c r="AM46" t="inlineStr">
         <is>
-          <t>Liggande död trädstam, utan markontakt</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO46" t="inlineStr">
         <is>
-          <t>Horizontal, dead without ground contact # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT46" t="inlineStr"/>
@@ -6573,7 +6586,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>130887087</v>
+        <v>130887091</v>
       </c>
       <c r="B47" t="n">
         <v>57884</v>
@@ -6616,10 +6629,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>495680</v>
+        <v>495967</v>
       </c>
       <c r="R47" t="n">
-        <v>7016064</v>
+        <v>7016170</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -6656,7 +6669,7 @@
       </c>
       <c r="AC47" t="inlineStr">
         <is>
-          <t>Ringhack, färska, på en högväxt gran intill en mindre väg.</t>
+          <t>Ringhack, färska, på en levande gran vid en hyggeskant.</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -6708,10 +6721,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>130887097</v>
+        <v>130887129</v>
       </c>
       <c r="B48" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -6719,31 +6732,26 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
@@ -6751,10 +6759,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>495856</v>
+        <v>495878</v>
       </c>
       <c r="R48" t="n">
-        <v>7016255</v>
+        <v>7016320</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -6789,17 +6797,13 @@
           <t>2026-01-26</t>
         </is>
       </c>
-      <c r="AC48" t="inlineStr">
-        <is>
-          <t>Ringhack, äldre, längs flera meter långt upp på en levande gran nära kant mot ungskog. Tydliga spår av sav/kådaflöde på granens stam.</t>
-        </is>
-      </c>
       <c r="AD48" t="b">
         <v>0</v>
       </c>
       <c r="AE48" t="b">
         <v>0</v>
       </c>
+      <c r="AF48" t="inlineStr"/>
       <c r="AG48" t="b">
         <v>0</v>
       </c>
@@ -6820,12 +6824,12 @@
       </c>
       <c r="AM48" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO48" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT48" t="inlineStr"/>
@@ -6843,10 +6847,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>130887091</v>
+        <v>130887124</v>
       </c>
       <c r="B49" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -6854,31 +6858,26 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
@@ -6886,10 +6885,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>495967</v>
+        <v>495877</v>
       </c>
       <c r="R49" t="n">
-        <v>7016170</v>
+        <v>7016270</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -6926,7 +6925,7 @@
       </c>
       <c r="AC49" t="inlineStr">
         <is>
-          <t>Ringhack, färska, på en levande gran vid en hyggeskant.</t>
+          <t>Långväxta bålar på gran.</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -6935,6 +6934,7 @@
       <c r="AE49" t="b">
         <v>0</v>
       </c>
+      <c r="AF49" t="inlineStr"/>
       <c r="AG49" t="b">
         <v>0</v>
       </c>
@@ -6955,12 +6955,12 @@
       </c>
       <c r="AM49" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO49" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT49" t="inlineStr"/>
@@ -6978,10 +6978,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>130887101</v>
+        <v>130887112</v>
       </c>
       <c r="B50" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -6989,46 +6989,37 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+      <c r="N50" t="inlineStr"/>
       <c r="P50" t="inlineStr">
         <is>
           <t>Palleråsen Södra, Jmt</t>
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>495852</v>
+        <v>495735</v>
       </c>
       <c r="R50" t="n">
-        <v>7016315</v>
+        <v>7016071</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -7065,7 +7056,7 @@
       </c>
       <c r="AC50" t="inlineStr">
         <is>
-          <t>Ringhack, färska, längs ca 3 meter på en levande gran vid en lucka i skogen. En volym av stående död ved av gran som indikerar mycket högt livsmiljövärde för tretåig hackspett på fyndplatsen.</t>
+          <t>Enstaka bålar på gran.</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -7074,6 +7065,7 @@
       <c r="AE50" t="b">
         <v>0</v>
       </c>
+      <c r="AF50" t="inlineStr"/>
       <c r="AG50" t="b">
         <v>0</v>
       </c>
@@ -7082,11 +7074,6 @@
           <t>Granskog</t>
         </is>
       </c>
-      <c r="AI50" t="inlineStr">
-        <is>
-          <t>Äldre bitvis flerskiktad granskog med inslag av tall, björk, sälg och gråal.</t>
-        </is>
-      </c>
       <c r="AJ50" t="inlineStr">
         <is>
           <t>gran</t>
@@ -7099,12 +7086,12 @@
       </c>
       <c r="AM50" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO50" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT50" t="inlineStr"/>
@@ -7122,10 +7109,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>130887112</v>
+        <v>130887101</v>
       </c>
       <c r="B51" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -7133,37 +7120,46 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P51" t="inlineStr">
         <is>
           <t>Palleråsen Södra, Jmt</t>
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>495735</v>
+        <v>495852</v>
       </c>
       <c r="R51" t="n">
-        <v>7016071</v>
+        <v>7016315</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -7200,7 +7196,7 @@
       </c>
       <c r="AC51" t="inlineStr">
         <is>
-          <t>Enstaka bålar på gran.</t>
+          <t>Ringhack, färska, längs ca 3 meter på en levande gran vid en lucka i skogen. En volym av stående död ved av gran som indikerar mycket högt livsmiljövärde för tretåig hackspett på fyndplatsen.</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -7209,7 +7205,6 @@
       <c r="AE51" t="b">
         <v>0</v>
       </c>
-      <c r="AF51" t="inlineStr"/>
       <c r="AG51" t="b">
         <v>0</v>
       </c>
@@ -7218,6 +7213,11 @@
           <t>Granskog</t>
         </is>
       </c>
+      <c r="AI51" t="inlineStr">
+        <is>
+          <t>Äldre bitvis flerskiktad granskog med inslag av tall, björk, sälg och gråal.</t>
+        </is>
+      </c>
       <c r="AJ51" t="inlineStr">
         <is>
           <t>gran</t>
@@ -7230,12 +7230,12 @@
       </c>
       <c r="AM51" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO51" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT51" t="inlineStr"/>

--- a/artfynd/A 62696-2025 artfynd.xlsx
+++ b/artfynd/A 62696-2025 artfynd.xlsx
@@ -819,10 +819,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>130887118</v>
+        <v>130887089</v>
       </c>
       <c r="B3" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -830,26 +830,31 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -857,10 +862,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>495992</v>
+        <v>496018</v>
       </c>
       <c r="R3" t="n">
-        <v>7016301</v>
+        <v>7016278</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -897,7 +902,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>På gran intill andra hänglavar.</t>
+          <t>Ringhack, äldre, i riklig mängd längs flera meter på en granstam. Med tydliga spår av sav/kådaflöden. Granen med ringhack står intill en enklare körväg.</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -906,7 +911,6 @@
       <c r="AE3" t="b">
         <v>0</v>
       </c>
-      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
       </c>
@@ -927,12 +931,12 @@
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
@@ -950,10 +954,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>130887121</v>
+        <v>130887092</v>
       </c>
       <c r="B4" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -961,26 +965,31 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
@@ -988,10 +997,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>495911</v>
+        <v>495933</v>
       </c>
       <c r="R4" t="n">
-        <v>7016227</v>
+        <v>7016163</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1026,13 +1035,17 @@
           <t>2026-01-26</t>
         </is>
       </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>Ringhack, äldre, på en levande gran nära kant mot ungskog.</t>
+        </is>
+      </c>
       <c r="AD4" t="b">
         <v>0</v>
       </c>
       <c r="AE4" t="b">
         <v>0</v>
       </c>
-      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
@@ -1053,12 +1066,12 @@
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
@@ -1076,7 +1089,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>130887092</v>
+        <v>130887090</v>
       </c>
       <c r="B5" t="n">
         <v>57884</v>
@@ -1109,7 +1122,7 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>gammalt bo</t>
         </is>
       </c>
       <c r="N5" t="inlineStr"/>
@@ -1119,10 +1132,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>495933</v>
+        <v>495983</v>
       </c>
       <c r="R5" t="n">
-        <v>7016163</v>
+        <v>7016212</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1159,7 +1172,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på en levande gran nära kant mot ungskog.</t>
+          <t>Välsnidat bohål på ca 1,75 meters höjd i en döende gran. Bohålets diameter är 4,5 cm.</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1211,10 +1224,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>130887089</v>
+        <v>130887118</v>
       </c>
       <c r="B6" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1222,31 +1235,26 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
@@ -1254,10 +1262,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>496018</v>
+        <v>495992</v>
       </c>
       <c r="R6" t="n">
-        <v>7016278</v>
+        <v>7016301</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1294,7 +1302,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, i riklig mängd längs flera meter på en granstam. Med tydliga spår av sav/kådaflöden. Granen med ringhack står intill en enklare körväg.</t>
+          <t>På gran intill andra hänglavar.</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1303,6 +1311,7 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
+      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
@@ -1323,12 +1332,12 @@
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
@@ -1346,10 +1355,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>130887090</v>
+        <v>130887121</v>
       </c>
       <c r="B7" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1357,31 +1366,26 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>gammalt bo</t>
-        </is>
-      </c>
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
@@ -1389,10 +1393,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>495983</v>
+        <v>495911</v>
       </c>
       <c r="R7" t="n">
-        <v>7016212</v>
+        <v>7016227</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1427,17 +1431,13 @@
           <t>2026-01-26</t>
         </is>
       </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>Välsnidat bohål på ca 1,75 meters höjd i en döende gran. Bohålets diameter är 4,5 cm.</t>
-        </is>
-      </c>
       <c r="AD7" t="b">
         <v>0</v>
       </c>
       <c r="AE7" t="b">
         <v>0</v>
       </c>
+      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
       </c>
@@ -1458,12 +1458,12 @@
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr"/>
@@ -1481,42 +1481,38 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>130887094</v>
+        <v>130887108</v>
       </c>
       <c r="B8" t="n">
-        <v>57884</v>
+        <v>97879</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>100109</v>
+        <v>221945</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
@@ -1524,10 +1520,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>495901</v>
+        <v>495742</v>
       </c>
       <c r="R8" t="n">
-        <v>7016223</v>
+        <v>7016070</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1562,43 +1558,19 @@
           <t>2026-01-26</t>
         </is>
       </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>Ringhack, färska, på en levande något grövre gammal gran nära kant mot ungskog.</t>
-        </is>
-      </c>
       <c r="AD8" t="b">
         <v>0</v>
       </c>
       <c r="AE8" t="b">
         <v>0</v>
       </c>
+      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="b">
         <v>0</v>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ8" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM8" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO8" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr"/>
@@ -1616,38 +1588,42 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>130887108</v>
+        <v>130887094</v>
       </c>
       <c r="B9" t="n">
-        <v>97879</v>
+        <v>57884</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>221945</v>
+        <v>100109</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
@@ -1655,10 +1631,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>495742</v>
+        <v>495901</v>
       </c>
       <c r="R9" t="n">
-        <v>7016070</v>
+        <v>7016223</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1693,19 +1669,43 @@
           <t>2026-01-26</t>
         </is>
       </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>Ringhack, färska, på en levande något grövre gammal gran nära kant mot ungskog.</t>
+        </is>
+      </c>
       <c r="AD9" t="b">
         <v>0</v>
       </c>
       <c r="AE9" t="b">
         <v>0</v>
       </c>
-      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
       </c>
       <c r="AH9" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ9" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM9" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr"/>
@@ -1723,10 +1723,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>130887123</v>
+        <v>130887100</v>
       </c>
       <c r="B10" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1734,26 +1734,31 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
@@ -1761,10 +1766,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>495877</v>
+        <v>495805</v>
       </c>
       <c r="R10" t="n">
-        <v>7016242</v>
+        <v>7016271</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1799,13 +1804,17 @@
           <t>2026-01-26</t>
         </is>
       </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>Ringhack, äldre, på en levande gran vid kanten mot ungskog. Spår av sav/kådaflöde på granens stam.</t>
+        </is>
+      </c>
       <c r="AD10" t="b">
         <v>0</v>
       </c>
       <c r="AE10" t="b">
         <v>0</v>
       </c>
-      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
       </c>
@@ -1826,12 +1835,12 @@
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr"/>
@@ -1975,7 +1984,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>130887133</v>
+        <v>130887123</v>
       </c>
       <c r="B12" t="n">
         <v>79244</v>
@@ -2013,10 +2022,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>496017</v>
+        <v>495877</v>
       </c>
       <c r="R12" t="n">
-        <v>7016363</v>
+        <v>7016242</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -2101,10 +2110,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>130887100</v>
+        <v>130887133</v>
       </c>
       <c r="B13" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -2112,31 +2121,26 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
@@ -2144,10 +2148,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>495805</v>
+        <v>496017</v>
       </c>
       <c r="R13" t="n">
-        <v>7016271</v>
+        <v>7016363</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2182,17 +2186,13 @@
           <t>2026-01-26</t>
         </is>
       </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>Ringhack, äldre, på en levande gran vid kanten mot ungskog. Spår av sav/kådaflöde på granens stam.</t>
-        </is>
-      </c>
       <c r="AD13" t="b">
         <v>0</v>
       </c>
       <c r="AE13" t="b">
         <v>0</v>
       </c>
+      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
       </c>
@@ -2213,12 +2213,12 @@
       </c>
       <c r="AM13" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr"/>
@@ -3032,43 +3032,40 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>130887104</v>
+        <v>130887098</v>
       </c>
       <c r="B20" t="n">
-        <v>80378</v>
+        <v>57884</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6462</v>
+        <v>100109</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>dm²</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>med apothecier</t>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N20" t="inlineStr"/>
@@ -3078,10 +3075,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>495828</v>
+        <v>495849</v>
       </c>
       <c r="R20" t="n">
-        <v>7015949</v>
+        <v>7016251</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -3118,7 +3115,7 @@
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>Bålar av stuplav som täcker ca 3 dm2 sälg.</t>
+          <t>Ringhack, äldre, längs några meter på en levande gran nära kant mot ungskog.</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -3127,33 +3124,32 @@
       <c r="AE20" t="b">
         <v>0</v>
       </c>
-      <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="b">
         <v>0</v>
       </c>
       <c r="AH20" t="inlineStr">
         <is>
-          <t>Barrskog</t>
+          <t>Granskog</t>
         </is>
       </c>
       <c r="AJ20" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK20" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM20" t="inlineStr">
         <is>
-          <t>Bark på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO20" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Salix caprea</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT20" t="inlineStr"/>
@@ -3171,37 +3167,45 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>130887116</v>
+        <v>130887104</v>
       </c>
       <c r="B21" t="n">
-        <v>79244</v>
+        <v>80378</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6425</v>
+        <v>6462</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>dm²</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>med apothecier</t>
+        </is>
+      </c>
       <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
@@ -3209,10 +3213,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>495725</v>
+        <v>495828</v>
       </c>
       <c r="R21" t="n">
-        <v>7016183</v>
+        <v>7015949</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3249,7 +3253,7 @@
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>Långväxta bålar på gran.</t>
+          <t>Bålar av stuplav som täcker ca 3 dm2 sälg.</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3264,27 +3268,27 @@
       </c>
       <c r="AH21" t="inlineStr">
         <is>
-          <t>Granskog</t>
+          <t>Barrskog</t>
         </is>
       </c>
       <c r="AJ21" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK21" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AM21" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO21" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Bark on living woody plant # Salix caprea</t>
         </is>
       </c>
       <c r="AT21" t="inlineStr"/>
@@ -3302,37 +3306,41 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>130887119</v>
+        <v>130887106</v>
       </c>
       <c r="B22" t="n">
-        <v>79244</v>
+        <v>80378</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6425</v>
+        <v>6462</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>med apothecier</t>
+        </is>
+      </c>
       <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
@@ -3340,10 +3348,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>495992</v>
+        <v>495981</v>
       </c>
       <c r="R22" t="n">
-        <v>7016329</v>
+        <v>7016252</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3380,7 +3388,7 @@
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>Långväxta bålar på flera granar. Längsta bålen ca 80 cm.</t>
+          <t>Enstaka bålar på en sälg.</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3400,22 +3408,22 @@
       </c>
       <c r="AJ22" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK22" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AM22" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO22" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Bark on living woody plant # Salix caprea</t>
         </is>
       </c>
       <c r="AT22" t="inlineStr"/>
@@ -3433,41 +3441,37 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>130887106</v>
+        <v>130887119</v>
       </c>
       <c r="B23" t="n">
-        <v>80378</v>
+        <v>79244</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6462</v>
+        <v>6425</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>med apothecier</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
@@ -3475,10 +3479,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>495981</v>
+        <v>495992</v>
       </c>
       <c r="R23" t="n">
-        <v>7016252</v>
+        <v>7016329</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3515,7 +3519,7 @@
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>Enstaka bålar på en sälg.</t>
+          <t>Långväxta bålar på flera granar. Längsta bålen ca 80 cm.</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3535,22 +3539,22 @@
       </c>
       <c r="AJ23" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK23" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM23" t="inlineStr">
         <is>
-          <t>Bark på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO23" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Salix caprea</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT23" t="inlineStr"/>
@@ -3568,10 +3572,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>130887098</v>
+        <v>130887116</v>
       </c>
       <c r="B24" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3579,31 +3583,26 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
@@ -3611,10 +3610,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>495849</v>
+        <v>495725</v>
       </c>
       <c r="R24" t="n">
-        <v>7016251</v>
+        <v>7016183</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3651,7 +3650,7 @@
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, längs några meter på en levande gran nära kant mot ungskog.</t>
+          <t>Långväxta bålar på gran.</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3660,6 +3659,7 @@
       <c r="AE24" t="b">
         <v>0</v>
       </c>
+      <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="b">
         <v>0</v>
       </c>
@@ -3680,12 +3680,12 @@
       </c>
       <c r="AM24" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO24" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT24" t="inlineStr"/>
@@ -4498,7 +4498,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>130887127</v>
+        <v>130887132</v>
       </c>
       <c r="B31" t="n">
         <v>79244</v>
@@ -4536,10 +4536,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>495831</v>
+        <v>496008</v>
       </c>
       <c r="R31" t="n">
-        <v>7016258</v>
+        <v>7016340</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4576,7 +4576,7 @@
       </c>
       <c r="AC31" t="inlineStr">
         <is>
-          <t>På en gren av gran på ca 2 m höjd.</t>
+          <t>Långväxta bålar på gran. Ca 50 cm lång hängande bål.</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4629,7 +4629,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>130887132</v>
+        <v>130887127</v>
       </c>
       <c r="B32" t="n">
         <v>79244</v>
@@ -4667,10 +4667,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>496008</v>
+        <v>495831</v>
       </c>
       <c r="R32" t="n">
-        <v>7016340</v>
+        <v>7016258</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4707,7 +4707,7 @@
       </c>
       <c r="AC32" t="inlineStr">
         <is>
-          <t>Långväxta bålar på gran. Ca 50 cm lång hängande bål.</t>
+          <t>På en gren av gran på ca 2 m höjd.</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4895,10 +4895,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>130887082</v>
+        <v>130887113</v>
       </c>
       <c r="B34" t="n">
-        <v>91809</v>
+        <v>79244</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4906,30 +4906,26 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="N34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
@@ -4937,10 +4933,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>495948</v>
+        <v>495718</v>
       </c>
       <c r="R34" t="n">
-        <v>7016328</v>
+        <v>7015966</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4975,11 +4971,6 @@
           <t>2026-01-26</t>
         </is>
       </c>
-      <c r="AC34" t="inlineStr">
-        <is>
-          <t>Rikligt med fruktkroppar i en upplyft granlåga.</t>
-        </is>
-      </c>
       <c r="AD34" t="b">
         <v>0</v>
       </c>
@@ -4992,7 +4983,7 @@
       </c>
       <c r="AH34" t="inlineStr">
         <is>
-          <t>Granskog</t>
+          <t>Barrskog</t>
         </is>
       </c>
       <c r="AJ34" t="inlineStr">
@@ -5007,12 +4998,12 @@
       </c>
       <c r="AM34" t="inlineStr">
         <is>
-          <t>Liggande död trädstam, utan markontakt</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO34" t="inlineStr">
         <is>
-          <t>Horizontal, dead without ground contact # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT34" t="inlineStr"/>
@@ -5030,10 +5021,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>130887113</v>
+        <v>130887082</v>
       </c>
       <c r="B35" t="n">
-        <v>79244</v>
+        <v>91809</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -5041,26 +5032,30 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
       <c r="N35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
@@ -5068,10 +5063,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>495718</v>
+        <v>495948</v>
       </c>
       <c r="R35" t="n">
-        <v>7015966</v>
+        <v>7016328</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -5106,6 +5101,11 @@
           <t>2026-01-26</t>
         </is>
       </c>
+      <c r="AC35" t="inlineStr">
+        <is>
+          <t>Rikligt med fruktkroppar i en upplyft granlåga.</t>
+        </is>
+      </c>
       <c r="AD35" t="b">
         <v>0</v>
       </c>
@@ -5118,7 +5118,7 @@
       </c>
       <c r="AH35" t="inlineStr">
         <is>
-          <t>Barrskog</t>
+          <t>Granskog</t>
         </is>
       </c>
       <c r="AJ35" t="inlineStr">
@@ -5133,12 +5133,12 @@
       </c>
       <c r="AM35" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Liggande död trädstam, utan markontakt</t>
         </is>
       </c>
       <c r="AO35" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Horizontal, dead without ground contact # Picea abies</t>
         </is>
       </c>
       <c r="AT35" t="inlineStr"/>
@@ -5287,57 +5287,49 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>130887084</v>
+        <v>130887109</v>
       </c>
       <c r="B37" t="n">
-        <v>57884</v>
+        <v>97879</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>100109</v>
+        <v>221945</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+      <c r="N37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
           <t>Palleråsen Södra, Jmt</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>495868</v>
+        <v>496004</v>
       </c>
       <c r="R37" t="n">
-        <v>7015959</v>
+        <v>7016371</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -5372,43 +5364,19 @@
           <t>2026-01-26</t>
         </is>
       </c>
-      <c r="AC37" t="inlineStr">
-        <is>
-          <t>Ringhack, färska, enstaka några meter upp på en granstam vid en glänta.</t>
-        </is>
-      </c>
       <c r="AD37" t="b">
         <v>0</v>
       </c>
       <c r="AE37" t="b">
         <v>0</v>
       </c>
+      <c r="AF37" t="inlineStr"/>
       <c r="AG37" t="b">
         <v>0</v>
       </c>
       <c r="AH37" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ37" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK37" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM37" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO37" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT37" t="inlineStr"/>
@@ -5426,7 +5394,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>130887099</v>
+        <v>130887084</v>
       </c>
       <c r="B38" t="n">
         <v>57884</v>
@@ -5459,20 +5427,24 @@
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr">
         <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N38" t="inlineStr"/>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P38" t="inlineStr">
         <is>
           <t>Palleråsen Södra, Jmt</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>495812</v>
+        <v>495868</v>
       </c>
       <c r="R38" t="n">
-        <v>7016273</v>
+        <v>7015959</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -5509,7 +5481,7 @@
       </c>
       <c r="AC38" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på en levande gran nära kant mot ungskog.</t>
+          <t>Ringhack, färska, enstaka några meter upp på en granstam vid en glänta.</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -5561,38 +5533,42 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>130887109</v>
+        <v>130887099</v>
       </c>
       <c r="B39" t="n">
-        <v>97879</v>
+        <v>57884</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>221945</v>
+        <v>100109</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
@@ -5600,10 +5576,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>496004</v>
+        <v>495812</v>
       </c>
       <c r="R39" t="n">
-        <v>7016371</v>
+        <v>7016273</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -5638,19 +5614,43 @@
           <t>2026-01-26</t>
         </is>
       </c>
+      <c r="AC39" t="inlineStr">
+        <is>
+          <t>Ringhack, äldre, på en levande gran nära kant mot ungskog.</t>
+        </is>
+      </c>
       <c r="AD39" t="b">
         <v>0</v>
       </c>
       <c r="AE39" t="b">
         <v>0</v>
       </c>
-      <c r="AF39" t="inlineStr"/>
       <c r="AG39" t="b">
         <v>0</v>
       </c>
       <c r="AH39" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ39" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK39" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM39" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO39" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT39" t="inlineStr"/>
@@ -6181,10 +6181,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>130887081</v>
+        <v>130887124</v>
       </c>
       <c r="B44" t="n">
-        <v>91809</v>
+        <v>79244</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -6192,30 +6192,26 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="N44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
@@ -6223,10 +6219,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>495919</v>
+        <v>495877</v>
       </c>
       <c r="R44" t="n">
-        <v>7016205</v>
+        <v>7016270</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -6263,7 +6259,7 @@
       </c>
       <c r="AC44" t="inlineStr">
         <is>
-          <t>I upplyft granlåga.</t>
+          <t>Långväxta bålar på gran.</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -6293,12 +6289,12 @@
       </c>
       <c r="AM44" t="inlineStr">
         <is>
-          <t>Liggande död trädstam, utan markontakt</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO44" t="inlineStr">
         <is>
-          <t>Horizontal, dead without ground contact # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT44" t="inlineStr"/>
@@ -6316,10 +6312,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>130887087</v>
+        <v>130887129</v>
       </c>
       <c r="B45" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -6327,31 +6323,26 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
@@ -6359,10 +6350,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>495680</v>
+        <v>495878</v>
       </c>
       <c r="R45" t="n">
-        <v>7016064</v>
+        <v>7016320</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -6397,17 +6388,13 @@
           <t>2026-01-26</t>
         </is>
       </c>
-      <c r="AC45" t="inlineStr">
-        <is>
-          <t>Ringhack, färska, på en högväxt gran intill en mindre väg.</t>
-        </is>
-      </c>
       <c r="AD45" t="b">
         <v>0</v>
       </c>
       <c r="AE45" t="b">
         <v>0</v>
       </c>
+      <c r="AF45" t="inlineStr"/>
       <c r="AG45" t="b">
         <v>0</v>
       </c>
@@ -6428,12 +6415,12 @@
       </c>
       <c r="AM45" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO45" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT45" t="inlineStr"/>
@@ -6451,7 +6438,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>130887097</v>
+        <v>130887087</v>
       </c>
       <c r="B46" t="n">
         <v>57884</v>
@@ -6484,7 +6471,7 @@
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N46" t="inlineStr"/>
@@ -6494,10 +6481,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>495856</v>
+        <v>495680</v>
       </c>
       <c r="R46" t="n">
-        <v>7016255</v>
+        <v>7016064</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -6534,7 +6521,7 @@
       </c>
       <c r="AC46" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, längs flera meter långt upp på en levande gran nära kant mot ungskog. Tydliga spår av sav/kådaflöde på granens stam.</t>
+          <t>Ringhack, färska, på en högväxt gran intill en mindre väg.</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -6586,10 +6573,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>130887091</v>
+        <v>130887081</v>
       </c>
       <c r="B47" t="n">
-        <v>57884</v>
+        <v>91809</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -6597,29 +6584,28 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>färska spår</t>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
         </is>
       </c>
       <c r="N47" t="inlineStr"/>
@@ -6629,10 +6615,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>495967</v>
+        <v>495919</v>
       </c>
       <c r="R47" t="n">
-        <v>7016170</v>
+        <v>7016205</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -6669,7 +6655,7 @@
       </c>
       <c r="AC47" t="inlineStr">
         <is>
-          <t>Ringhack, färska, på en levande gran vid en hyggeskant.</t>
+          <t>I upplyft granlåga.</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -6678,6 +6664,7 @@
       <c r="AE47" t="b">
         <v>0</v>
       </c>
+      <c r="AF47" t="inlineStr"/>
       <c r="AG47" t="b">
         <v>0</v>
       </c>
@@ -6698,12 +6685,12 @@
       </c>
       <c r="AM47" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Liggande död trädstam, utan markontakt</t>
         </is>
       </c>
       <c r="AO47" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Horizontal, dead without ground contact # Picea abies</t>
         </is>
       </c>
       <c r="AT47" t="inlineStr"/>
@@ -6721,10 +6708,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>130887129</v>
+        <v>130887097</v>
       </c>
       <c r="B48" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -6732,26 +6719,31 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
@@ -6759,10 +6751,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>495878</v>
+        <v>495856</v>
       </c>
       <c r="R48" t="n">
-        <v>7016320</v>
+        <v>7016255</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -6797,13 +6789,17 @@
           <t>2026-01-26</t>
         </is>
       </c>
+      <c r="AC48" t="inlineStr">
+        <is>
+          <t>Ringhack, äldre, längs flera meter långt upp på en levande gran nära kant mot ungskog. Tydliga spår av sav/kådaflöde på granens stam.</t>
+        </is>
+      </c>
       <c r="AD48" t="b">
         <v>0</v>
       </c>
       <c r="AE48" t="b">
         <v>0</v>
       </c>
-      <c r="AF48" t="inlineStr"/>
       <c r="AG48" t="b">
         <v>0</v>
       </c>
@@ -6824,12 +6820,12 @@
       </c>
       <c r="AM48" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO48" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT48" t="inlineStr"/>
@@ -6847,10 +6843,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>130887124</v>
+        <v>130887091</v>
       </c>
       <c r="B49" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -6858,26 +6854,31 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
@@ -6885,10 +6886,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>495877</v>
+        <v>495967</v>
       </c>
       <c r="R49" t="n">
-        <v>7016270</v>
+        <v>7016170</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -6925,7 +6926,7 @@
       </c>
       <c r="AC49" t="inlineStr">
         <is>
-          <t>Långväxta bålar på gran.</t>
+          <t>Ringhack, färska, på en levande gran vid en hyggeskant.</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -6934,7 +6935,6 @@
       <c r="AE49" t="b">
         <v>0</v>
       </c>
-      <c r="AF49" t="inlineStr"/>
       <c r="AG49" t="b">
         <v>0</v>
       </c>
@@ -6955,12 +6955,12 @@
       </c>
       <c r="AM49" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO49" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT49" t="inlineStr"/>

--- a/artfynd/A 62696-2025 artfynd.xlsx
+++ b/artfynd/A 62696-2025 artfynd.xlsx
@@ -819,10 +819,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>130887089</v>
+        <v>130887118</v>
       </c>
       <c r="B3" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -830,31 +830,26 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -862,10 +857,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>496018</v>
+        <v>495992</v>
       </c>
       <c r="R3" t="n">
-        <v>7016278</v>
+        <v>7016301</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -902,7 +897,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, i riklig mängd längs flera meter på en granstam. Med tydliga spår av sav/kådaflöden. Granen med ringhack står intill en enklare körväg.</t>
+          <t>På gran intill andra hänglavar.</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -911,6 +906,7 @@
       <c r="AE3" t="b">
         <v>0</v>
       </c>
+      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
       </c>
@@ -931,12 +927,12 @@
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
@@ -954,10 +950,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>130887092</v>
+        <v>130887121</v>
       </c>
       <c r="B4" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -965,31 +961,26 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
@@ -997,10 +988,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>495933</v>
+        <v>495911</v>
       </c>
       <c r="R4" t="n">
-        <v>7016163</v>
+        <v>7016227</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1035,17 +1026,13 @@
           <t>2026-01-26</t>
         </is>
       </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>Ringhack, äldre, på en levande gran nära kant mot ungskog.</t>
-        </is>
-      </c>
       <c r="AD4" t="b">
         <v>0</v>
       </c>
       <c r="AE4" t="b">
         <v>0</v>
       </c>
+      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
@@ -1066,12 +1053,12 @@
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
@@ -1089,7 +1076,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>130887090</v>
+        <v>130887089</v>
       </c>
       <c r="B5" t="n">
         <v>57884</v>
@@ -1122,7 +1109,7 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>gammalt bo</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N5" t="inlineStr"/>
@@ -1132,10 +1119,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>495983</v>
+        <v>496018</v>
       </c>
       <c r="R5" t="n">
-        <v>7016212</v>
+        <v>7016278</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1172,7 +1159,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>Välsnidat bohål på ca 1,75 meters höjd i en döende gran. Bohålets diameter är 4,5 cm.</t>
+          <t>Ringhack, äldre, i riklig mängd längs flera meter på en granstam. Med tydliga spår av sav/kådaflöden. Granen med ringhack står intill en enklare körväg.</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1224,10 +1211,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>130887118</v>
+        <v>130887092</v>
       </c>
       <c r="B6" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1235,26 +1222,31 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
@@ -1262,10 +1254,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>495992</v>
+        <v>495933</v>
       </c>
       <c r="R6" t="n">
-        <v>7016301</v>
+        <v>7016163</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1302,7 +1294,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>På gran intill andra hänglavar.</t>
+          <t>Ringhack, äldre, på en levande gran nära kant mot ungskog.</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1311,7 +1303,6 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
-      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
@@ -1332,12 +1323,12 @@
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
@@ -1355,10 +1346,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>130887121</v>
+        <v>130887090</v>
       </c>
       <c r="B7" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1366,26 +1357,31 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>gammalt bo</t>
+        </is>
+      </c>
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
@@ -1393,10 +1389,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>495911</v>
+        <v>495983</v>
       </c>
       <c r="R7" t="n">
-        <v>7016227</v>
+        <v>7016212</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1431,13 +1427,17 @@
           <t>2026-01-26</t>
         </is>
       </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>Välsnidat bohål på ca 1,75 meters höjd i en döende gran. Bohålets diameter är 4,5 cm.</t>
+        </is>
+      </c>
       <c r="AD7" t="b">
         <v>0</v>
       </c>
       <c r="AE7" t="b">
         <v>0</v>
       </c>
-      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
       </c>
@@ -1458,12 +1458,12 @@
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr"/>
@@ -1481,38 +1481,42 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>130887108</v>
+        <v>130887094</v>
       </c>
       <c r="B8" t="n">
-        <v>97879</v>
+        <v>57884</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>221945</v>
+        <v>100109</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
@@ -1520,10 +1524,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>495742</v>
+        <v>495901</v>
       </c>
       <c r="R8" t="n">
-        <v>7016070</v>
+        <v>7016223</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1558,19 +1562,43 @@
           <t>2026-01-26</t>
         </is>
       </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>Ringhack, färska, på en levande något grövre gammal gran nära kant mot ungskog.</t>
+        </is>
+      </c>
       <c r="AD8" t="b">
         <v>0</v>
       </c>
       <c r="AE8" t="b">
         <v>0</v>
       </c>
-      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="b">
         <v>0</v>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM8" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr"/>
@@ -1588,42 +1616,38 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>130887094</v>
+        <v>130887108</v>
       </c>
       <c r="B9" t="n">
-        <v>57884</v>
+        <v>97879</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>100109</v>
+        <v>221945</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
@@ -1631,10 +1655,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>495901</v>
+        <v>495742</v>
       </c>
       <c r="R9" t="n">
-        <v>7016223</v>
+        <v>7016070</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1669,43 +1693,19 @@
           <t>2026-01-26</t>
         </is>
       </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>Ringhack, färska, på en levande något grövre gammal gran nära kant mot ungskog.</t>
-        </is>
-      </c>
       <c r="AD9" t="b">
         <v>0</v>
       </c>
       <c r="AE9" t="b">
         <v>0</v>
       </c>
+      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
       </c>
       <c r="AH9" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ9" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK9" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM9" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO9" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr"/>
@@ -1858,10 +1858,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>130887126</v>
+        <v>130887088</v>
       </c>
       <c r="B11" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1869,37 +1869,46 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P11" t="inlineStr">
         <is>
           <t>Palleråsen Södra, Jmt</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>495942</v>
+        <v>495679</v>
       </c>
       <c r="R11" t="n">
-        <v>7016269</v>
+        <v>7016071</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1934,13 +1943,17 @@
           <t>2026-01-26</t>
         </is>
       </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>Ringhack, färska, på en gran intill en mindre väg.</t>
+        </is>
+      </c>
       <c r="AD11" t="b">
         <v>0</v>
       </c>
       <c r="AE11" t="b">
         <v>0</v>
       </c>
-      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
       </c>
@@ -1961,12 +1974,12 @@
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr"/>
@@ -1984,10 +1997,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>130887123</v>
+        <v>130887102</v>
       </c>
       <c r="B12" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1995,26 +2008,31 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>gammalt bo</t>
+        </is>
+      </c>
       <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
@@ -2022,10 +2040,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>495877</v>
+        <v>495951</v>
       </c>
       <c r="R12" t="n">
-        <v>7016242</v>
+        <v>7016339</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -2060,13 +2078,17 @@
           <t>2026-01-26</t>
         </is>
       </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>Gammalt bohål på 2 meters höjd i en stående död gran. Bohålet är 5 cm i diameter längst ut och ca 4 cm i diameter en bit in i ingångshålet. Ev. skapat av tretåig hackspett. Stående död ved som indikerar högt livsmiljövärde för tretåig hackspett finns på/kring fyndplatsen.</t>
+        </is>
+      </c>
       <c r="AD12" t="b">
         <v>0</v>
       </c>
       <c r="AE12" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF12" t="inlineStr"/>
+        <v>1</v>
+      </c>
       <c r="AG12" t="b">
         <v>0</v>
       </c>
@@ -2087,12 +2109,12 @@
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr"/>
@@ -2110,7 +2132,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>130887133</v>
+        <v>130887126</v>
       </c>
       <c r="B13" t="n">
         <v>79244</v>
@@ -2148,10 +2170,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>496017</v>
+        <v>495942</v>
       </c>
       <c r="R13" t="n">
-        <v>7016363</v>
+        <v>7016269</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2236,10 +2258,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>130887088</v>
+        <v>130887123</v>
       </c>
       <c r="B14" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2247,46 +2269,37 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+      <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
           <t>Palleråsen Södra, Jmt</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>495679</v>
+        <v>495877</v>
       </c>
       <c r="R14" t="n">
-        <v>7016071</v>
+        <v>7016242</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2321,17 +2334,13 @@
           <t>2026-01-26</t>
         </is>
       </c>
-      <c r="AC14" t="inlineStr">
-        <is>
-          <t>Ringhack, färska, på en gran intill en mindre väg.</t>
-        </is>
-      </c>
       <c r="AD14" t="b">
         <v>0</v>
       </c>
       <c r="AE14" t="b">
         <v>0</v>
       </c>
+      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
       </c>
@@ -2352,12 +2361,12 @@
       </c>
       <c r="AM14" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr"/>
@@ -2375,10 +2384,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>130887102</v>
+        <v>130887133</v>
       </c>
       <c r="B15" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2386,31 +2395,26 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>gammalt bo</t>
-        </is>
-      </c>
       <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
@@ -2418,10 +2422,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>495951</v>
+        <v>496017</v>
       </c>
       <c r="R15" t="n">
-        <v>7016339</v>
+        <v>7016363</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2456,17 +2460,13 @@
           <t>2026-01-26</t>
         </is>
       </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>Gammalt bohål på 2 meters höjd i en stående död gran. Bohålet är 5 cm i diameter längst ut och ca 4 cm i diameter en bit in i ingångshålet. Ev. skapat av tretåig hackspett. Stående död ved som indikerar högt livsmiljövärde för tretåig hackspett finns på/kring fyndplatsen.</t>
-        </is>
-      </c>
       <c r="AD15" t="b">
         <v>0</v>
       </c>
       <c r="AE15" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
       </c>
@@ -2487,12 +2487,12 @@
       </c>
       <c r="AM15" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr"/>
@@ -2771,10 +2771,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>130887122</v>
+        <v>130887085</v>
       </c>
       <c r="B18" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2782,26 +2782,31 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
@@ -2809,10 +2814,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>495898</v>
+        <v>495713</v>
       </c>
       <c r="R18" t="n">
-        <v>7016234</v>
+        <v>7015939</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2847,13 +2852,17 @@
           <t>2026-01-26</t>
         </is>
       </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>Ringhack, äldre, längs flera meter på en gran med spår efter påtagligt sav/kådaflöde.</t>
+        </is>
+      </c>
       <c r="AD18" t="b">
         <v>0</v>
       </c>
       <c r="AE18" t="b">
         <v>0</v>
       </c>
-      <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="b">
         <v>0</v>
       </c>
@@ -2874,12 +2883,12 @@
       </c>
       <c r="AM18" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT18" t="inlineStr"/>
@@ -2897,10 +2906,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>130887085</v>
+        <v>130887122</v>
       </c>
       <c r="B19" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2908,31 +2917,26 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
@@ -2940,10 +2944,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>495713</v>
+        <v>495898</v>
       </c>
       <c r="R19" t="n">
-        <v>7015939</v>
+        <v>7016234</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2978,17 +2982,13 @@
           <t>2026-01-26</t>
         </is>
       </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>Ringhack, äldre, längs flera meter på en gran med spår efter påtagligt sav/kådaflöde.</t>
-        </is>
-      </c>
       <c r="AD19" t="b">
         <v>0</v>
       </c>
       <c r="AE19" t="b">
         <v>0</v>
       </c>
+      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
       </c>
@@ -3009,12 +3009,12 @@
       </c>
       <c r="AM19" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO19" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT19" t="inlineStr"/>
@@ -4228,10 +4228,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>130887096</v>
+        <v>130887132</v>
       </c>
       <c r="B29" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -4239,31 +4239,26 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
@@ -4271,10 +4266,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>495870</v>
+        <v>496008</v>
       </c>
       <c r="R29" t="n">
-        <v>7016247</v>
+        <v>7016340</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -4311,7 +4306,7 @@
       </c>
       <c r="AC29" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på en levande gran nära kant mot ungskog.</t>
+          <t>Långväxta bålar på gran. Ca 50 cm lång hängande bål.</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -4320,6 +4315,7 @@
       <c r="AE29" t="b">
         <v>0</v>
       </c>
+      <c r="AF29" t="inlineStr"/>
       <c r="AG29" t="b">
         <v>0</v>
       </c>
@@ -4340,12 +4336,12 @@
       </c>
       <c r="AM29" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO29" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT29" t="inlineStr"/>
@@ -4363,7 +4359,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>130887086</v>
+        <v>130887096</v>
       </c>
       <c r="B30" t="n">
         <v>57884</v>
@@ -4396,7 +4392,7 @@
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N30" t="inlineStr"/>
@@ -4406,10 +4402,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>495683</v>
+        <v>495870</v>
       </c>
       <c r="R30" t="n">
-        <v>7016064</v>
+        <v>7016247</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4446,7 +4442,7 @@
       </c>
       <c r="AC30" t="inlineStr">
         <is>
-          <t>Ringhack, färska, på en gran nära en mindre väg.</t>
+          <t>Ringhack, äldre, på en levande gran nära kant mot ungskog.</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4498,7 +4494,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>130887132</v>
+        <v>130887127</v>
       </c>
       <c r="B31" t="n">
         <v>79244</v>
@@ -4536,10 +4532,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>496008</v>
+        <v>495831</v>
       </c>
       <c r="R31" t="n">
-        <v>7016340</v>
+        <v>7016258</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4576,7 +4572,7 @@
       </c>
       <c r="AC31" t="inlineStr">
         <is>
-          <t>Långväxta bålar på gran. Ca 50 cm lång hängande bål.</t>
+          <t>På en gren av gran på ca 2 m höjd.</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4629,10 +4625,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>130887127</v>
+        <v>130887086</v>
       </c>
       <c r="B32" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -4640,26 +4636,31 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
@@ -4667,10 +4668,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>495831</v>
+        <v>495683</v>
       </c>
       <c r="R32" t="n">
-        <v>7016258</v>
+        <v>7016064</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4707,7 +4708,7 @@
       </c>
       <c r="AC32" t="inlineStr">
         <is>
-          <t>På en gren av gran på ca 2 m höjd.</t>
+          <t>Ringhack, färska, på en gran nära en mindre väg.</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4716,7 +4717,6 @@
       <c r="AE32" t="b">
         <v>0</v>
       </c>
-      <c r="AF32" t="inlineStr"/>
       <c r="AG32" t="b">
         <v>0</v>
       </c>
@@ -4737,12 +4737,12 @@
       </c>
       <c r="AM32" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO32" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT32" t="inlineStr"/>
@@ -5021,10 +5021,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>130887082</v>
+        <v>130887117</v>
       </c>
       <c r="B35" t="n">
-        <v>91809</v>
+        <v>79244</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -5032,30 +5032,26 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="N35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
@@ -5063,10 +5059,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>495948</v>
+        <v>495769</v>
       </c>
       <c r="R35" t="n">
-        <v>7016328</v>
+        <v>7016151</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -5103,7 +5099,7 @@
       </c>
       <c r="AC35" t="inlineStr">
         <is>
-          <t>Rikligt med fruktkroppar i en upplyft granlåga.</t>
+          <t>Växer på en hyfsat grovbarkig gammal gran.</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -5133,12 +5129,12 @@
       </c>
       <c r="AM35" t="inlineStr">
         <is>
-          <t>Liggande död trädstam, utan markontakt</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO35" t="inlineStr">
         <is>
-          <t>Horizontal, dead without ground contact # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT35" t="inlineStr"/>
@@ -5156,10 +5152,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>130887117</v>
+        <v>130887082</v>
       </c>
       <c r="B36" t="n">
-        <v>79244</v>
+        <v>91809</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -5167,26 +5163,30 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
       <c r="N36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
@@ -5194,10 +5194,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>495769</v>
+        <v>495948</v>
       </c>
       <c r="R36" t="n">
-        <v>7016151</v>
+        <v>7016328</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -5234,7 +5234,7 @@
       </c>
       <c r="AC36" t="inlineStr">
         <is>
-          <t>Växer på en hyfsat grovbarkig gammal gran.</t>
+          <t>Rikligt med fruktkroppar i en upplyft granlåga.</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -5264,12 +5264,12 @@
       </c>
       <c r="AM36" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Liggande död trädstam, utan markontakt</t>
         </is>
       </c>
       <c r="AO36" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Horizontal, dead without ground contact # Picea abies</t>
         </is>
       </c>
       <c r="AT36" t="inlineStr"/>
@@ -5287,38 +5287,42 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>130887109</v>
+        <v>130887099</v>
       </c>
       <c r="B37" t="n">
-        <v>97879</v>
+        <v>57884</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>221945</v>
+        <v>100109</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
@@ -5326,10 +5330,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>496004</v>
+        <v>495812</v>
       </c>
       <c r="R37" t="n">
-        <v>7016371</v>
+        <v>7016273</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -5364,19 +5368,43 @@
           <t>2026-01-26</t>
         </is>
       </c>
+      <c r="AC37" t="inlineStr">
+        <is>
+          <t>Ringhack, äldre, på en levande gran nära kant mot ungskog.</t>
+        </is>
+      </c>
       <c r="AD37" t="b">
         <v>0</v>
       </c>
       <c r="AE37" t="b">
         <v>0</v>
       </c>
-      <c r="AF37" t="inlineStr"/>
       <c r="AG37" t="b">
         <v>0</v>
       </c>
       <c r="AH37" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ37" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK37" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM37" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO37" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT37" t="inlineStr"/>
@@ -5533,42 +5561,38 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>130887099</v>
+        <v>130887109</v>
       </c>
       <c r="B39" t="n">
-        <v>57884</v>
+        <v>97879</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>100109</v>
+        <v>221945</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
@@ -5576,10 +5600,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>495812</v>
+        <v>496004</v>
       </c>
       <c r="R39" t="n">
-        <v>7016273</v>
+        <v>7016371</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -5614,43 +5638,19 @@
           <t>2026-01-26</t>
         </is>
       </c>
-      <c r="AC39" t="inlineStr">
-        <is>
-          <t>Ringhack, äldre, på en levande gran nära kant mot ungskog.</t>
-        </is>
-      </c>
       <c r="AD39" t="b">
         <v>0</v>
       </c>
       <c r="AE39" t="b">
         <v>0</v>
       </c>
+      <c r="AF39" t="inlineStr"/>
       <c r="AG39" t="b">
         <v>0</v>
       </c>
       <c r="AH39" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ39" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK39" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM39" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO39" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT39" t="inlineStr"/>
@@ -5925,37 +5925,41 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>130887114</v>
+        <v>130887105</v>
       </c>
       <c r="B42" t="n">
-        <v>79244</v>
+        <v>80378</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>6425</v>
+        <v>6462</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>med apothecier</t>
+        </is>
+      </c>
       <c r="N42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
@@ -5963,10 +5967,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>495689</v>
+        <v>495736</v>
       </c>
       <c r="R42" t="n">
-        <v>7015994</v>
+        <v>7016168</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -6018,22 +6022,22 @@
       </c>
       <c r="AJ42" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK42" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AM42" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO42" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Bark on living woody plant # Salix caprea</t>
         </is>
       </c>
       <c r="AT42" t="inlineStr"/>
@@ -6051,41 +6055,37 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>130887105</v>
+        <v>130887114</v>
       </c>
       <c r="B43" t="n">
-        <v>80378</v>
+        <v>79244</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>6462</v>
+        <v>6425</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>med apothecier</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="N43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
@@ -6093,10 +6093,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>495736</v>
+        <v>495689</v>
       </c>
       <c r="R43" t="n">
-        <v>7016168</v>
+        <v>7015994</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -6148,22 +6148,22 @@
       </c>
       <c r="AJ43" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK43" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM43" t="inlineStr">
         <is>
-          <t>Bark på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO43" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Salix caprea</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT43" t="inlineStr"/>
@@ -6181,7 +6181,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>130887124</v>
+        <v>130887129</v>
       </c>
       <c r="B44" t="n">
         <v>79244</v>
@@ -6219,10 +6219,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>495877</v>
+        <v>495878</v>
       </c>
       <c r="R44" t="n">
-        <v>7016270</v>
+        <v>7016320</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -6255,11 +6255,6 @@
       <c r="AA44" t="inlineStr">
         <is>
           <t>2026-01-26</t>
-        </is>
-      </c>
-      <c r="AC44" t="inlineStr">
-        <is>
-          <t>Långväxta bålar på gran.</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -6312,10 +6307,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>130887129</v>
+        <v>130887097</v>
       </c>
       <c r="B45" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -6323,26 +6318,31 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
@@ -6350,10 +6350,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>495878</v>
+        <v>495856</v>
       </c>
       <c r="R45" t="n">
-        <v>7016320</v>
+        <v>7016255</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -6388,13 +6388,17 @@
           <t>2026-01-26</t>
         </is>
       </c>
+      <c r="AC45" t="inlineStr">
+        <is>
+          <t>Ringhack, äldre, längs flera meter långt upp på en levande gran nära kant mot ungskog. Tydliga spår av sav/kådaflöde på granens stam.</t>
+        </is>
+      </c>
       <c r="AD45" t="b">
         <v>0</v>
       </c>
       <c r="AE45" t="b">
         <v>0</v>
       </c>
-      <c r="AF45" t="inlineStr"/>
       <c r="AG45" t="b">
         <v>0</v>
       </c>
@@ -6415,12 +6419,12 @@
       </c>
       <c r="AM45" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO45" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT45" t="inlineStr"/>
@@ -6438,7 +6442,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>130887087</v>
+        <v>130887091</v>
       </c>
       <c r="B46" t="n">
         <v>57884</v>
@@ -6481,10 +6485,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>495680</v>
+        <v>495967</v>
       </c>
       <c r="R46" t="n">
-        <v>7016064</v>
+        <v>7016170</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -6521,7 +6525,7 @@
       </c>
       <c r="AC46" t="inlineStr">
         <is>
-          <t>Ringhack, färska, på en högväxt gran intill en mindre väg.</t>
+          <t>Ringhack, färska, på en levande gran vid en hyggeskant.</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -6708,7 +6712,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>130887097</v>
+        <v>130887087</v>
       </c>
       <c r="B48" t="n">
         <v>57884</v>
@@ -6741,7 +6745,7 @@
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N48" t="inlineStr"/>
@@ -6751,10 +6755,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>495856</v>
+        <v>495680</v>
       </c>
       <c r="R48" t="n">
-        <v>7016255</v>
+        <v>7016064</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -6791,7 +6795,7 @@
       </c>
       <c r="AC48" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, längs flera meter långt upp på en levande gran nära kant mot ungskog. Tydliga spår av sav/kådaflöde på granens stam.</t>
+          <t>Ringhack, färska, på en högväxt gran intill en mindre väg.</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -6843,10 +6847,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>130887091</v>
+        <v>130887124</v>
       </c>
       <c r="B49" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -6854,31 +6858,26 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
@@ -6886,10 +6885,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>495967</v>
+        <v>495877</v>
       </c>
       <c r="R49" t="n">
-        <v>7016170</v>
+        <v>7016270</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -6926,7 +6925,7 @@
       </c>
       <c r="AC49" t="inlineStr">
         <is>
-          <t>Ringhack, färska, på en levande gran vid en hyggeskant.</t>
+          <t>Långväxta bålar på gran.</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -6935,6 +6934,7 @@
       <c r="AE49" t="b">
         <v>0</v>
       </c>
+      <c r="AF49" t="inlineStr"/>
       <c r="AG49" t="b">
         <v>0</v>
       </c>
@@ -6955,12 +6955,12 @@
       </c>
       <c r="AM49" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO49" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT49" t="inlineStr"/>

--- a/artfynd/A 62696-2025 artfynd.xlsx
+++ b/artfynd/A 62696-2025 artfynd.xlsx
@@ -819,10 +819,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>130887118</v>
+        <v>130887092</v>
       </c>
       <c r="B3" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -830,26 +830,31 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -857,10 +862,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>495992</v>
+        <v>495933</v>
       </c>
       <c r="R3" t="n">
-        <v>7016301</v>
+        <v>7016163</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -897,7 +902,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>På gran intill andra hänglavar.</t>
+          <t>Ringhack, äldre, på en levande gran nära kant mot ungskog.</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -906,7 +911,6 @@
       <c r="AE3" t="b">
         <v>0</v>
       </c>
-      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
       </c>
@@ -927,12 +931,12 @@
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
@@ -950,10 +954,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>130887121</v>
+        <v>130887089</v>
       </c>
       <c r="B4" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -961,26 +965,31 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
@@ -988,10 +997,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>495911</v>
+        <v>496018</v>
       </c>
       <c r="R4" t="n">
-        <v>7016227</v>
+        <v>7016278</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1026,13 +1035,17 @@
           <t>2026-01-26</t>
         </is>
       </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>Ringhack, äldre, i riklig mängd längs flera meter på en granstam. Med tydliga spår av sav/kådaflöden. Granen med ringhack står intill en enklare körväg.</t>
+        </is>
+      </c>
       <c r="AD4" t="b">
         <v>0</v>
       </c>
       <c r="AE4" t="b">
         <v>0</v>
       </c>
-      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
@@ -1053,12 +1066,12 @@
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
@@ -1076,7 +1089,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>130887089</v>
+        <v>130887090</v>
       </c>
       <c r="B5" t="n">
         <v>57884</v>
@@ -1109,7 +1122,7 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>gammalt bo</t>
         </is>
       </c>
       <c r="N5" t="inlineStr"/>
@@ -1119,10 +1132,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>496018</v>
+        <v>495983</v>
       </c>
       <c r="R5" t="n">
-        <v>7016278</v>
+        <v>7016212</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1159,7 +1172,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, i riklig mängd längs flera meter på en granstam. Med tydliga spår av sav/kådaflöden. Granen med ringhack står intill en enklare körväg.</t>
+          <t>Välsnidat bohål på ca 1,75 meters höjd i en döende gran. Bohålets diameter är 4,5 cm.</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1211,10 +1224,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>130887092</v>
+        <v>130887118</v>
       </c>
       <c r="B6" t="n">
-        <v>57884</v>
+        <v>79245</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1222,31 +1235,26 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
@@ -1254,10 +1262,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>495933</v>
+        <v>495992</v>
       </c>
       <c r="R6" t="n">
-        <v>7016163</v>
+        <v>7016301</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1294,7 +1302,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på en levande gran nära kant mot ungskog.</t>
+          <t>På gran intill andra hänglavar.</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1303,6 +1311,7 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
+      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
@@ -1323,12 +1332,12 @@
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
@@ -1346,10 +1355,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>130887090</v>
+        <v>130887121</v>
       </c>
       <c r="B7" t="n">
-        <v>57884</v>
+        <v>79245</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1357,31 +1366,26 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>gammalt bo</t>
-        </is>
-      </c>
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
@@ -1389,10 +1393,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>495983</v>
+        <v>495911</v>
       </c>
       <c r="R7" t="n">
-        <v>7016212</v>
+        <v>7016227</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1427,17 +1431,13 @@
           <t>2026-01-26</t>
         </is>
       </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>Välsnidat bohål på ca 1,75 meters höjd i en döende gran. Bohålets diameter är 4,5 cm.</t>
-        </is>
-      </c>
       <c r="AD7" t="b">
         <v>0</v>
       </c>
       <c r="AE7" t="b">
         <v>0</v>
       </c>
+      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
       </c>
@@ -1458,12 +1458,12 @@
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr"/>
@@ -1619,7 +1619,7 @@
         <v>130887108</v>
       </c>
       <c r="B9" t="n">
-        <v>97879</v>
+        <v>97880</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -2135,7 +2135,7 @@
         <v>130887126</v>
       </c>
       <c r="B13" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -2258,10 +2258,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>130887123</v>
+        <v>130887133</v>
       </c>
       <c r="B14" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2296,10 +2296,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>495877</v>
+        <v>496017</v>
       </c>
       <c r="R14" t="n">
-        <v>7016242</v>
+        <v>7016363</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2384,10 +2384,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>130887133</v>
+        <v>130887123</v>
       </c>
       <c r="B15" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2422,10 +2422,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>496017</v>
+        <v>495877</v>
       </c>
       <c r="R15" t="n">
-        <v>7016363</v>
+        <v>7016242</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2510,10 +2510,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>130887125</v>
+        <v>130887095</v>
       </c>
       <c r="B16" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2521,26 +2521,31 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
@@ -2548,10 +2553,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>495945</v>
+        <v>495890</v>
       </c>
       <c r="R16" t="n">
-        <v>7016232</v>
+        <v>7016236</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2586,13 +2591,17 @@
           <t>2026-01-26</t>
         </is>
       </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>Ringhack, äldre, enstaka högt upp på stammen av en levande gran nära kant mot ungskog.</t>
+        </is>
+      </c>
       <c r="AD16" t="b">
         <v>0</v>
       </c>
       <c r="AE16" t="b">
         <v>0</v>
       </c>
-      <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="b">
         <v>0</v>
       </c>
@@ -2613,12 +2622,12 @@
       </c>
       <c r="AM16" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr"/>
@@ -2636,10 +2645,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>130887095</v>
+        <v>130887125</v>
       </c>
       <c r="B17" t="n">
-        <v>57884</v>
+        <v>79245</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2647,31 +2656,26 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
@@ -2679,10 +2683,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>495890</v>
+        <v>495945</v>
       </c>
       <c r="R17" t="n">
-        <v>7016236</v>
+        <v>7016232</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2717,17 +2721,13 @@
           <t>2026-01-26</t>
         </is>
       </c>
-      <c r="AC17" t="inlineStr">
-        <is>
-          <t>Ringhack, äldre, enstaka högt upp på stammen av en levande gran nära kant mot ungskog.</t>
-        </is>
-      </c>
       <c r="AD17" t="b">
         <v>0</v>
       </c>
       <c r="AE17" t="b">
         <v>0</v>
       </c>
+      <c r="AF17" t="inlineStr"/>
       <c r="AG17" t="b">
         <v>0</v>
       </c>
@@ -2748,12 +2748,12 @@
       </c>
       <c r="AM17" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT17" t="inlineStr"/>
@@ -2909,7 +2909,7 @@
         <v>130887122</v>
       </c>
       <c r="B19" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -3170,7 +3170,7 @@
         <v>130887104</v>
       </c>
       <c r="B21" t="n">
-        <v>80378</v>
+        <v>80379</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -3309,7 +3309,7 @@
         <v>130887106</v>
       </c>
       <c r="B22" t="n">
-        <v>80378</v>
+        <v>80379</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -3444,7 +3444,7 @@
         <v>130887119</v>
       </c>
       <c r="B23" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -3575,7 +3575,7 @@
         <v>130887116</v>
       </c>
       <c r="B24" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3703,10 +3703,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>130887120</v>
+        <v>130887107</v>
       </c>
       <c r="B25" t="n">
-        <v>79244</v>
+        <v>57881</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3714,41 +3714,50 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>med apothecier</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P25" t="inlineStr">
         <is>
           <t>Palleråsen Södra, Jmt</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>495991</v>
+        <v>495982</v>
       </c>
       <c r="R25" t="n">
-        <v>7016264</v>
+        <v>7016398</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3785,7 +3794,7 @@
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>Långväxta fertila bålar med apothecier.</t>
+          <t>1 eller möjligen 2 individer som sågs och hördes hacka i stående döda granar och uttryckte lockläte emellanåt. Hyfsat gott om stående död ved på/kring fyndplatsen.</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3794,7 +3803,6 @@
       <c r="AE25" t="b">
         <v>0</v>
       </c>
-      <c r="AF25" t="inlineStr"/>
       <c r="AG25" t="b">
         <v>0</v>
       </c>
@@ -3803,24 +3811,9 @@
           <t>Granskog</t>
         </is>
       </c>
-      <c r="AJ25" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK25" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM25" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
-      <c r="AO25" t="inlineStr">
-        <is>
-          <t>Branch on living tree # Picea abies</t>
+      <c r="AI25" t="inlineStr">
+        <is>
+          <t>Äldre bitvis flerskiktad granskog.</t>
         </is>
       </c>
       <c r="AT25" t="inlineStr"/>
@@ -3838,10 +3831,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>130887107</v>
+        <v>130887120</v>
       </c>
       <c r="B26" t="n">
-        <v>57881</v>
+        <v>79245</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3849,50 +3842,41 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>med apothecier</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
           <t>Palleråsen Södra, Jmt</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>495982</v>
+        <v>495991</v>
       </c>
       <c r="R26" t="n">
-        <v>7016398</v>
+        <v>7016264</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3929,7 +3913,7 @@
       </c>
       <c r="AC26" t="inlineStr">
         <is>
-          <t>1 eller möjligen 2 individer som sågs och hördes hacka i stående döda granar och uttryckte lockläte emellanåt. Hyfsat gott om stående död ved på/kring fyndplatsen.</t>
+          <t>Långväxta fertila bålar med apothecier.</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3938,6 +3922,7 @@
       <c r="AE26" t="b">
         <v>0</v>
       </c>
+      <c r="AF26" t="inlineStr"/>
       <c r="AG26" t="b">
         <v>0</v>
       </c>
@@ -3946,9 +3931,24 @@
           <t>Granskog</t>
         </is>
       </c>
-      <c r="AI26" t="inlineStr">
-        <is>
-          <t>Äldre bitvis flerskiktad granskog.</t>
+      <c r="AJ26" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK26" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM26" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
+      <c r="AO26" t="inlineStr">
+        <is>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT26" t="inlineStr"/>
@@ -3969,7 +3969,7 @@
         <v>130887130</v>
       </c>
       <c r="B27" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         <v>130887128</v>
       </c>
       <c r="B28" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -4228,10 +4228,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>130887132</v>
+        <v>130887086</v>
       </c>
       <c r="B29" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -4239,26 +4239,31 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
@@ -4266,10 +4271,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>496008</v>
+        <v>495683</v>
       </c>
       <c r="R29" t="n">
-        <v>7016340</v>
+        <v>7016064</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -4306,7 +4311,7 @@
       </c>
       <c r="AC29" t="inlineStr">
         <is>
-          <t>Långväxta bålar på gran. Ca 50 cm lång hängande bål.</t>
+          <t>Ringhack, färska, på en gran nära en mindre väg.</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -4315,7 +4320,6 @@
       <c r="AE29" t="b">
         <v>0</v>
       </c>
-      <c r="AF29" t="inlineStr"/>
       <c r="AG29" t="b">
         <v>0</v>
       </c>
@@ -4336,12 +4340,12 @@
       </c>
       <c r="AM29" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO29" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT29" t="inlineStr"/>
@@ -4494,10 +4498,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>130887127</v>
+        <v>130887132</v>
       </c>
       <c r="B31" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -4532,10 +4536,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>495831</v>
+        <v>496008</v>
       </c>
       <c r="R31" t="n">
-        <v>7016258</v>
+        <v>7016340</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4572,7 +4576,7 @@
       </c>
       <c r="AC31" t="inlineStr">
         <is>
-          <t>På en gren av gran på ca 2 m höjd.</t>
+          <t>Långväxta bålar på gran. Ca 50 cm lång hängande bål.</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4625,10 +4629,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>130887086</v>
+        <v>130887127</v>
       </c>
       <c r="B32" t="n">
-        <v>57884</v>
+        <v>79245</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -4636,31 +4640,26 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
@@ -4668,10 +4667,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>495683</v>
+        <v>495831</v>
       </c>
       <c r="R32" t="n">
-        <v>7016064</v>
+        <v>7016258</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4708,7 +4707,7 @@
       </c>
       <c r="AC32" t="inlineStr">
         <is>
-          <t>Ringhack, färska, på en gran nära en mindre väg.</t>
+          <t>På en gren av gran på ca 2 m höjd.</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4717,6 +4716,7 @@
       <c r="AE32" t="b">
         <v>0</v>
       </c>
+      <c r="AF32" t="inlineStr"/>
       <c r="AG32" t="b">
         <v>0</v>
       </c>
@@ -4737,12 +4737,12 @@
       </c>
       <c r="AM32" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO32" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT32" t="inlineStr"/>
@@ -4895,10 +4895,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>130887113</v>
+        <v>130887082</v>
       </c>
       <c r="B34" t="n">
-        <v>79244</v>
+        <v>91810</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4906,26 +4906,30 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
       <c r="N34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
@@ -4933,10 +4937,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>495718</v>
+        <v>495948</v>
       </c>
       <c r="R34" t="n">
-        <v>7015966</v>
+        <v>7016328</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4971,6 +4975,11 @@
           <t>2026-01-26</t>
         </is>
       </c>
+      <c r="AC34" t="inlineStr">
+        <is>
+          <t>Rikligt med fruktkroppar i en upplyft granlåga.</t>
+        </is>
+      </c>
       <c r="AD34" t="b">
         <v>0</v>
       </c>
@@ -4983,7 +4992,7 @@
       </c>
       <c r="AH34" t="inlineStr">
         <is>
-          <t>Barrskog</t>
+          <t>Granskog</t>
         </is>
       </c>
       <c r="AJ34" t="inlineStr">
@@ -4998,12 +5007,12 @@
       </c>
       <c r="AM34" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Liggande död trädstam, utan markontakt</t>
         </is>
       </c>
       <c r="AO34" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Horizontal, dead without ground contact # Picea abies</t>
         </is>
       </c>
       <c r="AT34" t="inlineStr"/>
@@ -5021,10 +5030,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>130887117</v>
+        <v>130887113</v>
       </c>
       <c r="B35" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -5059,10 +5068,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>495769</v>
+        <v>495718</v>
       </c>
       <c r="R35" t="n">
-        <v>7016151</v>
+        <v>7015966</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -5097,11 +5106,6 @@
           <t>2026-01-26</t>
         </is>
       </c>
-      <c r="AC35" t="inlineStr">
-        <is>
-          <t>Växer på en hyfsat grovbarkig gammal gran.</t>
-        </is>
-      </c>
       <c r="AD35" t="b">
         <v>0</v>
       </c>
@@ -5114,7 +5118,7 @@
       </c>
       <c r="AH35" t="inlineStr">
         <is>
-          <t>Granskog</t>
+          <t>Barrskog</t>
         </is>
       </c>
       <c r="AJ35" t="inlineStr">
@@ -5152,10 +5156,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>130887082</v>
+        <v>130887117</v>
       </c>
       <c r="B36" t="n">
-        <v>91809</v>
+        <v>79245</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -5163,30 +5167,26 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="N36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
@@ -5194,10 +5194,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>495948</v>
+        <v>495769</v>
       </c>
       <c r="R36" t="n">
-        <v>7016328</v>
+        <v>7016151</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -5234,7 +5234,7 @@
       </c>
       <c r="AC36" t="inlineStr">
         <is>
-          <t>Rikligt med fruktkroppar i en upplyft granlåga.</t>
+          <t>Växer på en hyfsat grovbarkig gammal gran.</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -5264,12 +5264,12 @@
       </c>
       <c r="AM36" t="inlineStr">
         <is>
-          <t>Liggande död trädstam, utan markontakt</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO36" t="inlineStr">
         <is>
-          <t>Horizontal, dead without ground contact # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT36" t="inlineStr"/>
@@ -5287,7 +5287,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>130887099</v>
+        <v>130887084</v>
       </c>
       <c r="B37" t="n">
         <v>57884</v>
@@ -5320,20 +5320,24 @@
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr">
         <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N37" t="inlineStr"/>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P37" t="inlineStr">
         <is>
           <t>Palleråsen Södra, Jmt</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>495812</v>
+        <v>495868</v>
       </c>
       <c r="R37" t="n">
-        <v>7016273</v>
+        <v>7015959</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -5370,7 +5374,7 @@
       </c>
       <c r="AC37" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på en levande gran nära kant mot ungskog.</t>
+          <t>Ringhack, färska, enstaka några meter upp på en granstam vid en glänta.</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -5422,7 +5426,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>130887084</v>
+        <v>130887099</v>
       </c>
       <c r="B38" t="n">
         <v>57884</v>
@@ -5455,24 +5459,20 @@
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr">
         <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
           <t>Palleråsen Södra, Jmt</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>495868</v>
+        <v>495812</v>
       </c>
       <c r="R38" t="n">
-        <v>7015959</v>
+        <v>7016273</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -5509,7 +5509,7 @@
       </c>
       <c r="AC38" t="inlineStr">
         <is>
-          <t>Ringhack, färska, enstaka några meter upp på en granstam vid en glänta.</t>
+          <t>Ringhack, äldre, på en levande gran nära kant mot ungskog.</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -5564,7 +5564,7 @@
         <v>130887109</v>
       </c>
       <c r="B39" t="n">
-        <v>97879</v>
+        <v>97880</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -5671,7 +5671,7 @@
         <v>130887131</v>
       </c>
       <c r="B40" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -5802,7 +5802,7 @@
         <v>130887115</v>
       </c>
       <c r="B41" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -5925,41 +5925,37 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>130887105</v>
+        <v>130887114</v>
       </c>
       <c r="B42" t="n">
-        <v>80378</v>
+        <v>79245</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>6462</v>
+        <v>6425</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>med apothecier</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="N42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
@@ -5967,10 +5963,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>495736</v>
+        <v>495689</v>
       </c>
       <c r="R42" t="n">
-        <v>7016168</v>
+        <v>7015994</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -6022,22 +6018,22 @@
       </c>
       <c r="AJ42" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK42" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM42" t="inlineStr">
         <is>
-          <t>Bark på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO42" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Salix caprea</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT42" t="inlineStr"/>
@@ -6055,37 +6051,41 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>130887114</v>
+        <v>130887105</v>
       </c>
       <c r="B43" t="n">
-        <v>79244</v>
+        <v>80379</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>6425</v>
+        <v>6462</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>med apothecier</t>
+        </is>
+      </c>
       <c r="N43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
@@ -6093,10 +6093,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>495689</v>
+        <v>495736</v>
       </c>
       <c r="R43" t="n">
-        <v>7015994</v>
+        <v>7016168</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -6148,22 +6148,22 @@
       </c>
       <c r="AJ43" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK43" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AM43" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO43" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Bark on living woody plant # Salix caprea</t>
         </is>
       </c>
       <c r="AT43" t="inlineStr"/>
@@ -6181,10 +6181,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>130887129</v>
+        <v>130887091</v>
       </c>
       <c r="B44" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -6192,26 +6192,31 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
@@ -6219,10 +6224,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>495878</v>
+        <v>495967</v>
       </c>
       <c r="R44" t="n">
-        <v>7016320</v>
+        <v>7016170</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -6257,13 +6262,17 @@
           <t>2026-01-26</t>
         </is>
       </c>
+      <c r="AC44" t="inlineStr">
+        <is>
+          <t>Ringhack, färska, på en levande gran vid en hyggeskant.</t>
+        </is>
+      </c>
       <c r="AD44" t="b">
         <v>0</v>
       </c>
       <c r="AE44" t="b">
         <v>0</v>
       </c>
-      <c r="AF44" t="inlineStr"/>
       <c r="AG44" t="b">
         <v>0</v>
       </c>
@@ -6284,12 +6293,12 @@
       </c>
       <c r="AM44" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO44" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT44" t="inlineStr"/>
@@ -6307,10 +6316,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>130887097</v>
+        <v>130887081</v>
       </c>
       <c r="B45" t="n">
-        <v>57884</v>
+        <v>91810</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -6318,29 +6327,28 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
         </is>
       </c>
       <c r="N45" t="inlineStr"/>
@@ -6350,10 +6358,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>495856</v>
+        <v>495919</v>
       </c>
       <c r="R45" t="n">
-        <v>7016255</v>
+        <v>7016205</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -6390,7 +6398,7 @@
       </c>
       <c r="AC45" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, längs flera meter långt upp på en levande gran nära kant mot ungskog. Tydliga spår av sav/kådaflöde på granens stam.</t>
+          <t>I upplyft granlåga.</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -6399,6 +6407,7 @@
       <c r="AE45" t="b">
         <v>0</v>
       </c>
+      <c r="AF45" t="inlineStr"/>
       <c r="AG45" t="b">
         <v>0</v>
       </c>
@@ -6419,12 +6428,12 @@
       </c>
       <c r="AM45" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Liggande död trädstam, utan markontakt</t>
         </is>
       </c>
       <c r="AO45" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Horizontal, dead without ground contact # Picea abies</t>
         </is>
       </c>
       <c r="AT45" t="inlineStr"/>
@@ -6442,7 +6451,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>130887091</v>
+        <v>130887087</v>
       </c>
       <c r="B46" t="n">
         <v>57884</v>
@@ -6485,10 +6494,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>495967</v>
+        <v>495680</v>
       </c>
       <c r="R46" t="n">
-        <v>7016170</v>
+        <v>7016064</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -6525,7 +6534,7 @@
       </c>
       <c r="AC46" t="inlineStr">
         <is>
-          <t>Ringhack, färska, på en levande gran vid en hyggeskant.</t>
+          <t>Ringhack, färska, på en högväxt gran intill en mindre väg.</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -6577,10 +6586,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>130887081</v>
+        <v>130887097</v>
       </c>
       <c r="B47" t="n">
-        <v>91809</v>
+        <v>57884</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -6588,28 +6597,29 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N47" t="inlineStr"/>
@@ -6619,10 +6629,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>495919</v>
+        <v>495856</v>
       </c>
       <c r="R47" t="n">
-        <v>7016205</v>
+        <v>7016255</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -6659,7 +6669,7 @@
       </c>
       <c r="AC47" t="inlineStr">
         <is>
-          <t>I upplyft granlåga.</t>
+          <t>Ringhack, äldre, längs flera meter långt upp på en levande gran nära kant mot ungskog. Tydliga spår av sav/kådaflöde på granens stam.</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -6668,7 +6678,6 @@
       <c r="AE47" t="b">
         <v>0</v>
       </c>
-      <c r="AF47" t="inlineStr"/>
       <c r="AG47" t="b">
         <v>0</v>
       </c>
@@ -6689,12 +6698,12 @@
       </c>
       <c r="AM47" t="inlineStr">
         <is>
-          <t>Liggande död trädstam, utan markontakt</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO47" t="inlineStr">
         <is>
-          <t>Horizontal, dead without ground contact # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT47" t="inlineStr"/>
@@ -6712,10 +6721,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>130887087</v>
+        <v>130887124</v>
       </c>
       <c r="B48" t="n">
-        <v>57884</v>
+        <v>79245</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -6723,31 +6732,26 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
@@ -6755,10 +6759,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>495680</v>
+        <v>495877</v>
       </c>
       <c r="R48" t="n">
-        <v>7016064</v>
+        <v>7016270</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -6795,7 +6799,7 @@
       </c>
       <c r="AC48" t="inlineStr">
         <is>
-          <t>Ringhack, färska, på en högväxt gran intill en mindre väg.</t>
+          <t>Långväxta bålar på gran.</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -6804,6 +6808,7 @@
       <c r="AE48" t="b">
         <v>0</v>
       </c>
+      <c r="AF48" t="inlineStr"/>
       <c r="AG48" t="b">
         <v>0</v>
       </c>
@@ -6824,12 +6829,12 @@
       </c>
       <c r="AM48" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO48" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT48" t="inlineStr"/>
@@ -6847,10 +6852,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>130887124</v>
+        <v>130887129</v>
       </c>
       <c r="B49" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -6885,10 +6890,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>495877</v>
+        <v>495878</v>
       </c>
       <c r="R49" t="n">
-        <v>7016270</v>
+        <v>7016320</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -6921,11 +6926,6 @@
       <c r="AA49" t="inlineStr">
         <is>
           <t>2026-01-26</t>
-        </is>
-      </c>
-      <c r="AC49" t="inlineStr">
-        <is>
-          <t>Långväxta bålar på gran.</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -6978,10 +6978,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>130887112</v>
+        <v>130887101</v>
       </c>
       <c r="B50" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -6989,37 +6989,46 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P50" t="inlineStr">
         <is>
           <t>Palleråsen Södra, Jmt</t>
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>495735</v>
+        <v>495852</v>
       </c>
       <c r="R50" t="n">
-        <v>7016071</v>
+        <v>7016315</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -7056,7 +7065,7 @@
       </c>
       <c r="AC50" t="inlineStr">
         <is>
-          <t>Enstaka bålar på gran.</t>
+          <t>Ringhack, färska, längs ca 3 meter på en levande gran vid en lucka i skogen. En volym av stående död ved av gran som indikerar mycket högt livsmiljövärde för tretåig hackspett på fyndplatsen.</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -7065,7 +7074,6 @@
       <c r="AE50" t="b">
         <v>0</v>
       </c>
-      <c r="AF50" t="inlineStr"/>
       <c r="AG50" t="b">
         <v>0</v>
       </c>
@@ -7074,6 +7082,11 @@
           <t>Granskog</t>
         </is>
       </c>
+      <c r="AI50" t="inlineStr">
+        <is>
+          <t>Äldre bitvis flerskiktad granskog med inslag av tall, björk, sälg och gråal.</t>
+        </is>
+      </c>
       <c r="AJ50" t="inlineStr">
         <is>
           <t>gran</t>
@@ -7086,12 +7099,12 @@
       </c>
       <c r="AM50" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO50" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT50" t="inlineStr"/>
@@ -7109,10 +7122,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>130887101</v>
+        <v>130887112</v>
       </c>
       <c r="B51" t="n">
-        <v>57884</v>
+        <v>79245</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -7120,46 +7133,37 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+      <c r="N51" t="inlineStr"/>
       <c r="P51" t="inlineStr">
         <is>
           <t>Palleråsen Södra, Jmt</t>
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>495852</v>
+        <v>495735</v>
       </c>
       <c r="R51" t="n">
-        <v>7016315</v>
+        <v>7016071</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -7196,7 +7200,7 @@
       </c>
       <c r="AC51" t="inlineStr">
         <is>
-          <t>Ringhack, färska, längs ca 3 meter på en levande gran vid en lucka i skogen. En volym av stående död ved av gran som indikerar mycket högt livsmiljövärde för tretåig hackspett på fyndplatsen.</t>
+          <t>Enstaka bålar på gran.</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -7205,6 +7209,7 @@
       <c r="AE51" t="b">
         <v>0</v>
       </c>
+      <c r="AF51" t="inlineStr"/>
       <c r="AG51" t="b">
         <v>0</v>
       </c>
@@ -7213,11 +7218,6 @@
           <t>Granskog</t>
         </is>
       </c>
-      <c r="AI51" t="inlineStr">
-        <is>
-          <t>Äldre bitvis flerskiktad granskog med inslag av tall, björk, sälg och gråal.</t>
-        </is>
-      </c>
       <c r="AJ51" t="inlineStr">
         <is>
           <t>gran</t>
@@ -7230,12 +7230,12 @@
       </c>
       <c r="AM51" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO51" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT51" t="inlineStr"/>
